--- a/02.data/_aux/LIS datasets.xlsx
+++ b/02.data/_aux/LIS datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/acastanedaa_worldbank_org/Documents/WorldBank/DECDG/PovcalNet Team/LIS_data/02.data/_aux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26749EB-33BC-4C52-B366-8DE6F1F88FBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0803F14E-CC74-42E6-9115-46AEE48D91EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{DA214762-5DBE-485D-812E-A8355C7FFC9F}"/>
   </bookViews>
@@ -743,15 +743,9 @@
     <t>Estonian Social Survey (ESS) / Survey on Income and Living Conditions (SILC) (Estonia)</t>
   </si>
   <si>
-    <t>ESS-LIS/SILC-LIS</t>
-  </si>
-  <si>
     <t>Income Distribution Survey (IDS) / Survey on Income and Living Conditions (SILC) (Finland)</t>
   </si>
   <si>
-    <t>IDS-LIS/SILC-LIS</t>
-  </si>
-  <si>
     <t>Household Budget Survey (BdF) (France)</t>
   </si>
   <si>
@@ -788,9 +782,6 @@
     <t>Socio-economic Panel "Living in Luxembourg" (PSELL III) / Survey on Income and Living Conditions (SILC) (Luxembourg)</t>
   </si>
   <si>
-    <t>SEP-LIS /SILC-LIS</t>
-  </si>
-  <si>
     <t>Income Distibution Survey (Norway)</t>
   </si>
   <si>
@@ -863,9 +854,6 @@
     <t>SIHCA-LIS</t>
   </si>
   <si>
-    <t>SIH-LIS/HES-LIS</t>
-  </si>
-  <si>
     <t>Survey of Consumer Finances (SCF) (Canada)</t>
   </si>
   <si>
@@ -902,9 +890,6 @@
     <t>Household Income and Expenditure Survey (HIES) and Farm Household Income and Expenditure Survey (FHES) (South Korea)</t>
   </si>
   <si>
-    <t>HIES-LIS/FHES-LIS</t>
-  </si>
-  <si>
     <t>Won</t>
   </si>
   <si>
@@ -1131,6 +1116,21 @@
   </si>
   <si>
     <t>VHLSS-LIS</t>
+  </si>
+  <si>
+    <t>ESS-SILC-LIS</t>
+  </si>
+  <si>
+    <t>IDS-SILC-LIS</t>
+  </si>
+  <si>
+    <t>SEP-SILC-LIS</t>
+  </si>
+  <si>
+    <t>SIH-HES-LIS</t>
+  </si>
+  <si>
+    <t>HIES-FHES-LIS</t>
   </si>
 </sst>
 </file>
@@ -6233,9 +6233,9 @@
   <dimension ref="A1:M366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10098,7 +10098,7 @@
         <v>202</v>
       </c>
       <c r="D135" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="E135" s="79" t="s">
         <v>70</v>
@@ -10124,7 +10124,7 @@
         <v>202</v>
       </c>
       <c r="D136" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="E136" s="79" t="s">
         <v>70</v>
@@ -10150,7 +10150,7 @@
         <v>202</v>
       </c>
       <c r="D137" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="E137" s="79" t="s">
         <v>70</v>
@@ -10176,7 +10176,7 @@
         <v>202</v>
       </c>
       <c r="D138" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="E138" s="79" t="s">
         <v>70</v>
@@ -10199,10 +10199,10 @@
         <v>2004</v>
       </c>
       <c r="C139" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D139" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="E139" s="79" t="s">
         <v>70</v>
@@ -10225,10 +10225,10 @@
         <v>2007</v>
       </c>
       <c r="C140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D140" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="E140" s="79" t="s">
         <v>70</v>
@@ -10251,10 +10251,10 @@
         <v>2010</v>
       </c>
       <c r="C141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D141" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="E141" s="79" t="s">
         <v>70</v>
@@ -10277,10 +10277,10 @@
         <v>2013</v>
       </c>
       <c r="C142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D142" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="E142" s="79" t="s">
         <v>70</v>
@@ -10303,10 +10303,10 @@
         <v>2016</v>
       </c>
       <c r="C143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D143" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="E143" s="79" t="s">
         <v>70</v>
@@ -10329,7 +10329,7 @@
         <v>2005</v>
       </c>
       <c r="C144" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D144" t="s">
         <v>122</v>
@@ -10355,7 +10355,7 @@
         <v>2010</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D145" t="s">
         <v>122</v>
@@ -10381,7 +10381,7 @@
         <v>1991</v>
       </c>
       <c r="C146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D146" t="s">
         <v>66</v>
@@ -10407,7 +10407,7 @@
         <v>1994</v>
       </c>
       <c r="C147" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D147" t="s">
         <v>66</v>
@@ -10433,7 +10433,7 @@
         <v>1995</v>
       </c>
       <c r="C148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D148" t="s">
         <v>66</v>
@@ -10459,7 +10459,7 @@
         <v>1998</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D149" t="s">
         <v>66</v>
@@ -10485,7 +10485,7 @@
         <v>2000</v>
       </c>
       <c r="C150" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D150" t="s">
         <v>66</v>
@@ -10511,7 +10511,7 @@
         <v>2001</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D151" t="s">
         <v>66</v>
@@ -10537,7 +10537,7 @@
         <v>2002</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D152" t="s">
         <v>66</v>
@@ -10563,7 +10563,7 @@
         <v>2003</v>
       </c>
       <c r="C153" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D153" t="s">
         <v>66</v>
@@ -10589,7 +10589,7 @@
         <v>2004</v>
       </c>
       <c r="C154" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D154" t="s">
         <v>66</v>
@@ -10615,7 +10615,7 @@
         <v>2005</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D155" t="s">
         <v>66</v>
@@ -10641,7 +10641,7 @@
         <v>2006</v>
       </c>
       <c r="C156" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D156" t="s">
         <v>66</v>
@@ -10667,7 +10667,7 @@
         <v>2007</v>
       </c>
       <c r="C157" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D157" t="s">
         <v>66</v>
@@ -10693,7 +10693,7 @@
         <v>2008</v>
       </c>
       <c r="C158" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D158" t="s">
         <v>66</v>
@@ -10719,7 +10719,7 @@
         <v>2009</v>
       </c>
       <c r="C159" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D159" t="s">
         <v>66</v>
@@ -10745,7 +10745,7 @@
         <v>2010</v>
       </c>
       <c r="C160" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D160" t="s">
         <v>66</v>
@@ -10771,7 +10771,7 @@
         <v>2011</v>
       </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D161" t="s">
         <v>66</v>
@@ -10797,7 +10797,7 @@
         <v>2012</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D162" t="s">
         <v>66</v>
@@ -10823,7 +10823,7 @@
         <v>2013</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D163" t="s">
         <v>66</v>
@@ -10849,7 +10849,7 @@
         <v>2014</v>
       </c>
       <c r="C164" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D164" t="s">
         <v>66</v>
@@ -10875,7 +10875,7 @@
         <v>2015</v>
       </c>
       <c r="C165" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D165" t="s">
         <v>66</v>
@@ -10901,7 +10901,7 @@
         <v>2016</v>
       </c>
       <c r="C166" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D166" t="s">
         <v>66</v>
@@ -10927,7 +10927,7 @@
         <v>2004</v>
       </c>
       <c r="C167" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D167" t="s">
         <v>197</v>
@@ -10953,7 +10953,7 @@
         <v>2007</v>
       </c>
       <c r="C168" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D168" t="s">
         <v>197</v>
@@ -10979,7 +10979,7 @@
         <v>2010</v>
       </c>
       <c r="C169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D169" t="s">
         <v>197</v>
@@ -11005,7 +11005,7 @@
         <v>2013</v>
       </c>
       <c r="C170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D170" t="s">
         <v>197</v>
@@ -11031,7 +11031,7 @@
         <v>2005</v>
       </c>
       <c r="C171" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D171" t="s">
         <v>167</v>
@@ -11057,7 +11057,7 @@
         <v>2007</v>
       </c>
       <c r="C172" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D172" t="s">
         <v>167</v>
@@ -11083,7 +11083,7 @@
         <v>2009</v>
       </c>
       <c r="C173" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D173" t="s">
         <v>167</v>
@@ -11109,7 +11109,7 @@
         <v>2012</v>
       </c>
       <c r="C174" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D174" t="s">
         <v>167</v>
@@ -11135,7 +11135,7 @@
         <v>2015</v>
       </c>
       <c r="C175" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D175" t="s">
         <v>167</v>
@@ -11155,13 +11155,13 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B176">
         <v>2004</v>
       </c>
       <c r="C176" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D176" t="s">
         <v>197</v>
@@ -11173,7 +11173,7 @@
         <v>2928</v>
       </c>
       <c r="G176" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I176" t="s">
         <v>194</v>
@@ -11181,13 +11181,13 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B177">
         <v>2007</v>
       </c>
       <c r="C177" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D177" t="s">
         <v>197</v>
@@ -11199,7 +11199,7 @@
         <v>2887</v>
       </c>
       <c r="G177" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I177" t="s">
         <v>194</v>
@@ -11207,13 +11207,13 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B178">
         <v>2010</v>
       </c>
       <c r="C178" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D178" t="s">
         <v>197</v>
@@ -11225,7 +11225,7 @@
         <v>3018</v>
       </c>
       <c r="G178" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I178" t="s">
         <v>194</v>
@@ -11239,7 +11239,7 @@
         <v>2004</v>
       </c>
       <c r="C179" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D179" t="s">
         <v>197</v>
@@ -11265,7 +11265,7 @@
         <v>2007</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D180" t="s">
         <v>197</v>
@@ -11291,7 +11291,7 @@
         <v>2012</v>
       </c>
       <c r="C181" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D181" t="s">
         <v>197</v>
@@ -11317,7 +11317,7 @@
         <v>2004</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D182" t="s">
         <v>108</v>
@@ -11343,7 +11343,7 @@
         <v>2008</v>
       </c>
       <c r="C183" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D183" t="s">
         <v>108</v>
@@ -11369,7 +11369,7 @@
         <v>2010</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D184" t="s">
         <v>108</v>
@@ -11395,7 +11395,7 @@
         <v>2014</v>
       </c>
       <c r="C185" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D185" t="s">
         <v>108</v>
@@ -11415,13 +11415,13 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B186">
         <v>2010</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D186" t="s">
         <v>197</v>
@@ -11441,13 +11441,13 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B187">
         <v>2013</v>
       </c>
       <c r="C187" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D187" t="s">
         <v>197</v>
@@ -11473,10 +11473,10 @@
         <v>2004</v>
       </c>
       <c r="C188" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D188" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="E188" s="79" t="s">
         <v>70</v>
@@ -11499,10 +11499,10 @@
         <v>2007</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D189" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="E189" s="79" t="s">
         <v>70</v>
@@ -11525,10 +11525,10 @@
         <v>2010</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D190" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="E190" s="79" t="s">
         <v>70</v>
@@ -11551,10 +11551,10 @@
         <v>2013</v>
       </c>
       <c r="C191" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D191" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="E191" s="79" t="s">
         <v>70</v>
@@ -11577,7 +11577,7 @@
         <v>2004</v>
       </c>
       <c r="C192" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D192" t="s">
         <v>86</v>
@@ -11603,7 +11603,7 @@
         <v>2007</v>
       </c>
       <c r="C193" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D193" t="s">
         <v>169</v>
@@ -11629,7 +11629,7 @@
         <v>2010</v>
       </c>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D194" t="s">
         <v>169</v>
@@ -11655,7 +11655,7 @@
         <v>2013</v>
       </c>
       <c r="C195" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D195" t="s">
         <v>169</v>
@@ -11681,7 +11681,7 @@
         <v>2004</v>
       </c>
       <c r="C196" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D196" t="s">
         <v>122</v>
@@ -11707,7 +11707,7 @@
         <v>2007</v>
       </c>
       <c r="C197" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D197" t="s">
         <v>122</v>
@@ -11733,7 +11733,7 @@
         <v>2010</v>
       </c>
       <c r="C198" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D198" t="s">
         <v>122</v>
@@ -11759,7 +11759,7 @@
         <v>2013</v>
       </c>
       <c r="C199" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D199" t="s">
         <v>122</v>
@@ -11785,7 +11785,7 @@
         <v>2016</v>
       </c>
       <c r="C200" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D200" t="s">
         <v>122</v>
@@ -11805,13 +11805,13 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B201">
         <v>2006</v>
       </c>
       <c r="C201" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D201" t="s">
         <v>122</v>
@@ -11823,7 +11823,7 @@
         <v>4560</v>
       </c>
       <c r="G201" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I201" t="s">
         <v>194</v>
@@ -11831,13 +11831,13 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B202">
         <v>2010</v>
       </c>
       <c r="C202" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D202" t="s">
         <v>122</v>
@@ -11849,7 +11849,7 @@
         <v>4585</v>
       </c>
       <c r="G202" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I202" t="s">
         <v>194</v>
@@ -11857,13 +11857,13 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B203">
         <v>2013</v>
       </c>
       <c r="C203" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D203" t="s">
         <v>122</v>
@@ -11875,7 +11875,7 @@
         <v>4517</v>
       </c>
       <c r="G203" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I203" t="s">
         <v>194</v>
@@ -11883,13 +11883,13 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B204">
         <v>2016</v>
       </c>
       <c r="C204" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D204" t="s">
         <v>122</v>
@@ -11901,7 +11901,7 @@
         <v>6457</v>
       </c>
       <c r="G204" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I204" t="s">
         <v>194</v>
@@ -11909,13 +11909,13 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B205">
         <v>2004</v>
       </c>
       <c r="C205" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D205" t="s">
         <v>197</v>
@@ -11935,13 +11935,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B206">
         <v>2007</v>
       </c>
       <c r="C206" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D206" t="s">
         <v>197</v>
@@ -11961,13 +11961,13 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B207">
         <v>2010</v>
       </c>
       <c r="C207" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D207" t="s">
         <v>197</v>
@@ -11987,13 +11987,13 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B208">
         <v>2013</v>
       </c>
       <c r="C208" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D208" t="s">
         <v>197</v>
@@ -12019,7 +12019,7 @@
         <v>2004</v>
       </c>
       <c r="C209" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D209" t="s">
         <v>122</v>
@@ -12031,7 +12031,7 @@
         <v>3725</v>
       </c>
       <c r="G209" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I209" t="s">
         <v>194</v>
@@ -12045,7 +12045,7 @@
         <v>2007</v>
       </c>
       <c r="C210" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D210" t="s">
         <v>122</v>
@@ -12057,7 +12057,7 @@
         <v>3697</v>
       </c>
       <c r="G210" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I210" t="s">
         <v>194</v>
@@ -12071,7 +12071,7 @@
         <v>2010</v>
       </c>
       <c r="C211" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D211" t="s">
         <v>122</v>
@@ -12083,7 +12083,7 @@
         <v>3924</v>
       </c>
       <c r="G211" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I211" t="s">
         <v>194</v>
@@ -12097,7 +12097,7 @@
         <v>2012</v>
       </c>
       <c r="C212" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D212" t="s">
         <v>122</v>
@@ -12123,7 +12123,7 @@
         <v>2015</v>
       </c>
       <c r="C213" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D213" t="s">
         <v>122</v>
@@ -12149,7 +12149,7 @@
         <v>2004</v>
       </c>
       <c r="C214" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D214" t="s">
         <v>197</v>
@@ -12175,7 +12175,7 @@
         <v>2007</v>
       </c>
       <c r="C215" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D215" t="s">
         <v>197</v>
@@ -12201,7 +12201,7 @@
         <v>2010</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D216" t="s">
         <v>197</v>
@@ -12227,7 +12227,7 @@
         <v>2013</v>
       </c>
       <c r="C217" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D217" t="s">
         <v>197</v>
@@ -12253,7 +12253,7 @@
         <v>2016</v>
       </c>
       <c r="C218" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D218" t="s">
         <v>197</v>
@@ -12279,7 +12279,7 @@
         <v>2005</v>
       </c>
       <c r="C219" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D219" t="s">
         <v>169</v>
@@ -12305,7 +12305,7 @@
         <v>2004</v>
       </c>
       <c r="C220" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D220" t="s">
         <v>171</v>
@@ -12331,7 +12331,7 @@
         <v>2007</v>
       </c>
       <c r="C221" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D221" t="s">
         <v>197</v>
@@ -12357,7 +12357,7 @@
         <v>2010</v>
       </c>
       <c r="C222" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D222" t="s">
         <v>197</v>
@@ -12383,7 +12383,7 @@
         <v>2013</v>
       </c>
       <c r="C223" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D223" t="s">
         <v>197</v>
@@ -12409,7 +12409,7 @@
         <v>2004</v>
       </c>
       <c r="C224" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D224" t="s">
         <v>151</v>
@@ -12435,7 +12435,7 @@
         <v>2007</v>
       </c>
       <c r="C225" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D225" t="s">
         <v>151</v>
@@ -12461,7 +12461,7 @@
         <v>2010</v>
       </c>
       <c r="C226" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D226" t="s">
         <v>151</v>
@@ -12487,7 +12487,7 @@
         <v>2013</v>
       </c>
       <c r="C227" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D227" t="s">
         <v>151</v>
@@ -12513,7 +12513,7 @@
         <v>2016</v>
       </c>
       <c r="C228" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D228" t="s">
         <v>151</v>
@@ -12533,13 +12533,13 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B229">
         <v>1981</v>
       </c>
       <c r="C229" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D229" t="s">
         <v>125</v>
@@ -12551,7 +12551,7 @@
         <v>14755</v>
       </c>
       <c r="G229" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I229" t="s">
         <v>194</v>
@@ -12559,13 +12559,13 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B230">
         <v>1985</v>
       </c>
       <c r="C230" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D230" t="s">
         <v>86</v>
@@ -12577,7 +12577,7 @@
         <v>7563</v>
       </c>
       <c r="G230" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I230" t="s">
         <v>194</v>
@@ -12585,16 +12585,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>1989</v>
       </c>
       <c r="C231" t="s">
+        <v>236</v>
+      </c>
+      <c r="D231" t="s">
         <v>239</v>
-      </c>
-      <c r="D231" t="s">
-        <v>242</v>
       </c>
       <c r="E231" s="79" t="s">
         <v>70</v>
@@ -12603,7 +12603,7 @@
         <v>14450</v>
       </c>
       <c r="G231" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I231" t="s">
         <v>194</v>
@@ -12611,16 +12611,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>1995</v>
       </c>
       <c r="C232" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D232" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E232" s="79" t="s">
         <v>70</v>
@@ -12629,7 +12629,7 @@
         <v>6819</v>
       </c>
       <c r="G232" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I232" t="s">
         <v>194</v>
@@ -12637,16 +12637,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B233">
         <v>2001</v>
       </c>
       <c r="C233" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D233" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E233" s="79" t="s">
         <v>70</v>
@@ -12655,7 +12655,7 @@
         <v>6786</v>
       </c>
       <c r="G233" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I233" t="s">
         <v>194</v>
@@ -12663,16 +12663,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B234">
         <v>2003</v>
       </c>
       <c r="C234" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D234" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E234" s="79" t="s">
         <v>70</v>
@@ -12681,7 +12681,7 @@
         <v>10210</v>
       </c>
       <c r="G234" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I234" t="s">
         <v>194</v>
@@ -12689,16 +12689,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B235">
         <v>2004</v>
       </c>
       <c r="C235" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D235" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="E235" s="79" t="s">
         <v>70</v>
@@ -12707,7 +12707,7 @@
         <v>11361</v>
       </c>
       <c r="G235" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I235" t="s">
         <v>194</v>
@@ -12715,16 +12715,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B236">
         <v>2008</v>
       </c>
       <c r="C236" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D236" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E236" s="79" t="s">
         <v>70</v>
@@ -12733,7 +12733,7 @@
         <v>9345</v>
       </c>
       <c r="G236" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I236" t="s">
         <v>194</v>
@@ -12741,16 +12741,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B237">
         <v>2010</v>
       </c>
       <c r="C237" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D237" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="E237" s="79" t="s">
         <v>70</v>
@@ -12759,7 +12759,7 @@
         <v>18071</v>
       </c>
       <c r="G237" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I237" t="s">
         <v>194</v>
@@ -12767,16 +12767,16 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B238">
         <v>2014</v>
       </c>
       <c r="C238" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D238" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E238" s="79" t="s">
         <v>70</v>
@@ -12785,7 +12785,7 @@
         <v>14162</v>
       </c>
       <c r="G238" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I238" t="s">
         <v>194</v>
@@ -12799,7 +12799,7 @@
         <v>1994</v>
       </c>
       <c r="C239" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D239" t="s">
         <v>154</v>
@@ -12825,7 +12825,7 @@
         <v>1997</v>
       </c>
       <c r="C240" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D240" t="s">
         <v>154</v>
@@ -12851,10 +12851,10 @@
         <v>1998</v>
       </c>
       <c r="C241" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D241" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E241" s="79" t="s">
         <v>70</v>
@@ -12877,10 +12877,10 @@
         <v>2000</v>
       </c>
       <c r="C242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D242" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E242" s="79" t="s">
         <v>70</v>
@@ -12903,10 +12903,10 @@
         <v>2004</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D243" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E243" s="79" t="s">
         <v>70</v>
@@ -12929,10 +12929,10 @@
         <v>2007</v>
       </c>
       <c r="C244" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D244" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E244" s="79" t="s">
         <v>70</v>
@@ -12955,10 +12955,10 @@
         <v>2010</v>
       </c>
       <c r="C245" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D245" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E245" s="79" t="s">
         <v>70</v>
@@ -12981,10 +12981,10 @@
         <v>2013</v>
       </c>
       <c r="C246" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D246" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E246" s="79" t="s">
         <v>70</v>
@@ -13001,16 +13001,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B247">
         <v>1997</v>
       </c>
       <c r="C247" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D247" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E247" s="79" t="s">
         <v>70</v>
@@ -13019,7 +13019,7 @@
         <v>5230</v>
       </c>
       <c r="G247" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I247" t="s">
         <v>194</v>
@@ -13027,16 +13027,16 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B248">
         <v>2001</v>
       </c>
       <c r="C248" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D248" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E248" s="79" t="s">
         <v>70</v>
@@ -13045,7 +13045,7 @@
         <v>5787</v>
       </c>
       <c r="G248" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I248" t="s">
         <v>194</v>
@@ -13053,16 +13053,16 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B249">
         <v>2005</v>
       </c>
       <c r="C249" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D249" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E249" s="79" t="s">
         <v>70</v>
@@ -13071,7 +13071,7 @@
         <v>6272</v>
       </c>
       <c r="G249" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I249" t="s">
         <v>194</v>
@@ -13079,16 +13079,16 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B250">
         <v>2007</v>
       </c>
       <c r="C250" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D250" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E250" s="79" t="s">
         <v>70</v>
@@ -13097,7 +13097,7 @@
         <v>6173</v>
       </c>
       <c r="G250" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I250" t="s">
         <v>194</v>
@@ -13105,16 +13105,16 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B251">
         <v>2010</v>
       </c>
       <c r="C251" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D251" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E251" s="79" t="s">
         <v>70</v>
@@ -13123,7 +13123,7 @@
         <v>6168</v>
       </c>
       <c r="G251" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I251" t="s">
         <v>194</v>
@@ -13131,16 +13131,16 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B252">
         <v>2012</v>
       </c>
       <c r="C252" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D252" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E252" s="79" t="s">
         <v>70</v>
@@ -13149,7 +13149,7 @@
         <v>8742</v>
       </c>
       <c r="G252" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I252" t="s">
         <v>194</v>
@@ -13157,16 +13157,16 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B253">
         <v>2014</v>
       </c>
       <c r="C253" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D253" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E253" s="79" t="s">
         <v>70</v>
@@ -13175,7 +13175,7 @@
         <v>8465</v>
       </c>
       <c r="G253" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I253" t="s">
         <v>194</v>
@@ -13183,16 +13183,16 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B254">
         <v>2016</v>
       </c>
       <c r="C254" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D254" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E254" s="79" t="s">
         <v>70</v>
@@ -13201,7 +13201,7 @@
         <v>8903</v>
       </c>
       <c r="G254" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I254" t="s">
         <v>194</v>
@@ -13215,7 +13215,7 @@
         <v>2008</v>
       </c>
       <c r="C255" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D255" t="s">
         <v>157</v>
@@ -13235,16 +13235,16 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B256">
         <v>2006</v>
       </c>
       <c r="C256" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D256" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E256" s="79" t="s">
         <v>70</v>
@@ -13253,7 +13253,7 @@
         <v>15532</v>
       </c>
       <c r="G256" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I256" t="s">
         <v>194</v>
@@ -13261,16 +13261,16 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B257">
         <v>2008</v>
       </c>
       <c r="C257" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D257" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E257" s="79" t="s">
         <v>70</v>
@@ -13279,7 +13279,7 @@
         <v>13655</v>
       </c>
       <c r="G257" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I257" t="s">
         <v>194</v>
@@ -13287,16 +13287,16 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B258">
         <v>2010</v>
       </c>
       <c r="C258" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D258" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E258" s="79" t="s">
         <v>70</v>
@@ -13305,7 +13305,7 @@
         <v>13317</v>
       </c>
       <c r="G258" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I258" t="s">
         <v>194</v>
@@ -13313,16 +13313,16 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B259">
         <v>2012</v>
       </c>
       <c r="C259" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D259" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E259" s="79" t="s">
         <v>70</v>
@@ -13331,7 +13331,7 @@
         <v>13075</v>
       </c>
       <c r="G259" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I259" t="s">
         <v>194</v>
@@ -13345,7 +13345,7 @@
         <v>1986</v>
       </c>
       <c r="C260" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D260" t="s">
         <v>160</v>
@@ -13371,7 +13371,7 @@
         <v>1991</v>
       </c>
       <c r="C261" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D261" t="s">
         <v>160</v>
@@ -13397,7 +13397,7 @@
         <v>1994</v>
       </c>
       <c r="C262" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D262" t="s">
         <v>160</v>
@@ -13423,7 +13423,7 @@
         <v>1997</v>
       </c>
       <c r="C263" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D263" t="s">
         <v>160</v>
@@ -13449,7 +13449,7 @@
         <v>2000</v>
       </c>
       <c r="C264" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D264" t="s">
         <v>160</v>
@@ -13475,7 +13475,7 @@
         <v>2004</v>
       </c>
       <c r="C265" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D265" t="s">
         <v>160</v>
@@ -13501,7 +13501,7 @@
         <v>2007</v>
       </c>
       <c r="C266" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D266" t="s">
         <v>160</v>
@@ -13527,7 +13527,7 @@
         <v>2010</v>
       </c>
       <c r="C267" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D267" t="s">
         <v>160</v>
@@ -13553,7 +13553,7 @@
         <v>2013</v>
       </c>
       <c r="C268" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D268" t="s">
         <v>160</v>
@@ -13579,7 +13579,7 @@
         <v>2016</v>
       </c>
       <c r="C269" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D269" t="s">
         <v>160</v>
@@ -13599,16 +13599,16 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B270">
         <v>2006</v>
       </c>
       <c r="C270" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D270" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E270" s="79" t="s">
         <v>70</v>
@@ -13617,7 +13617,7 @@
         <v>118590</v>
       </c>
       <c r="G270" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I270" t="s">
         <v>194</v>
@@ -13625,16 +13625,16 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B271">
         <v>2009</v>
       </c>
       <c r="C271" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D271" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E271" s="79" t="s">
         <v>70</v>
@@ -13643,7 +13643,7 @@
         <v>121163</v>
       </c>
       <c r="G271" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I271" t="s">
         <v>194</v>
@@ -13651,16 +13651,16 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B272">
         <v>2011</v>
       </c>
       <c r="C272" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D272" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E272" s="79" t="s">
         <v>70</v>
@@ -13669,7 +13669,7 @@
         <v>111986</v>
       </c>
       <c r="G272" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I272" t="s">
         <v>194</v>
@@ -13677,16 +13677,16 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B273">
         <v>2013</v>
       </c>
       <c r="C273" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D273" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E273" s="79" t="s">
         <v>70</v>
@@ -13695,7 +13695,7 @@
         <v>116543</v>
       </c>
       <c r="G273" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I273" t="s">
         <v>194</v>
@@ -13703,16 +13703,16 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B274">
         <v>2016</v>
       </c>
       <c r="C274" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D274" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E274" s="79" t="s">
         <v>70</v>
@@ -13721,7 +13721,7 @@
         <v>148199</v>
       </c>
       <c r="G274" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I274" t="s">
         <v>194</v>
@@ -13729,16 +13729,16 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B275">
         <v>1990</v>
       </c>
       <c r="C275" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D275" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E275" s="79" t="s">
         <v>70</v>
@@ -13747,7 +13747,7 @@
         <v>25793</v>
       </c>
       <c r="G275" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I275" t="s">
         <v>194</v>
@@ -13755,16 +13755,16 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B276">
         <v>1992</v>
       </c>
       <c r="C276" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D276" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E276" s="79" t="s">
         <v>70</v>
@@ -13773,7 +13773,7 @@
         <v>35948</v>
       </c>
       <c r="G276" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I276" t="s">
         <v>194</v>
@@ -13781,16 +13781,16 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B277">
         <v>1994</v>
       </c>
       <c r="C277" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D277" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E277" s="79" t="s">
         <v>70</v>
@@ -13799,7 +13799,7 @@
         <v>45379</v>
       </c>
       <c r="G277" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I277" t="s">
         <v>194</v>
@@ -13807,16 +13807,16 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B278">
         <v>1996</v>
       </c>
       <c r="C278" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D278" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E278" s="79" t="s">
         <v>70</v>
@@ -13825,7 +13825,7 @@
         <v>33636</v>
       </c>
       <c r="G278" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I278" t="s">
         <v>194</v>
@@ -13833,16 +13833,16 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B279">
         <v>1998</v>
       </c>
       <c r="C279" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D279" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E279" s="79" t="s">
         <v>70</v>
@@ -13851,7 +13851,7 @@
         <v>48107</v>
       </c>
       <c r="G279" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I279" t="s">
         <v>194</v>
@@ -13859,16 +13859,16 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B280">
         <v>2000</v>
       </c>
       <c r="C280" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D280" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E280" s="79" t="s">
         <v>70</v>
@@ -13877,7 +13877,7 @@
         <v>65036</v>
       </c>
       <c r="G280" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I280" t="s">
         <v>194</v>
@@ -13885,16 +13885,16 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B281" s="80">
         <v>2003</v>
       </c>
       <c r="C281" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D281" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E281" s="79" t="s">
         <v>70</v>
@@ -13903,7 +13903,7 @@
         <v>68153</v>
       </c>
       <c r="G281" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H281" s="78"/>
       <c r="I281" t="s">
@@ -13916,16 +13916,16 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B282" s="80">
         <v>2006</v>
       </c>
       <c r="C282" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D282" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E282" s="79" t="s">
         <v>70</v>
@@ -13934,7 +13934,7 @@
         <v>73720</v>
       </c>
       <c r="G282" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I282" t="s">
         <v>194</v>
@@ -13942,16 +13942,16 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B283">
         <v>2009</v>
       </c>
       <c r="C283" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D283" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E283" s="79" t="s">
         <v>70</v>
@@ -13960,7 +13960,7 @@
         <v>71460</v>
       </c>
       <c r="G283" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I283" t="s">
         <v>194</v>
@@ -13968,16 +13968,16 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B284">
         <v>2011</v>
       </c>
       <c r="C284" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D284" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E284" s="79" t="s">
         <v>70</v>
@@ -13986,7 +13986,7 @@
         <v>59084</v>
       </c>
       <c r="G284" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H284" s="78"/>
       <c r="I284" t="s">
@@ -13997,16 +13997,16 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B285" s="80">
         <v>2013</v>
       </c>
       <c r="C285" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D285" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E285" s="79" t="s">
         <v>70</v>
@@ -14015,7 +14015,7 @@
         <v>66725</v>
       </c>
       <c r="G285" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I285" t="s">
         <v>194</v>
@@ -14023,16 +14023,16 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B286">
         <v>2015</v>
       </c>
       <c r="C286" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D286" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E286" s="79" t="s">
         <v>70</v>
@@ -14041,7 +14041,7 @@
         <v>83887</v>
       </c>
       <c r="G286" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I286" t="s">
         <v>194</v>
@@ -14049,16 +14049,16 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B287">
         <v>2017</v>
       </c>
       <c r="C287" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D287" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E287" s="79" t="s">
         <v>70</v>
@@ -14067,7 +14067,7 @@
         <v>70948</v>
       </c>
       <c r="G287" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I287" t="s">
         <v>194</v>
@@ -14075,16 +14075,16 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B288">
         <v>2002</v>
       </c>
       <c r="C288" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D288" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E288" s="79" t="s">
         <v>70</v>
@@ -14093,7 +14093,7 @@
         <v>17124</v>
       </c>
       <c r="G288" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I288" t="s">
         <v>194</v>
@@ -14101,16 +14101,16 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B289">
         <v>2013</v>
       </c>
       <c r="C289" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D289" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E289" s="79" t="s">
         <v>70</v>
@@ -14119,7 +14119,7 @@
         <v>17890</v>
       </c>
       <c r="G289" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I289" t="s">
         <v>194</v>
@@ -14127,16 +14127,16 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B290" s="80">
         <v>2004</v>
       </c>
       <c r="C290" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D290" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E290" s="79" t="s">
         <v>70</v>
@@ -14145,7 +14145,7 @@
         <v>12510</v>
       </c>
       <c r="G290" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I290" t="s">
         <v>194</v>
@@ -14153,16 +14153,16 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B291" s="80">
         <v>2007</v>
       </c>
       <c r="C291" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D291" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E291" s="79" t="s">
         <v>70</v>
@@ -14171,7 +14171,7 @@
         <v>219978</v>
       </c>
       <c r="G291" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I291" t="s">
         <v>194</v>
@@ -14179,16 +14179,16 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B292" s="80">
         <v>2010</v>
       </c>
       <c r="C292" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D292" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E292" s="79" t="s">
         <v>70</v>
@@ -14197,7 +14197,7 @@
         <v>226261</v>
       </c>
       <c r="G292" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I292" t="s">
         <v>194</v>
@@ -14205,16 +14205,16 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B293" s="80">
         <v>2013</v>
       </c>
       <c r="C293" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D293" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E293" s="79" t="s">
         <v>70</v>
@@ -14223,7 +14223,7 @@
         <v>228944</v>
       </c>
       <c r="G293" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I293" t="s">
         <v>194</v>
@@ -14231,16 +14231,16 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B294" s="80">
         <v>2016</v>
       </c>
       <c r="C294" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D294" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E294" s="79" t="s">
         <v>70</v>
@@ -14249,7 +14249,7 @@
         <v>231178</v>
       </c>
       <c r="G294" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I294" t="s">
         <v>194</v>
@@ -14257,16 +14257,16 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B295">
         <v>2007</v>
       </c>
       <c r="C295" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D295" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E295" s="79" t="s">
         <v>70</v>
@@ -14275,7 +14275,7 @@
         <v>8363</v>
       </c>
       <c r="G295" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I295" t="s">
         <v>194</v>
@@ -14283,16 +14283,16 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B296">
         <v>2012</v>
       </c>
       <c r="C296" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D296" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E296" s="79" t="s">
         <v>70</v>
@@ -14301,7 +14301,7 @@
         <v>12060</v>
       </c>
       <c r="G296" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I296" t="s">
         <v>194</v>
@@ -14309,13 +14309,13 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B297" s="80">
         <v>2010</v>
       </c>
       <c r="C297" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D297" t="s">
         <v>125</v>
@@ -14327,7 +14327,7 @@
         <v>5669</v>
       </c>
       <c r="G297" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I297" t="s">
         <v>194</v>
@@ -14335,13 +14335,13 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B298" s="80">
         <v>2013</v>
       </c>
       <c r="C298" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D298" t="s">
         <v>125</v>
@@ -14353,7 +14353,7 @@
         <v>2827</v>
       </c>
       <c r="G298" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I298" t="s">
         <v>194</v>
@@ -14361,13 +14361,13 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B299" s="80">
         <v>2016</v>
       </c>
       <c r="C299" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D299" t="s">
         <v>125</v>
@@ -14379,7 +14379,7 @@
         <v>2768</v>
       </c>
       <c r="G299" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I299" t="s">
         <v>194</v>
@@ -14387,16 +14387,16 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B300" s="80">
         <v>2006</v>
       </c>
       <c r="C300" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D300" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E300" s="79" t="s">
         <v>70</v>
@@ -14405,7 +14405,7 @@
         <v>13686</v>
       </c>
       <c r="G300" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I300" t="s">
         <v>194</v>
@@ -14413,16 +14413,16 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B301" s="80">
         <v>2011</v>
       </c>
       <c r="C301" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D301" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E301" s="79" t="s">
         <v>70</v>
@@ -14431,7 +14431,7 @@
         <v>13482</v>
       </c>
       <c r="G301" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I301" t="s">
         <v>194</v>
@@ -14439,16 +14439,16 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B302" s="80">
         <v>2014</v>
       </c>
       <c r="C302" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D302" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E302" s="79" t="s">
         <v>70</v>
@@ -14457,7 +14457,7 @@
         <v>11536</v>
       </c>
       <c r="G302" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I302" t="s">
         <v>194</v>
@@ -14465,16 +14465,16 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B303">
         <v>2004</v>
       </c>
       <c r="C303" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D303" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E303" s="79" t="s">
         <v>70</v>
@@ -14483,7 +14483,7 @@
         <v>41554</v>
       </c>
       <c r="G303" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I303" t="s">
         <v>194</v>
@@ -14491,16 +14491,16 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B304">
         <v>2011</v>
       </c>
       <c r="C304" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D304" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E304" s="79" t="s">
         <v>70</v>
@@ -14509,7 +14509,7 @@
         <v>42152</v>
       </c>
       <c r="G304" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I304" t="s">
         <v>194</v>
@@ -14517,16 +14517,16 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B305" s="80">
         <v>2002</v>
       </c>
       <c r="C305" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D305" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E305" s="79" t="s">
         <v>70</v>
@@ -14535,7 +14535,7 @@
         <v>10800</v>
       </c>
       <c r="G305" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I305" t="s">
         <v>194</v>
@@ -14543,16 +14543,16 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B306" s="80">
         <v>2008</v>
       </c>
       <c r="C306" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D306" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E306" s="79" t="s">
         <v>70</v>
@@ -14561,7 +14561,7 @@
         <v>12600</v>
       </c>
       <c r="G306" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I306" t="s">
         <v>194</v>
@@ -14569,16 +14569,16 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B307" s="80">
         <v>2015</v>
       </c>
       <c r="C307" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D307" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E307" s="79" t="s">
         <v>70</v>
@@ -14587,7 +14587,7 @@
         <v>12899</v>
       </c>
       <c r="G307" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I307" t="s">
         <v>194</v>
@@ -14595,16 +14595,16 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B308">
         <v>1984</v>
       </c>
       <c r="C308" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D308" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E308" s="79" t="s">
         <v>70</v>
@@ -14613,7 +14613,7 @@
         <v>4735</v>
       </c>
       <c r="G308" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I308" t="s">
         <v>194</v>
@@ -14621,16 +14621,16 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B309">
         <v>1989</v>
       </c>
       <c r="C309" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D309" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E309" s="79" t="s">
         <v>70</v>
@@ -14639,7 +14639,7 @@
         <v>11531</v>
       </c>
       <c r="G309" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I309" t="s">
         <v>194</v>
@@ -14647,16 +14647,16 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B310">
         <v>1992</v>
       </c>
       <c r="C310" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D310" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E310" s="79" t="s">
         <v>70</v>
@@ -14665,7 +14665,7 @@
         <v>10530</v>
       </c>
       <c r="G310" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I310" t="s">
         <v>194</v>
@@ -14673,16 +14673,16 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B311">
         <v>1994</v>
       </c>
       <c r="C311" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D311" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E311" s="79" t="s">
         <v>70</v>
@@ -14691,7 +14691,7 @@
         <v>12815</v>
       </c>
       <c r="G311" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I311" t="s">
         <v>194</v>
@@ -14699,16 +14699,16 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B312">
         <v>1996</v>
       </c>
       <c r="C312" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D312" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E312" s="79" t="s">
         <v>70</v>
@@ -14717,7 +14717,7 @@
         <v>14042</v>
       </c>
       <c r="G312" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I312" t="s">
         <v>194</v>
@@ -14725,16 +14725,16 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B313">
         <v>1998</v>
       </c>
       <c r="C313" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D313" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E313" s="79" t="s">
         <v>70</v>
@@ -14743,7 +14743,7 @@
         <v>10952</v>
       </c>
       <c r="G313" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I313" t="s">
         <v>194</v>
@@ -14751,16 +14751,16 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B314">
         <v>2000</v>
       </c>
       <c r="C314" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D314" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E314" s="79" t="s">
         <v>70</v>
@@ -14769,7 +14769,7 @@
         <v>10108</v>
       </c>
       <c r="G314" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I314" t="s">
         <v>194</v>
@@ -14777,16 +14777,16 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B315">
         <v>2002</v>
       </c>
       <c r="C315" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D315" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E315" s="79" t="s">
         <v>70</v>
@@ -14795,7 +14795,7 @@
         <v>17167</v>
       </c>
       <c r="G315" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I315" t="s">
         <v>194</v>
@@ -14803,16 +14803,16 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B316" s="80">
         <v>2004</v>
       </c>
       <c r="C316" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D316" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E316" s="79" t="s">
         <v>70</v>
@@ -14821,7 +14821,7 @@
         <v>9356</v>
       </c>
       <c r="G316" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I316" t="s">
         <v>194</v>
@@ -14829,16 +14829,16 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B317" s="80">
         <v>2008</v>
       </c>
       <c r="C317" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D317" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E317" s="79" t="s">
         <v>70</v>
@@ -14847,7 +14847,7 @@
         <v>10337</v>
       </c>
       <c r="G317" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I317" t="s">
         <v>194</v>
@@ -14855,16 +14855,16 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B318" s="80">
         <v>2010</v>
       </c>
       <c r="C318" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D318" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E318" s="79" t="s">
         <v>70</v>
@@ -14873,7 +14873,7 @@
         <v>27655</v>
       </c>
       <c r="G318" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I318" t="s">
         <v>194</v>
@@ -14881,16 +14881,16 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B319">
         <v>2012</v>
       </c>
       <c r="C319" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D319" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E319" s="79" t="s">
         <v>70</v>
@@ -14899,7 +14899,7 @@
         <v>9002</v>
       </c>
       <c r="G319" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I319" t="s">
         <v>194</v>
@@ -14907,16 +14907,16 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B320">
         <v>2014</v>
       </c>
       <c r="C320" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D320" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E320" s="79" t="s">
         <v>70</v>
@@ -14925,7 +14925,7 @@
         <v>19479</v>
       </c>
       <c r="G320" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I320" t="s">
         <v>194</v>
@@ -14933,16 +14933,16 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B321" s="80">
         <v>2016</v>
       </c>
       <c r="C321" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D321" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E321" s="79" t="s">
         <v>70</v>
@@ -14951,7 +14951,7 @@
         <v>70311</v>
       </c>
       <c r="G321" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I321" t="s">
         <v>194</v>
@@ -14959,16 +14959,16 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B322" s="80">
         <v>2018</v>
       </c>
       <c r="C322" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D322" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E322" s="79" t="s">
         <v>70</v>
@@ -14977,7 +14977,7 @@
         <v>74647</v>
       </c>
       <c r="G322" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I322" t="s">
         <v>194</v>
@@ -14985,16 +14985,16 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B323" s="80">
         <v>2007</v>
       </c>
       <c r="C323" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D323" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E323" s="79" t="s">
         <v>70</v>
@@ -15003,7 +15003,7 @@
         <v>13091</v>
       </c>
       <c r="G323" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I323" t="s">
         <v>194</v>
@@ -15011,16 +15011,16 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B324" s="80">
         <v>2010</v>
       </c>
       <c r="C324" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D324" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E324" s="79" t="s">
         <v>70</v>
@@ -15029,7 +15029,7 @@
         <v>13391</v>
       </c>
       <c r="G324" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I324" t="s">
         <v>194</v>
@@ -15037,16 +15037,16 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B325" s="80">
         <v>2013</v>
       </c>
       <c r="C325" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D325" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E325" s="79" t="s">
         <v>70</v>
@@ -15055,7 +15055,7 @@
         <v>11905</v>
       </c>
       <c r="G325" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I325" t="s">
         <v>194</v>
@@ -15063,16 +15063,16 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B326">
         <v>2000</v>
       </c>
       <c r="C326" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D326" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E326" s="79" t="s">
         <v>70</v>
@@ -15081,7 +15081,7 @@
         <v>8131</v>
       </c>
       <c r="G326" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I326" t="s">
         <v>194</v>
@@ -15089,16 +15089,16 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B327">
         <v>2004</v>
       </c>
       <c r="C327" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D327" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E327" s="79" t="s">
         <v>70</v>
@@ -15107,7 +15107,7 @@
         <v>7823</v>
       </c>
       <c r="G327" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I327" t="s">
         <v>194</v>
@@ -15115,16 +15115,16 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B328">
         <v>2007</v>
       </c>
       <c r="C328" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D328" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E328" s="79" t="s">
         <v>70</v>
@@ -15133,7 +15133,7 @@
         <v>4812</v>
       </c>
       <c r="G328" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I328" t="s">
         <v>194</v>
@@ -15141,16 +15141,16 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B329">
         <v>2010</v>
       </c>
       <c r="C329" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D329" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E329" s="79" t="s">
         <v>70</v>
@@ -15159,7 +15159,7 @@
         <v>5003</v>
       </c>
       <c r="G329" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I329" t="s">
         <v>194</v>
@@ -15167,16 +15167,16 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B330">
         <v>2013</v>
       </c>
       <c r="C330" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D330" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E330" s="79" t="s">
         <v>70</v>
@@ -15185,7 +15185,7 @@
         <v>5424</v>
       </c>
       <c r="G330" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I330" t="s">
         <v>194</v>
@@ -15193,16 +15193,16 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B331">
         <v>2016</v>
       </c>
       <c r="C331" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D331" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E331" s="79" t="s">
         <v>70</v>
@@ -15211,7 +15211,7 @@
         <v>10219</v>
       </c>
       <c r="G331" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I331" t="s">
         <v>194</v>
@@ -15219,16 +15219,16 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B332" s="80">
         <v>2004</v>
       </c>
       <c r="C332" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D332" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E332" s="79" t="s">
         <v>70</v>
@@ -15237,7 +15237,7 @@
         <v>19502</v>
       </c>
       <c r="G332" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I332" t="s">
         <v>194</v>
@@ -15245,16 +15245,16 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B333" s="80">
         <v>2007</v>
       </c>
       <c r="C333" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D333" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E333" s="79" t="s">
         <v>70</v>
@@ -15263,7 +15263,7 @@
         <v>22204</v>
       </c>
       <c r="G333" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I333" t="s">
         <v>194</v>
@@ -15271,16 +15271,16 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B334" s="80">
         <v>2010</v>
       </c>
       <c r="C334" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D334" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E334" s="79" t="s">
         <v>70</v>
@@ -15289,7 +15289,7 @@
         <v>21496</v>
       </c>
       <c r="G334" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I334" t="s">
         <v>194</v>
@@ -15297,16 +15297,16 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B335" s="80">
         <v>2013</v>
       </c>
       <c r="C335" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D335" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E335" s="79" t="s">
         <v>70</v>
@@ -15315,7 +15315,7 @@
         <v>30453</v>
       </c>
       <c r="G335" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I335" t="s">
         <v>194</v>
@@ -15323,16 +15323,16 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B336" s="80">
         <v>2016</v>
       </c>
       <c r="C336" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D336" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E336" s="79" t="s">
         <v>70</v>
@@ -15341,7 +15341,7 @@
         <v>35785</v>
       </c>
       <c r="G336" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I336" t="s">
         <v>194</v>
@@ -15349,16 +15349,16 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B337" s="80">
         <v>2000</v>
       </c>
       <c r="C337" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D337" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E337" s="79" t="s">
         <v>70</v>
@@ -15367,7 +15367,7 @@
         <v>3319</v>
       </c>
       <c r="G337" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I337" t="s">
         <v>194</v>
@@ -15375,16 +15375,16 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B338" s="80">
         <v>2004</v>
       </c>
       <c r="C338" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D338" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E338" s="79" t="s">
         <v>70</v>
@@ -15393,7 +15393,7 @@
         <v>3394</v>
       </c>
       <c r="G338" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I338" t="s">
         <v>194</v>
@@ -15401,16 +15401,16 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B339" s="80">
         <v>2007</v>
       </c>
       <c r="C339" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D339" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E339" s="79" t="s">
         <v>70</v>
@@ -15419,7 +15419,7 @@
         <v>3933</v>
       </c>
       <c r="G339" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I339" t="s">
         <v>194</v>
@@ -15427,16 +15427,16 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B340">
         <v>2010</v>
       </c>
       <c r="C340" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D340" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E340" s="79" t="s">
         <v>70</v>
@@ -15445,7 +15445,7 @@
         <v>6323</v>
       </c>
       <c r="G340" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I340" t="s">
         <v>194</v>
@@ -15453,16 +15453,16 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B341">
         <v>2011</v>
       </c>
       <c r="C341" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D341" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E341" s="79" t="s">
         <v>70</v>
@@ -15471,7 +15471,7 @@
         <v>9990</v>
       </c>
       <c r="G341" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I341" t="s">
         <v>194</v>
@@ -15479,16 +15479,16 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B342">
         <v>2013</v>
       </c>
       <c r="C342" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D342" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E342" s="79" t="s">
         <v>70</v>
@@ -15497,7 +15497,7 @@
         <v>45000</v>
       </c>
       <c r="G342" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I342" t="s">
         <v>194</v>
@@ -15505,16 +15505,16 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B343">
         <v>2014</v>
       </c>
       <c r="C343" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D343" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E343" s="79" t="s">
         <v>70</v>
@@ -15523,7 +15523,7 @@
         <v>45000</v>
       </c>
       <c r="G343" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I343" t="s">
         <v>194</v>
@@ -15531,16 +15531,16 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B344">
         <v>2015</v>
       </c>
       <c r="C344" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D344" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E344" s="79" t="s">
         <v>70</v>
@@ -15549,7 +15549,7 @@
         <v>60000</v>
       </c>
       <c r="G344" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I344" t="s">
         <v>194</v>
@@ -15557,16 +15557,16 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B345">
         <v>2016</v>
       </c>
       <c r="C345" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D345" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E345" s="79" t="s">
         <v>70</v>
@@ -15575,7 +15575,7 @@
         <v>160008</v>
       </c>
       <c r="G345" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I345" t="s">
         <v>194</v>
@@ -15583,16 +15583,16 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B346" s="80">
         <v>2008</v>
       </c>
       <c r="C346" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D346" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E346" s="79" t="s">
         <v>70</v>
@@ -15601,7 +15601,7 @@
         <v>7296</v>
       </c>
       <c r="G346" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I346" t="s">
         <v>194</v>
@@ -15609,16 +15609,16 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B347" s="80">
         <v>2010</v>
       </c>
       <c r="C347" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D347" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E347" s="79" t="s">
         <v>70</v>
@@ -15627,7 +15627,7 @@
         <v>6786</v>
       </c>
       <c r="G347" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I347" t="s">
         <v>194</v>
@@ -15635,16 +15635,16 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B348" s="80">
         <v>2012</v>
       </c>
       <c r="C348" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D348" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E348" s="79" t="s">
         <v>70</v>
@@ -15653,7 +15653,7 @@
         <v>8040</v>
       </c>
       <c r="G348" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I348" t="s">
         <v>194</v>
@@ -15947,16 +15947,16 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B360" s="80">
         <v>2004</v>
       </c>
       <c r="C360" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D360" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E360" s="79" t="s">
         <v>70</v>
@@ -15965,7 +15965,7 @@
         <v>18392</v>
       </c>
       <c r="G360" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I360" t="s">
         <v>194</v>
@@ -15973,16 +15973,16 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B361" s="80">
         <v>2007</v>
       </c>
       <c r="C361" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D361" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E361" s="79" t="s">
         <v>70</v>
@@ -15991,7 +15991,7 @@
         <v>49136</v>
       </c>
       <c r="G361" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I361" t="s">
         <v>194</v>
@@ -15999,16 +15999,16 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B362" s="80">
         <v>2010</v>
       </c>
       <c r="C362" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D362" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E362" s="79" t="s">
         <v>70</v>
@@ -16017,7 +16017,7 @@
         <v>46550</v>
       </c>
       <c r="G362" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I362" t="s">
         <v>194</v>
@@ -16025,16 +16025,16 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B363" s="80">
         <v>2013</v>
       </c>
       <c r="C363" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D363" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E363" s="79" t="s">
         <v>70</v>
@@ -16043,7 +16043,7 @@
         <v>46622</v>
       </c>
       <c r="G363" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I363" t="s">
         <v>194</v>
@@ -16051,16 +16051,16 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B364" s="80">
         <v>2016</v>
       </c>
       <c r="C364" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D364" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E364" s="79" t="s">
         <v>70</v>
@@ -16069,7 +16069,7 @@
         <v>45158</v>
       </c>
       <c r="G364" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I364" t="s">
         <v>194</v>
@@ -16077,16 +16077,16 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B365" s="80">
         <v>2011</v>
       </c>
       <c r="C365" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D365" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E365" s="79" t="s">
         <v>70</v>
@@ -16095,7 +16095,7 @@
         <v>9399</v>
       </c>
       <c r="G365" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I365" t="s">
         <v>194</v>
@@ -16103,16 +16103,16 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B366" s="80">
         <v>2013</v>
       </c>
       <c r="C366" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D366" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E366" s="79" t="s">
         <v>70</v>
@@ -16121,14 +16121,13 @@
         <v>9399</v>
       </c>
       <c r="G366" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I366" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G119" xr:uid="{02CCEDBC-03D4-44CD-BD29-A9AE77223298}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/02.data/_aux/LIS datasets.xlsx
+++ b/02.data/_aux/LIS datasets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\02.personal\wb463998\LIS data\LIS data - Oct 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb463998\OneDrive - WBG\GIT\LIS_data\02.data\_aux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A61BDC1-A49B-4B5E-A20C-D93011F926B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{2A61BDC1-A49B-4B5E-A20C-D93011F926B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E19C560-8A09-4B55-B7AB-49543FFF9F11}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DA214762-5DBE-485D-812E-A8355C7FFC9F}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Countries in LIS'!$A$1:$C$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LIS_survname!$A$1:$I$392</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LIS_survname!$A$1:$I$398</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
     Stat non-SILC countries</t>
       </text>
     </comment>
-    <comment ref="C188" authorId="2" shapeId="0" xr:uid="{2985B4D9-371D-4A2D-8903-E485D33A6B8E}">
+    <comment ref="C192" authorId="2" shapeId="0" xr:uid="{2985B4D9-371D-4A2D-8903-E485D33A6B8E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="336">
   <si>
     <t>Belgium</t>
   </si>
@@ -2615,7 +2615,7 @@
   <threadedComment ref="A28" dT="2020-01-15T18:19:43.00" personId="{7AA3F109-7322-49B6-AEB1-23CEC7C62A5B}" id="{5DF9D955-53AC-4488-A2D6-96CFDD146E3A}">
     <text>Stat non-SILC countries</text>
   </threadedComment>
-  <threadedComment ref="C188" dT="2020-01-02T10:49:42.11" personId="{9AE80FDF-1476-4026-B198-C77E64F6031D}" id="{2985B4D9-371D-4A2D-8903-E485D33A6B8E}">
+  <threadedComment ref="C192" dT="2020-01-02T10:49:42.11" personId="{9AE80FDF-1476-4026-B198-C77E64F6031D}" id="{2985B4D9-371D-4A2D-8903-E485D33A6B8E}">
     <text>En el Master tenemos la HBS: Household Budget Survey 1999</text>
   </threadedComment>
 </ThreadedComments>
@@ -6262,12 +6262,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5624527B-43F9-4DB1-BB8A-3C401E64EEA7}">
-  <dimension ref="A1:M392"/>
+  <dimension ref="A1:M398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C371" sqref="C371"/>
+      <selection pane="bottomLeft" activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10837,22 +10837,25 @@
         <v>147</v>
       </c>
       <c r="B169" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C169" t="s">
-        <v>230</v>
-      </c>
-      <c r="D169" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C169" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D169" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E169" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F169">
-        <v>28041</v>
+      <c r="E169" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F169" s="73">
+        <v>23790</v>
       </c>
       <c r="G169" t="s">
         <v>180</v>
+      </c>
+      <c r="H169" t="s">
+        <v>192</v>
       </c>
       <c r="I169" t="s">
         <v>194</v>
@@ -10863,22 +10866,25 @@
         <v>147</v>
       </c>
       <c r="B170" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C170" t="s">
-        <v>230</v>
-      </c>
-      <c r="D170" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C170" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D170" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E170" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F170">
-        <v>24977</v>
+      <c r="E170" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F170" s="73">
+        <v>25320</v>
       </c>
       <c r="G170" t="s">
         <v>180</v>
+      </c>
+      <c r="H170" t="s">
+        <v>192</v>
       </c>
       <c r="I170" t="s">
         <v>194</v>
@@ -10889,22 +10895,25 @@
         <v>147</v>
       </c>
       <c r="B171" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C171" t="s">
-        <v>230</v>
-      </c>
-      <c r="D171" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C171" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D171" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E171" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F171">
-        <v>25350</v>
+      <c r="E171" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F171" s="73">
+        <v>28710</v>
       </c>
       <c r="G171" t="s">
         <v>180</v>
+      </c>
+      <c r="H171" t="s">
+        <v>192</v>
       </c>
       <c r="I171" t="s">
         <v>194</v>
@@ -10915,22 +10924,25 @@
         <v>147</v>
       </c>
       <c r="B172" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C172" t="s">
-        <v>230</v>
-      </c>
-      <c r="D172" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C172" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D172" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E172" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F172">
-        <v>20137</v>
+      <c r="E172" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F172" s="73">
+        <v>28860</v>
       </c>
       <c r="G172" t="s">
         <v>180</v>
+      </c>
+      <c r="H172" t="s">
+        <v>192</v>
       </c>
       <c r="I172" t="s">
         <v>194</v>
@@ -10941,7 +10953,7 @@
         <v>147</v>
       </c>
       <c r="B173" s="1">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="C173" t="s">
         <v>230</v>
@@ -10953,7 +10965,7 @@
         <v>70</v>
       </c>
       <c r="F173">
-        <v>19380</v>
+        <v>28041</v>
       </c>
       <c r="G173" t="s">
         <v>180</v>
@@ -10964,25 +10976,25 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>261</v>
-      </c>
-      <c r="B174" s="80">
-        <v>2010</v>
+        <v>147</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2007</v>
       </c>
       <c r="C174" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="D174" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E174" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F174">
-        <v>5669</v>
+        <v>24977</v>
       </c>
       <c r="G174" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="I174" t="s">
         <v>194</v>
@@ -10990,25 +11002,25 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>261</v>
-      </c>
-      <c r="B175" s="80">
-        <v>2013</v>
+        <v>147</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2010</v>
       </c>
       <c r="C175" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="D175" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E175" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F175">
-        <v>2827</v>
+        <v>25350</v>
       </c>
       <c r="G175" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="I175" t="s">
         <v>194</v>
@@ -11016,25 +11028,25 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>261</v>
-      </c>
-      <c r="B176" s="80">
-        <v>2016</v>
+        <v>147</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2013</v>
       </c>
       <c r="C176" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="D176" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E176" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F176">
-        <v>2768</v>
+        <v>20137</v>
       </c>
       <c r="G176" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="I176" t="s">
         <v>194</v>
@@ -11042,28 +11054,25 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B177" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C177" s="61" t="s">
-        <v>96</v>
+        <v>2016</v>
+      </c>
+      <c r="C177" t="s">
+        <v>230</v>
       </c>
       <c r="D177" t="s">
-        <v>72</v>
-      </c>
-      <c r="E177" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F177" s="73">
-        <v>4893</v>
+        <v>151</v>
+      </c>
+      <c r="E177" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F177">
+        <v>19380</v>
       </c>
       <c r="G177" t="s">
-        <v>181</v>
-      </c>
-      <c r="H177" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I177" t="s">
         <v>194</v>
@@ -11071,28 +11080,25 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>95</v>
-      </c>
-      <c r="B178" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C178" s="61" t="s">
-        <v>96</v>
+        <v>261</v>
+      </c>
+      <c r="B178" s="80">
+        <v>2010</v>
+      </c>
+      <c r="C178" t="s">
+        <v>292</v>
       </c>
       <c r="D178" t="s">
-        <v>72</v>
-      </c>
-      <c r="E178" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F178" s="73">
-        <v>3916</v>
+        <v>125</v>
+      </c>
+      <c r="E178" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F178">
+        <v>5669</v>
       </c>
       <c r="G178" t="s">
-        <v>181</v>
-      </c>
-      <c r="H178" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="I178" t="s">
         <v>194</v>
@@ -11100,25 +11106,25 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>95</v>
-      </c>
-      <c r="B179" s="1">
-        <v>2004</v>
+        <v>261</v>
+      </c>
+      <c r="B179" s="80">
+        <v>2013</v>
       </c>
       <c r="C179" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="D179" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="E179" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F179">
-        <v>5568</v>
+        <v>2827</v>
       </c>
       <c r="G179" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="I179" t="s">
         <v>194</v>
@@ -11126,25 +11132,25 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>95</v>
-      </c>
-      <c r="B180" s="1">
-        <v>2007</v>
+        <v>261</v>
+      </c>
+      <c r="B180" s="80">
+        <v>2016</v>
       </c>
       <c r="C180" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="D180" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="E180" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F180">
-        <v>6504</v>
+        <v>2768</v>
       </c>
       <c r="G180" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="I180" t="s">
         <v>194</v>
@@ -11155,22 +11161,25 @@
         <v>95</v>
       </c>
       <c r="B181" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C181" t="s">
-        <v>206</v>
+        <v>1995</v>
+      </c>
+      <c r="C181" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="D181" t="s">
-        <v>197</v>
-      </c>
-      <c r="E181" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F181">
-        <v>6029</v>
+        <v>72</v>
+      </c>
+      <c r="E181" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F181" s="73">
+        <v>4893</v>
       </c>
       <c r="G181" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="H181" t="s">
+        <v>192</v>
       </c>
       <c r="I181" t="s">
         <v>194</v>
@@ -11181,22 +11190,25 @@
         <v>95</v>
       </c>
       <c r="B182" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C182" t="s">
-        <v>206</v>
+        <v>2000</v>
+      </c>
+      <c r="C182" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="D182" t="s">
-        <v>197</v>
-      </c>
-      <c r="E182" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F182">
-        <v>8620</v>
+        <v>72</v>
+      </c>
+      <c r="E182" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F182" s="73">
+        <v>3916</v>
       </c>
       <c r="G182" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="H182" t="s">
+        <v>192</v>
       </c>
       <c r="I182" t="s">
         <v>194</v>
@@ -11204,25 +11216,25 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>262</v>
-      </c>
-      <c r="B183" s="80">
-        <v>2006</v>
+        <v>95</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2004</v>
       </c>
       <c r="C183" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="D183" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="E183" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F183">
-        <v>13686</v>
+        <v>5568</v>
       </c>
       <c r="G183" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="I183" t="s">
         <v>194</v>
@@ -11230,25 +11242,25 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>262</v>
-      </c>
-      <c r="B184" s="80">
-        <v>2011</v>
+        <v>95</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2007</v>
       </c>
       <c r="C184" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="D184" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="E184" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F184">
-        <v>13482</v>
+        <v>6504</v>
       </c>
       <c r="G184" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="I184" t="s">
         <v>194</v>
@@ -11256,25 +11268,25 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>262</v>
-      </c>
-      <c r="B185" s="80">
-        <v>2014</v>
+        <v>95</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2010</v>
       </c>
       <c r="C185" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="D185" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="E185" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F185">
-        <v>11536</v>
+        <v>6029</v>
       </c>
       <c r="G185" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="I185" t="s">
         <v>194</v>
@@ -11282,28 +11294,25 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B186" s="1">
-        <v>1991</v>
-      </c>
-      <c r="C186" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D186" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E186" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F186" s="73">
-        <v>2019</v>
+        <v>2013</v>
+      </c>
+      <c r="C186" t="s">
+        <v>206</v>
+      </c>
+      <c r="D186" t="s">
+        <v>197</v>
+      </c>
+      <c r="E186" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F186">
+        <v>8620</v>
       </c>
       <c r="G186" t="s">
-        <v>182</v>
-      </c>
-      <c r="H186" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I186" t="s">
         <v>194</v>
@@ -11311,57 +11320,51 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B187" s="1">
-        <v>1994</v>
-      </c>
-      <c r="C187" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D187" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E187" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F187" s="73">
-        <v>1992</v>
+        <v>262</v>
+      </c>
+      <c r="B187" s="80">
+        <v>2006</v>
+      </c>
+      <c r="C187" t="s">
+        <v>294</v>
+      </c>
+      <c r="D187" t="s">
+        <v>295</v>
+      </c>
+      <c r="E187" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F187">
+        <v>13686</v>
       </c>
       <c r="G187" t="s">
-        <v>182</v>
-      </c>
-      <c r="H187" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="I187" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A188" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B188" s="67">
-        <v>1999</v>
-      </c>
-      <c r="C188" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D188" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="E188" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F188" s="73">
-        <v>2013</v>
+      <c r="A188" t="s">
+        <v>262</v>
+      </c>
+      <c r="B188" s="80">
+        <v>2011</v>
+      </c>
+      <c r="C188" t="s">
+        <v>294</v>
+      </c>
+      <c r="D188" t="s">
+        <v>295</v>
+      </c>
+      <c r="E188" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F188">
+        <v>13482</v>
       </c>
       <c r="G188" t="s">
-        <v>182</v>
-      </c>
-      <c r="H188" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="I188" t="s">
         <v>194</v>
@@ -11369,25 +11372,25 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>97</v>
-      </c>
-      <c r="B189" s="1">
-        <v>2005</v>
+        <v>262</v>
+      </c>
+      <c r="B189" s="80">
+        <v>2014</v>
       </c>
       <c r="C189" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="D189" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="E189" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F189">
-        <v>2058</v>
+        <v>11536</v>
       </c>
       <c r="G189" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="I189" t="s">
         <v>194</v>
@@ -11398,22 +11401,25 @@
         <v>97</v>
       </c>
       <c r="B190" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C190" t="s">
-        <v>207</v>
-      </c>
-      <c r="D190" t="s">
-        <v>167</v>
-      </c>
-      <c r="E190" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F190">
-        <v>2024</v>
+        <v>1991</v>
+      </c>
+      <c r="C190" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D190" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E190" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F190" s="73">
+        <v>2019</v>
       </c>
       <c r="G190" t="s">
         <v>182</v>
+      </c>
+      <c r="H190" t="s">
+        <v>192</v>
       </c>
       <c r="I190" t="s">
         <v>194</v>
@@ -11424,48 +11430,54 @@
         <v>97</v>
       </c>
       <c r="B191" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C191" t="s">
-        <v>207</v>
-      </c>
-      <c r="D191" t="s">
-        <v>167</v>
-      </c>
-      <c r="E191" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F191">
-        <v>2048</v>
+        <v>1994</v>
+      </c>
+      <c r="C191" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D191" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E191" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F191" s="73">
+        <v>1992</v>
       </c>
       <c r="G191" t="s">
         <v>182</v>
       </c>
+      <c r="H191" t="s">
+        <v>192</v>
+      </c>
       <c r="I191" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="A192" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B192" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C192" t="s">
-        <v>207</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="B192" s="67">
+        <v>1999</v>
+      </c>
+      <c r="C192" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D192" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="E192" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F192">
-        <v>2061</v>
+      <c r="E192" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="F192" s="73">
+        <v>2013</v>
       </c>
       <c r="G192" t="s">
         <v>182</v>
+      </c>
+      <c r="H192" t="s">
+        <v>192</v>
       </c>
       <c r="I192" t="s">
         <v>194</v>
@@ -11476,7 +11488,7 @@
         <v>97</v>
       </c>
       <c r="B193" s="1">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C193" t="s">
         <v>207</v>
@@ -11488,7 +11500,7 @@
         <v>70</v>
       </c>
       <c r="F193">
-        <v>2772</v>
+        <v>2058</v>
       </c>
       <c r="G193" t="s">
         <v>182</v>
@@ -11499,25 +11511,25 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="B194" s="1">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C194" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="D194" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="E194" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F194">
-        <v>41554</v>
+        <v>2024</v>
       </c>
       <c r="G194" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="I194" t="s">
         <v>194</v>
@@ -11525,25 +11537,25 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="B195" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C195" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="D195" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="E195" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F195">
-        <v>42152</v>
+        <v>2048</v>
       </c>
       <c r="G195" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="I195" t="s">
         <v>194</v>
@@ -11551,28 +11563,25 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B196" s="1">
-        <v>1987</v>
-      </c>
-      <c r="C196" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D196" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E196" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F196" s="73">
-        <v>3294</v>
+        <v>2012</v>
+      </c>
+      <c r="C196" t="s">
+        <v>207</v>
+      </c>
+      <c r="D196" t="s">
+        <v>167</v>
+      </c>
+      <c r="E196" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F196">
+        <v>2061</v>
       </c>
       <c r="G196" t="s">
-        <v>174</v>
-      </c>
-      <c r="H196" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I196" t="s">
         <v>194</v>
@@ -11580,28 +11589,25 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B197" s="1">
-        <v>1994</v>
-      </c>
-      <c r="C197" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D197" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E197" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F197" s="73">
-        <v>3218</v>
+        <v>2015</v>
+      </c>
+      <c r="C197" t="s">
+        <v>207</v>
+      </c>
+      <c r="D197" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F197">
+        <v>2772</v>
       </c>
       <c r="G197" t="s">
-        <v>174</v>
-      </c>
-      <c r="H197" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I197" t="s">
         <v>194</v>
@@ -11609,28 +11615,25 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="B198" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C198" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D198" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E198" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F198" s="73">
-        <v>2869</v>
+        <v>2004</v>
+      </c>
+      <c r="C198" t="s">
+        <v>298</v>
+      </c>
+      <c r="D198" t="s">
+        <v>299</v>
+      </c>
+      <c r="E198" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F198">
+        <v>41554</v>
       </c>
       <c r="G198" t="s">
-        <v>174</v>
-      </c>
-      <c r="H198" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="I198" t="s">
         <v>194</v>
@@ -11638,28 +11641,25 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="B199" s="1">
-        <v>1996</v>
-      </c>
-      <c r="C199" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D199" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E199" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F199" s="73">
-        <v>2670</v>
+        <v>2011</v>
+      </c>
+      <c r="C199" t="s">
+        <v>298</v>
+      </c>
+      <c r="D199" t="s">
+        <v>299</v>
+      </c>
+      <c r="E199" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F199">
+        <v>42152</v>
       </c>
       <c r="G199" t="s">
-        <v>174</v>
-      </c>
-      <c r="H199" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="I199" t="s">
         <v>194</v>
@@ -11670,19 +11670,19 @@
         <v>101</v>
       </c>
       <c r="B200" s="1">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="C200" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D200" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E200" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F200" s="73">
-        <v>2865</v>
+        <v>3294</v>
       </c>
       <c r="G200" t="s">
         <v>174</v>
@@ -11699,19 +11699,19 @@
         <v>101</v>
       </c>
       <c r="B201" s="1">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="C201" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="D201" t="s">
-        <v>197</v>
-      </c>
-      <c r="E201" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F201">
-        <v>3090</v>
+        <v>104</v>
+      </c>
+      <c r="D201" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E201" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F201" s="73">
+        <v>3218</v>
       </c>
       <c r="G201" t="s">
         <v>174</v>
@@ -11728,22 +11728,25 @@
         <v>101</v>
       </c>
       <c r="B202" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C202" t="s">
-        <v>211</v>
-      </c>
-      <c r="D202" t="s">
-        <v>197</v>
-      </c>
-      <c r="E202" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F202">
-        <v>6085</v>
+        <v>1995</v>
+      </c>
+      <c r="C202" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D202" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E202" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F202" s="73">
+        <v>2869</v>
       </c>
       <c r="G202" t="s">
         <v>174</v>
+      </c>
+      <c r="H202" t="s">
+        <v>192</v>
       </c>
       <c r="I202" t="s">
         <v>194</v>
@@ -11754,22 +11757,25 @@
         <v>101</v>
       </c>
       <c r="B203" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C203" t="s">
-        <v>211</v>
-      </c>
-      <c r="D203" t="s">
-        <v>197</v>
-      </c>
-      <c r="E203" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F203">
-        <v>5247</v>
+        <v>1996</v>
+      </c>
+      <c r="C203" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D203" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F203" s="73">
+        <v>2670</v>
       </c>
       <c r="G203" t="s">
         <v>174</v>
+      </c>
+      <c r="H203" t="s">
+        <v>192</v>
       </c>
       <c r="I203" t="s">
         <v>194</v>
@@ -11780,36 +11786,39 @@
         <v>101</v>
       </c>
       <c r="B204" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C204" t="s">
-        <v>211</v>
-      </c>
-      <c r="D204" t="s">
-        <v>197</v>
-      </c>
-      <c r="E204" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F204">
-        <v>4333</v>
+        <v>2000</v>
+      </c>
+      <c r="C204" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D204" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E204" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F204" s="73">
+        <v>2865</v>
       </c>
       <c r="G204" t="s">
         <v>174</v>
       </c>
+      <c r="H204" t="s">
+        <v>192</v>
+      </c>
       <c r="I204" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="B205" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C205" t="s">
-        <v>209</v>
+        <v>2002</v>
+      </c>
+      <c r="C205" s="64" t="s">
+        <v>334</v>
       </c>
       <c r="D205" t="s">
         <v>197</v>
@@ -11818,10 +11827,13 @@
         <v>70</v>
       </c>
       <c r="F205">
-        <v>2928</v>
+        <v>3090</v>
       </c>
       <c r="G205" t="s">
-        <v>210</v>
+        <v>174</v>
+      </c>
+      <c r="H205" t="s">
+        <v>192</v>
       </c>
       <c r="I205" t="s">
         <v>194</v>
@@ -11829,13 +11841,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="B206" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C206" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D206" t="s">
         <v>197</v>
@@ -11844,10 +11856,10 @@
         <v>70</v>
       </c>
       <c r="F206">
-        <v>2887</v>
+        <v>6085</v>
       </c>
       <c r="G206" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="I206" t="s">
         <v>194</v>
@@ -11855,13 +11867,13 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="B207" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C207" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D207" t="s">
         <v>197</v>
@@ -11870,10 +11882,10 @@
         <v>70</v>
       </c>
       <c r="F207">
-        <v>3018</v>
+        <v>5247</v>
       </c>
       <c r="G207" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="I207" t="s">
         <v>194</v>
@@ -11881,25 +11893,25 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="B208" s="1">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="C208" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="E208" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F208">
-        <v>5230</v>
+        <v>4333</v>
       </c>
       <c r="G208" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="I208" t="s">
         <v>194</v>
@@ -11907,25 +11919,25 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C209" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D209" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="E209" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F209">
-        <v>5787</v>
+        <v>2928</v>
       </c>
       <c r="G209" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="I209" t="s">
         <v>194</v>
@@ -11933,25 +11945,25 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C210" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D210" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="E210" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F210">
-        <v>6272</v>
+        <v>2887</v>
       </c>
       <c r="G210" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="I210" t="s">
         <v>194</v>
@@ -11959,25 +11971,25 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B211" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C211" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D211" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="E211" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F211">
-        <v>6173</v>
+        <v>3018</v>
       </c>
       <c r="G211" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="I211" t="s">
         <v>194</v>
@@ -11988,7 +12000,7 @@
         <v>245</v>
       </c>
       <c r="B212" s="1">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="C212" t="s">
         <v>246</v>
@@ -12000,7 +12012,7 @@
         <v>70</v>
       </c>
       <c r="F212">
-        <v>6168</v>
+        <v>5230</v>
       </c>
       <c r="G212" t="s">
         <v>247</v>
@@ -12014,7 +12026,7 @@
         <v>245</v>
       </c>
       <c r="B213" s="1">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C213" t="s">
         <v>246</v>
@@ -12026,7 +12038,7 @@
         <v>70</v>
       </c>
       <c r="F213">
-        <v>8742</v>
+        <v>5787</v>
       </c>
       <c r="G213" t="s">
         <v>247</v>
@@ -12040,7 +12052,7 @@
         <v>245</v>
       </c>
       <c r="B214" s="1">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="C214" t="s">
         <v>246</v>
@@ -12052,7 +12064,7 @@
         <v>70</v>
       </c>
       <c r="F214">
-        <v>8465</v>
+        <v>6272</v>
       </c>
       <c r="G214" t="s">
         <v>247</v>
@@ -12066,7 +12078,7 @@
         <v>245</v>
       </c>
       <c r="B215" s="1">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C215" t="s">
         <v>246</v>
@@ -12078,7 +12090,7 @@
         <v>70</v>
       </c>
       <c r="F215">
-        <v>8903</v>
+        <v>6173</v>
       </c>
       <c r="G215" t="s">
         <v>247</v>
@@ -12089,28 +12101,25 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="B216" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C216" s="64" t="s">
-        <v>107</v>
+        <v>2010</v>
+      </c>
+      <c r="C216" t="s">
+        <v>246</v>
       </c>
       <c r="D216" t="s">
-        <v>108</v>
-      </c>
-      <c r="E216" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F216" s="73">
-        <v>8022</v>
+        <v>248</v>
+      </c>
+      <c r="E216" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F216">
+        <v>6168</v>
       </c>
       <c r="G216" t="s">
-        <v>174</v>
-      </c>
-      <c r="H216" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="I216" t="s">
         <v>194</v>
@@ -12118,28 +12127,25 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="B217" s="1">
-        <v>1987</v>
-      </c>
-      <c r="C217" s="64" t="s">
-        <v>107</v>
+        <v>2012</v>
+      </c>
+      <c r="C217" t="s">
+        <v>246</v>
       </c>
       <c r="D217" t="s">
-        <v>108</v>
-      </c>
-      <c r="E217" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F217" s="73">
-        <v>8027</v>
+        <v>248</v>
+      </c>
+      <c r="E217" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F217">
+        <v>8742</v>
       </c>
       <c r="G217" t="s">
-        <v>174</v>
-      </c>
-      <c r="H217" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="I217" t="s">
         <v>194</v>
@@ -12147,28 +12153,25 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="B218" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C218" s="64" t="s">
-        <v>107</v>
+        <v>2014</v>
+      </c>
+      <c r="C218" t="s">
+        <v>246</v>
       </c>
       <c r="D218" t="s">
-        <v>108</v>
-      </c>
-      <c r="E218" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F218" s="73">
-        <v>8274</v>
+        <v>248</v>
+      </c>
+      <c r="E218" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F218">
+        <v>8465</v>
       </c>
       <c r="G218" t="s">
-        <v>174</v>
-      </c>
-      <c r="H218" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="I218" t="s">
         <v>194</v>
@@ -12176,28 +12179,25 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="B219" s="1">
-        <v>1991</v>
-      </c>
-      <c r="C219" s="64" t="s">
-        <v>107</v>
+        <v>2016</v>
+      </c>
+      <c r="C219" t="s">
+        <v>246</v>
       </c>
       <c r="D219" t="s">
-        <v>108</v>
-      </c>
-      <c r="E219" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F219" s="73">
-        <v>8188</v>
+        <v>248</v>
+      </c>
+      <c r="E219" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F219">
+        <v>8903</v>
       </c>
       <c r="G219" t="s">
-        <v>174</v>
-      </c>
-      <c r="H219" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="I219" t="s">
         <v>194</v>
@@ -12208,7 +12208,7 @@
         <v>106</v>
       </c>
       <c r="B220" s="1">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="C220" s="64" t="s">
         <v>107</v>
@@ -12220,7 +12220,7 @@
         <v>70</v>
       </c>
       <c r="F220" s="73">
-        <v>8089</v>
+        <v>8022</v>
       </c>
       <c r="G220" t="s">
         <v>174</v>
@@ -12237,7 +12237,7 @@
         <v>106</v>
       </c>
       <c r="B221" s="1">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="C221" s="64" t="s">
         <v>107</v>
@@ -12249,7 +12249,7 @@
         <v>70</v>
       </c>
       <c r="F221" s="73">
-        <v>8135</v>
+        <v>8027</v>
       </c>
       <c r="G221" t="s">
         <v>174</v>
@@ -12266,7 +12266,7 @@
         <v>106</v>
       </c>
       <c r="B222" s="1">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="C222" s="64" t="s">
         <v>107</v>
@@ -12278,7 +12278,7 @@
         <v>70</v>
       </c>
       <c r="F222" s="73">
-        <v>7147</v>
+        <v>8274</v>
       </c>
       <c r="G222" t="s">
         <v>174</v>
@@ -12295,7 +12295,7 @@
         <v>106</v>
       </c>
       <c r="B223" s="1">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="C223" s="64" t="s">
         <v>107</v>
@@ -12307,7 +12307,7 @@
         <v>70</v>
       </c>
       <c r="F223" s="73">
-        <v>8001</v>
+        <v>8188</v>
       </c>
       <c r="G223" t="s">
         <v>174</v>
@@ -12324,22 +12324,25 @@
         <v>106</v>
       </c>
       <c r="B224" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C224" t="s">
-        <v>212</v>
+        <v>1993</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="D224" t="s">
         <v>108</v>
       </c>
-      <c r="E224" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F224">
-        <v>8012</v>
+      <c r="E224" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F224" s="73">
+        <v>8089</v>
       </c>
       <c r="G224" t="s">
         <v>174</v>
+      </c>
+      <c r="H224" t="s">
+        <v>192</v>
       </c>
       <c r="I224" t="s">
         <v>194</v>
@@ -12350,22 +12353,25 @@
         <v>106</v>
       </c>
       <c r="B225" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C225" t="s">
-        <v>212</v>
+        <v>1995</v>
+      </c>
+      <c r="C225" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="D225" t="s">
         <v>108</v>
       </c>
-      <c r="E225" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F225">
-        <v>7977</v>
+      <c r="E225" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F225" s="73">
+        <v>8135</v>
       </c>
       <c r="G225" t="s">
         <v>174</v>
+      </c>
+      <c r="H225" t="s">
+        <v>192</v>
       </c>
       <c r="I225" t="s">
         <v>194</v>
@@ -12376,22 +12382,25 @@
         <v>106</v>
       </c>
       <c r="B226" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C226" t="s">
-        <v>212</v>
+        <v>1998</v>
+      </c>
+      <c r="C226" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="D226" t="s">
         <v>108</v>
       </c>
-      <c r="E226" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F226">
-        <v>7951</v>
+      <c r="E226" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F226" s="73">
+        <v>7147</v>
       </c>
       <c r="G226" t="s">
         <v>174</v>
+      </c>
+      <c r="H226" t="s">
+        <v>192</v>
       </c>
       <c r="I226" t="s">
         <v>194</v>
@@ -12402,51 +12411,51 @@
         <v>106</v>
       </c>
       <c r="B227" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C227" t="s">
-        <v>212</v>
+        <v>2000</v>
+      </c>
+      <c r="C227" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="D227" t="s">
         <v>108</v>
       </c>
-      <c r="E227" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F227">
-        <v>8156</v>
+      <c r="E227" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F227" s="73">
+        <v>8001</v>
       </c>
       <c r="G227" t="s">
         <v>174</v>
       </c>
+      <c r="H227" t="s">
+        <v>192</v>
+      </c>
       <c r="I227" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="B228" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C228" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="D228" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="E228" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F228" s="73">
-        <v>3160</v>
+        <v>2004</v>
+      </c>
+      <c r="C228" t="s">
+        <v>212</v>
+      </c>
+      <c r="D228" t="s">
+        <v>108</v>
+      </c>
+      <c r="E228" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F228">
+        <v>8012</v>
       </c>
       <c r="G228" t="s">
-        <v>183</v>
-      </c>
-      <c r="H228" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I228" t="s">
         <v>194</v>
@@ -12454,28 +12463,25 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="B229" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C229" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="D229" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="E229" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F229" s="73">
-        <v>2358</v>
+        <v>2008</v>
+      </c>
+      <c r="C229" t="s">
+        <v>212</v>
+      </c>
+      <c r="D229" t="s">
+        <v>108</v>
+      </c>
+      <c r="E229" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F229">
+        <v>7977</v>
       </c>
       <c r="G229" t="s">
-        <v>183</v>
-      </c>
-      <c r="H229" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I229" t="s">
         <v>194</v>
@@ -12483,25 +12489,25 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="B230" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C230" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="D230" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="E230" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F230">
-        <v>4022</v>
+        <v>7951</v>
       </c>
       <c r="G230" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I230" t="s">
         <v>194</v>
@@ -12509,25 +12515,25 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="B231" s="1">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C231" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="D231" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="E231" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F231">
-        <v>15532</v>
+        <v>8156</v>
       </c>
       <c r="G231" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="I231" t="s">
         <v>194</v>
@@ -12535,25 +12541,28 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B232" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C232" t="s">
-        <v>251</v>
-      </c>
-      <c r="D232" t="s">
-        <v>332</v>
-      </c>
-      <c r="E232" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F232">
-        <v>13655</v>
+        <v>2010</v>
+      </c>
+      <c r="C232" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D232" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E232" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F232" s="73">
+        <v>3160</v>
       </c>
       <c r="G232" t="s">
-        <v>252</v>
+        <v>183</v>
+      </c>
+      <c r="H232" t="s">
+        <v>192</v>
       </c>
       <c r="I232" t="s">
         <v>194</v>
@@ -12561,25 +12570,28 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B233" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C233" t="s">
-        <v>251</v>
-      </c>
-      <c r="D233" t="s">
-        <v>332</v>
-      </c>
-      <c r="E233" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F233">
-        <v>13317</v>
+        <v>2013</v>
+      </c>
+      <c r="C233" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D233" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E233" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F233" s="73">
+        <v>2358</v>
       </c>
       <c r="G233" t="s">
-        <v>252</v>
+        <v>183</v>
+      </c>
+      <c r="H233" t="s">
+        <v>192</v>
       </c>
       <c r="I233" t="s">
         <v>194</v>
@@ -12587,25 +12599,25 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B234" s="1">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C234" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D234" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="E234" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F234">
-        <v>13075</v>
+        <v>4022</v>
       </c>
       <c r="G234" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="I234" t="s">
         <v>194</v>
@@ -12613,25 +12625,25 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B235" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C235" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D235" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="E235" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F235">
-        <v>5200</v>
+        <v>15532</v>
       </c>
       <c r="G235" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="I235" t="s">
         <v>194</v>
@@ -12639,25 +12651,25 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B236" s="1">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C236" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D236" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="E236" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F236">
-        <v>5194</v>
+        <v>13655</v>
       </c>
       <c r="G236" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="I236" t="s">
         <v>194</v>
@@ -12665,28 +12677,25 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="B237" s="1">
-        <v>1985</v>
-      </c>
-      <c r="C237" s="64" t="s">
-        <v>110</v>
+        <v>2010</v>
+      </c>
+      <c r="C237" t="s">
+        <v>251</v>
       </c>
       <c r="D237" t="s">
-        <v>111</v>
-      </c>
-      <c r="E237" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F237" s="73">
-        <v>2012</v>
+        <v>332</v>
+      </c>
+      <c r="E237" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F237">
+        <v>13317</v>
       </c>
       <c r="G237" t="s">
-        <v>174</v>
-      </c>
-      <c r="H237" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="I237" t="s">
         <v>194</v>
@@ -12694,28 +12703,25 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="B238" s="1">
-        <v>1991</v>
-      </c>
-      <c r="C238" s="64" t="s">
-        <v>110</v>
+        <v>2012</v>
+      </c>
+      <c r="C238" t="s">
+        <v>251</v>
       </c>
       <c r="D238" t="s">
-        <v>111</v>
-      </c>
-      <c r="E238" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F238" s="73">
-        <v>1957</v>
+        <v>332</v>
+      </c>
+      <c r="E238" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F238">
+        <v>13075</v>
       </c>
       <c r="G238" t="s">
-        <v>174</v>
-      </c>
-      <c r="H238" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="I238" t="s">
         <v>194</v>
@@ -12723,28 +12729,25 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="B239" s="1">
-        <v>1994</v>
-      </c>
-      <c r="C239" s="64" t="s">
-        <v>112</v>
+        <v>2014</v>
+      </c>
+      <c r="C239" t="s">
+        <v>251</v>
       </c>
       <c r="D239" t="s">
-        <v>113</v>
-      </c>
-      <c r="E239" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F239" s="73">
-        <v>1813</v>
+        <v>332</v>
+      </c>
+      <c r="E239" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F239">
+        <v>12377</v>
       </c>
       <c r="G239" t="s">
-        <v>174</v>
-      </c>
-      <c r="H239" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="I239" t="s">
         <v>194</v>
@@ -12752,28 +12755,25 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="B240" s="1">
-        <v>1997</v>
-      </c>
-      <c r="C240" s="64" t="s">
-        <v>112</v>
+        <v>2016</v>
+      </c>
+      <c r="C240" t="s">
+        <v>251</v>
       </c>
       <c r="D240" t="s">
-        <v>113</v>
-      </c>
-      <c r="E240" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F240" s="73">
-        <v>2515</v>
+        <v>332</v>
+      </c>
+      <c r="E240" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F240">
+        <v>11442</v>
       </c>
       <c r="G240" t="s">
-        <v>174</v>
-      </c>
-      <c r="H240" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="I240" t="s">
         <v>194</v>
@@ -12781,51 +12781,48 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="B241" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C241" s="64" t="s">
-        <v>112</v>
+        <v>2010</v>
+      </c>
+      <c r="C241" t="s">
+        <v>214</v>
       </c>
       <c r="D241" t="s">
-        <v>113</v>
-      </c>
-      <c r="E241" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F241" s="73">
-        <v>2431</v>
+        <v>197</v>
+      </c>
+      <c r="E241" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F241">
+        <v>5200</v>
       </c>
       <c r="G241" t="s">
         <v>174</v>
       </c>
-      <c r="H241" t="s">
-        <v>192</v>
-      </c>
       <c r="I241" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="B242" s="1">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C242" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D242" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="E242" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F242">
-        <v>3622</v>
+        <v>5194</v>
       </c>
       <c r="G242" t="s">
         <v>174</v>
@@ -12839,22 +12836,25 @@
         <v>109</v>
       </c>
       <c r="B243" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C243" t="s">
-        <v>215</v>
+        <v>1985</v>
+      </c>
+      <c r="C243" s="64" t="s">
+        <v>110</v>
       </c>
       <c r="D243" t="s">
-        <v>330</v>
-      </c>
-      <c r="E243" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F243">
-        <v>3779</v>
+        <v>111</v>
+      </c>
+      <c r="E243" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F243" s="73">
+        <v>2012</v>
       </c>
       <c r="G243" t="s">
         <v>174</v>
+      </c>
+      <c r="H243" t="s">
+        <v>192</v>
       </c>
       <c r="I243" t="s">
         <v>194</v>
@@ -12865,22 +12865,25 @@
         <v>109</v>
       </c>
       <c r="B244" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C244" t="s">
-        <v>215</v>
+        <v>1991</v>
+      </c>
+      <c r="C244" s="64" t="s">
+        <v>110</v>
       </c>
       <c r="D244" t="s">
-        <v>330</v>
-      </c>
-      <c r="E244" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F244">
-        <v>5464</v>
+        <v>111</v>
+      </c>
+      <c r="E244" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F244" s="73">
+        <v>1957</v>
       </c>
       <c r="G244" t="s">
         <v>174</v>
+      </c>
+      <c r="H244" t="s">
+        <v>192</v>
       </c>
       <c r="I244" t="s">
         <v>194</v>
@@ -12891,48 +12894,54 @@
         <v>109</v>
       </c>
       <c r="B245" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C245" t="s">
-        <v>215</v>
+        <v>1994</v>
+      </c>
+      <c r="C245" s="64" t="s">
+        <v>112</v>
       </c>
       <c r="D245" t="s">
-        <v>330</v>
-      </c>
-      <c r="E245" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F245">
-        <v>3879</v>
+        <v>113</v>
+      </c>
+      <c r="E245" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F245" s="73">
+        <v>1813</v>
       </c>
       <c r="G245" t="s">
         <v>174</v>
       </c>
+      <c r="H245" t="s">
+        <v>192</v>
+      </c>
       <c r="I245" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="B246" s="1">
-        <v>1984</v>
-      </c>
-      <c r="C246" t="s">
-        <v>303</v>
+        <v>1997</v>
+      </c>
+      <c r="C246" s="64" t="s">
+        <v>112</v>
       </c>
       <c r="D246" t="s">
-        <v>306</v>
-      </c>
-      <c r="E246" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F246">
-        <v>4735</v>
+        <v>113</v>
+      </c>
+      <c r="E246" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F246" s="73">
+        <v>2515</v>
       </c>
       <c r="G246" t="s">
-        <v>304</v>
+        <v>174</v>
+      </c>
+      <c r="H246" t="s">
+        <v>192</v>
       </c>
       <c r="I246" t="s">
         <v>194</v>
@@ -12940,25 +12949,28 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="B247" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C247" t="s">
-        <v>303</v>
+        <v>2000</v>
+      </c>
+      <c r="C247" s="64" t="s">
+        <v>112</v>
       </c>
       <c r="D247" t="s">
-        <v>306</v>
-      </c>
-      <c r="E247" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F247">
-        <v>11531</v>
+        <v>113</v>
+      </c>
+      <c r="E247" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F247" s="73">
+        <v>2431</v>
       </c>
       <c r="G247" t="s">
-        <v>304</v>
+        <v>174</v>
+      </c>
+      <c r="H247" t="s">
+        <v>192</v>
       </c>
       <c r="I247" t="s">
         <v>194</v>
@@ -12966,25 +12978,25 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="B248" s="1">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="C248" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="D248" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E248" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F248">
-        <v>10530</v>
+        <v>3622</v>
       </c>
       <c r="G248" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="I248" t="s">
         <v>194</v>
@@ -12992,25 +13004,25 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="B249" s="1">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="C249" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="D249" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E249" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F249">
-        <v>12815</v>
+        <v>3779</v>
       </c>
       <c r="G249" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="I249" t="s">
         <v>194</v>
@@ -13018,25 +13030,25 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="B250" s="1">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="C250" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="D250" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E250" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F250">
-        <v>14042</v>
+        <v>5464</v>
       </c>
       <c r="G250" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="I250" t="s">
         <v>194</v>
@@ -13044,25 +13056,25 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="B251" s="1">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="C251" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="D251" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E251" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F251">
-        <v>10952</v>
+        <v>3879</v>
       </c>
       <c r="G251" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="I251" t="s">
         <v>194</v>
@@ -13073,7 +13085,7 @@
         <v>265</v>
       </c>
       <c r="B252" s="1">
-        <v>2000</v>
+        <v>1984</v>
       </c>
       <c r="C252" t="s">
         <v>303</v>
@@ -13085,10 +13097,10 @@
         <v>70</v>
       </c>
       <c r="F252">
-        <v>10108</v>
+        <v>4735</v>
       </c>
       <c r="G252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I252" t="s">
         <v>194</v>
@@ -13099,7 +13111,7 @@
         <v>265</v>
       </c>
       <c r="B253" s="1">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="C253" t="s">
         <v>303</v>
@@ -13111,10 +13123,10 @@
         <v>70</v>
       </c>
       <c r="F253">
-        <v>17167</v>
+        <v>11531</v>
       </c>
       <c r="G253" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I253" t="s">
         <v>194</v>
@@ -13124,8 +13136,8 @@
       <c r="A254" t="s">
         <v>265</v>
       </c>
-      <c r="B254" s="80">
-        <v>2004</v>
+      <c r="B254" s="1">
+        <v>1992</v>
       </c>
       <c r="C254" t="s">
         <v>303</v>
@@ -13137,10 +13149,10 @@
         <v>70</v>
       </c>
       <c r="F254">
-        <v>9356</v>
+        <v>10530</v>
       </c>
       <c r="G254" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I254" t="s">
         <v>194</v>
@@ -13150,8 +13162,8 @@
       <c r="A255" t="s">
         <v>265</v>
       </c>
-      <c r="B255" s="80">
-        <v>2008</v>
+      <c r="B255" s="1">
+        <v>1994</v>
       </c>
       <c r="C255" t="s">
         <v>303</v>
@@ -13163,7 +13175,7 @@
         <v>70</v>
       </c>
       <c r="F255">
-        <v>10337</v>
+        <v>12815</v>
       </c>
       <c r="G255" t="s">
         <v>305</v>
@@ -13176,8 +13188,8 @@
       <c r="A256" t="s">
         <v>265</v>
       </c>
-      <c r="B256" s="80">
-        <v>2010</v>
+      <c r="B256" s="1">
+        <v>1996</v>
       </c>
       <c r="C256" t="s">
         <v>303</v>
@@ -13189,7 +13201,7 @@
         <v>70</v>
       </c>
       <c r="F256">
-        <v>27655</v>
+        <v>14042</v>
       </c>
       <c r="G256" t="s">
         <v>305</v>
@@ -13203,7 +13215,7 @@
         <v>265</v>
       </c>
       <c r="B257" s="1">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="C257" t="s">
         <v>303</v>
@@ -13215,7 +13227,7 @@
         <v>70</v>
       </c>
       <c r="F257">
-        <v>9002</v>
+        <v>10952</v>
       </c>
       <c r="G257" t="s">
         <v>305</v>
@@ -13229,7 +13241,7 @@
         <v>265</v>
       </c>
       <c r="B258" s="1">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C258" t="s">
         <v>303</v>
@@ -13241,7 +13253,7 @@
         <v>70</v>
       </c>
       <c r="F258">
-        <v>19479</v>
+        <v>10108</v>
       </c>
       <c r="G258" t="s">
         <v>305</v>
@@ -13254,8 +13266,8 @@
       <c r="A259" t="s">
         <v>265</v>
       </c>
-      <c r="B259" s="80">
-        <v>2016</v>
+      <c r="B259" s="1">
+        <v>2002</v>
       </c>
       <c r="C259" t="s">
         <v>303</v>
@@ -13267,7 +13279,7 @@
         <v>70</v>
       </c>
       <c r="F259">
-        <v>70311</v>
+        <v>17167</v>
       </c>
       <c r="G259" t="s">
         <v>305</v>
@@ -13281,7 +13293,7 @@
         <v>265</v>
       </c>
       <c r="B260" s="80">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="C260" t="s">
         <v>303</v>
@@ -13293,7 +13305,7 @@
         <v>70</v>
       </c>
       <c r="F260">
-        <v>74647</v>
+        <v>9356</v>
       </c>
       <c r="G260" t="s">
         <v>305</v>
@@ -13304,28 +13316,25 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>114</v>
-      </c>
-      <c r="B261" s="1">
-        <v>1983</v>
-      </c>
-      <c r="C261" s="70" t="s">
-        <v>115</v>
+        <v>265</v>
+      </c>
+      <c r="B261" s="80">
+        <v>2008</v>
+      </c>
+      <c r="C261" t="s">
+        <v>303</v>
       </c>
       <c r="D261" t="s">
-        <v>116</v>
-      </c>
-      <c r="E261" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F261" s="73">
-        <v>4833</v>
+        <v>306</v>
+      </c>
+      <c r="E261" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F261">
+        <v>10337</v>
       </c>
       <c r="G261" t="s">
-        <v>174</v>
-      </c>
-      <c r="H261" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="I261" t="s">
         <v>194</v>
@@ -13333,28 +13342,25 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>114</v>
-      </c>
-      <c r="B262" s="1">
-        <v>1987</v>
-      </c>
-      <c r="C262" s="70" t="s">
-        <v>115</v>
+        <v>265</v>
+      </c>
+      <c r="B262" s="80">
+        <v>2010</v>
+      </c>
+      <c r="C262" t="s">
+        <v>303</v>
       </c>
       <c r="D262" t="s">
-        <v>116</v>
-      </c>
-      <c r="E262" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F262" s="73">
-        <v>4190</v>
+        <v>306</v>
+      </c>
+      <c r="E262" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F262">
+        <v>27655</v>
       </c>
       <c r="G262" t="s">
-        <v>174</v>
-      </c>
-      <c r="H262" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="I262" t="s">
         <v>194</v>
@@ -13362,28 +13368,25 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="B263" s="1">
-        <v>1990</v>
-      </c>
-      <c r="C263" s="70" t="s">
-        <v>115</v>
+        <v>2012</v>
+      </c>
+      <c r="C263" t="s">
+        <v>303</v>
       </c>
       <c r="D263" t="s">
-        <v>116</v>
-      </c>
-      <c r="E263" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F263" s="73">
-        <v>4378</v>
+        <v>306</v>
+      </c>
+      <c r="E263" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F263">
+        <v>9002</v>
       </c>
       <c r="G263" t="s">
-        <v>174</v>
-      </c>
-      <c r="H263" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="I263" t="s">
         <v>194</v>
@@ -13391,28 +13394,25 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="B264" s="1">
-        <v>1993</v>
-      </c>
-      <c r="C264" s="64" t="s">
-        <v>117</v>
+        <v>2014</v>
+      </c>
+      <c r="C264" t="s">
+        <v>303</v>
       </c>
       <c r="D264" t="s">
-        <v>75</v>
-      </c>
-      <c r="E264" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F264" s="73">
-        <v>5187</v>
+        <v>306</v>
+      </c>
+      <c r="E264" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F264">
+        <v>19479</v>
       </c>
       <c r="G264" t="s">
-        <v>174</v>
-      </c>
-      <c r="H264" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="I264" t="s">
         <v>194</v>
@@ -13420,28 +13420,25 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>114</v>
-      </c>
-      <c r="B265" s="1">
-        <v>1999</v>
-      </c>
-      <c r="C265" s="64" t="s">
-        <v>117</v>
+        <v>265</v>
+      </c>
+      <c r="B265" s="80">
+        <v>2016</v>
+      </c>
+      <c r="C265" t="s">
+        <v>303</v>
       </c>
       <c r="D265" t="s">
-        <v>75</v>
-      </c>
-      <c r="E265" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F265" s="73">
-        <v>5007</v>
+        <v>306</v>
+      </c>
+      <c r="E265" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F265">
+        <v>70311</v>
       </c>
       <c r="G265" t="s">
-        <v>174</v>
-      </c>
-      <c r="H265" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="I265" t="s">
         <v>194</v>
@@ -13449,28 +13446,25 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>118</v>
-      </c>
-      <c r="B266" s="1">
-        <v>1979</v>
-      </c>
-      <c r="C266" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D266" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E266" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F266" s="73">
-        <v>10414</v>
+        <v>265</v>
+      </c>
+      <c r="B266" s="80">
+        <v>2018</v>
+      </c>
+      <c r="C266" t="s">
+        <v>303</v>
+      </c>
+      <c r="D266" t="s">
+        <v>306</v>
+      </c>
+      <c r="E266" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F266">
+        <v>74647</v>
       </c>
       <c r="G266" t="s">
-        <v>184</v>
-      </c>
-      <c r="H266" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="I266" t="s">
         <v>194</v>
@@ -13478,25 +13472,25 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B267" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C267" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D267" s="63" t="s">
-        <v>86</v>
+        <v>1983</v>
+      </c>
+      <c r="C267" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D267" t="s">
+        <v>116</v>
       </c>
       <c r="E267" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F267" s="73">
-        <v>4975</v>
+        <v>4833</v>
       </c>
       <c r="G267" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H267" t="s">
         <v>192</v>
@@ -13507,25 +13501,25 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B268" s="1">
-        <v>1991</v>
-      </c>
-      <c r="C268" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D268" s="63" t="s">
-        <v>86</v>
+        <v>1987</v>
+      </c>
+      <c r="C268" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D268" t="s">
+        <v>116</v>
       </c>
       <c r="E268" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F268" s="73">
-        <v>8073</v>
+        <v>4190</v>
       </c>
       <c r="G268" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H268" t="s">
         <v>192</v>
@@ -13536,25 +13530,25 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B269" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C269" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D269" s="63" t="s">
-        <v>86</v>
+        <v>1990</v>
+      </c>
+      <c r="C269" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D269" t="s">
+        <v>116</v>
       </c>
       <c r="E269" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F269" s="73">
-        <v>10127</v>
+        <v>4378</v>
       </c>
       <c r="G269" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H269" t="s">
         <v>192</v>
@@ -13565,25 +13559,25 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B270" s="1">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D270" s="63" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="D270" t="s">
+        <v>75</v>
       </c>
       <c r="E270" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F270" s="73">
-        <v>12919</v>
+        <v>5187</v>
       </c>
       <c r="G270" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H270" t="s">
         <v>192</v>
@@ -13594,25 +13588,28 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B271" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C271" t="s">
-        <v>216</v>
+        <v>1999</v>
+      </c>
+      <c r="C271" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="D271" t="s">
-        <v>86</v>
-      </c>
-      <c r="E271" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F271">
-        <v>13131</v>
+        <v>75</v>
+      </c>
+      <c r="E271" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F271" s="73">
+        <v>5007</v>
       </c>
       <c r="G271" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="H271" t="s">
+        <v>192</v>
       </c>
       <c r="I271" t="s">
         <v>194</v>
@@ -13623,22 +13620,25 @@
         <v>118</v>
       </c>
       <c r="B272" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C272" t="s">
-        <v>217</v>
-      </c>
-      <c r="D272" t="s">
-        <v>169</v>
-      </c>
-      <c r="E272" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F272">
-        <v>217884</v>
+        <v>1979</v>
+      </c>
+      <c r="C272" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D272" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E272" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F272" s="73">
+        <v>10414</v>
       </c>
       <c r="G272" t="s">
         <v>184</v>
+      </c>
+      <c r="H272" t="s">
+        <v>192</v>
       </c>
       <c r="I272" t="s">
         <v>194</v>
@@ -13649,22 +13649,25 @@
         <v>118</v>
       </c>
       <c r="B273" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C273" t="s">
-        <v>217</v>
-      </c>
-      <c r="D273" t="s">
-        <v>169</v>
-      </c>
-      <c r="E273" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F273">
-        <v>228200</v>
+        <v>1986</v>
+      </c>
+      <c r="C273" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D273" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E273" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F273" s="73">
+        <v>4975</v>
       </c>
       <c r="G273" t="s">
         <v>184</v>
+      </c>
+      <c r="H273" t="s">
+        <v>192</v>
       </c>
       <c r="I273" t="s">
         <v>194</v>
@@ -13675,48 +13678,54 @@
         <v>118</v>
       </c>
       <c r="B274" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C274" t="s">
-        <v>217</v>
-      </c>
-      <c r="D274" t="s">
-        <v>169</v>
-      </c>
-      <c r="E274" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F274">
-        <v>235732</v>
+        <v>1991</v>
+      </c>
+      <c r="C274" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D274" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E274" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F274" s="73">
+        <v>8073</v>
       </c>
       <c r="G274" t="s">
         <v>184</v>
       </c>
+      <c r="H274" t="s">
+        <v>192</v>
+      </c>
       <c r="I274" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>266</v>
-      </c>
-      <c r="B275" s="80">
-        <v>2007</v>
-      </c>
-      <c r="C275" t="s">
-        <v>307</v>
-      </c>
-      <c r="D275" t="s">
-        <v>284</v>
-      </c>
-      <c r="E275" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F275">
-        <v>13091</v>
+        <v>118</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C275" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D275" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E275" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F275" s="73">
+        <v>10127</v>
       </c>
       <c r="G275" t="s">
-        <v>308</v>
+        <v>184</v>
+      </c>
+      <c r="H275" t="s">
+        <v>192</v>
       </c>
       <c r="I275" t="s">
         <v>194</v>
@@ -13724,25 +13733,28 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>266</v>
-      </c>
-      <c r="B276" s="80">
-        <v>2010</v>
-      </c>
-      <c r="C276" t="s">
-        <v>307</v>
-      </c>
-      <c r="D276" t="s">
-        <v>284</v>
-      </c>
-      <c r="E276" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F276">
-        <v>13391</v>
+        <v>118</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C276" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D276" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E276" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F276" s="73">
+        <v>12919</v>
       </c>
       <c r="G276" t="s">
-        <v>308</v>
+        <v>184</v>
+      </c>
+      <c r="H276" t="s">
+        <v>192</v>
       </c>
       <c r="I276" t="s">
         <v>194</v>
@@ -13750,55 +13762,51 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>266</v>
-      </c>
-      <c r="B277" s="80">
-        <v>2013</v>
+        <v>118</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2004</v>
       </c>
       <c r="C277" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="D277" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="E277" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F277">
-        <v>11905</v>
+        <v>13131</v>
       </c>
       <c r="G277" t="s">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="I277" t="s">
         <v>194</v>
       </c>
-      <c r="J277" s="78"/>
-      <c r="K277" s="78"/>
-      <c r="L277" s="78"/>
-      <c r="M277" s="78"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>267</v>
-      </c>
-      <c r="B278" s="80">
-        <v>2004</v>
+        <v>118</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2007</v>
       </c>
       <c r="C278" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="D278" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="E278" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F278">
-        <v>19502</v>
+        <v>217884</v>
       </c>
       <c r="G278" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="I278" t="s">
         <v>194</v>
@@ -13806,25 +13814,25 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>267</v>
-      </c>
-      <c r="B279" s="80">
-        <v>2007</v>
+        <v>118</v>
+      </c>
+      <c r="B279" s="1">
+        <v>2010</v>
       </c>
       <c r="C279" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="D279" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="E279" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F279">
-        <v>22204</v>
+        <v>228200</v>
       </c>
       <c r="G279" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="I279" t="s">
         <v>194</v>
@@ -13832,53 +13840,51 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>267</v>
-      </c>
-      <c r="B280" s="80">
-        <v>2010</v>
+        <v>118</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2013</v>
       </c>
       <c r="C280" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="D280" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="E280" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F280">
-        <v>21496</v>
+        <v>235732</v>
       </c>
       <c r="G280" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="I280" t="s">
         <v>194</v>
       </c>
-      <c r="J280" s="78"/>
-      <c r="K280" s="78"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B281" s="80">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C281" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D281" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="E281" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F281">
-        <v>30453</v>
+        <v>13091</v>
       </c>
       <c r="G281" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I281" t="s">
         <v>194</v>
@@ -13886,25 +13892,25 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B282" s="80">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C282" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D282" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="E282" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F282">
-        <v>35785</v>
+        <v>13391</v>
       </c>
       <c r="G282" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I282" t="s">
         <v>194</v>
@@ -13912,57 +13918,55 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>120</v>
-      </c>
-      <c r="B283" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C283" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D283" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E283" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F283" s="73">
-        <v>10646</v>
+        <v>266</v>
+      </c>
+      <c r="B283" s="80">
+        <v>2013</v>
+      </c>
+      <c r="C283" t="s">
+        <v>307</v>
+      </c>
+      <c r="D283" t="s">
+        <v>284</v>
+      </c>
+      <c r="E283" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F283">
+        <v>11905</v>
       </c>
       <c r="G283" t="s">
-        <v>185</v>
-      </c>
-      <c r="H283" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="I283" t="s">
         <v>194</v>
       </c>
+      <c r="J283" s="78"/>
+      <c r="K283" s="78"/>
+      <c r="L283" s="78"/>
+      <c r="M283" s="78"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>120</v>
-      </c>
-      <c r="B284" s="1">
-        <v>1992</v>
-      </c>
-      <c r="C284" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D284" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E284" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F284" s="73">
-        <v>6602</v>
+        <v>267</v>
+      </c>
+      <c r="B284" s="80">
+        <v>2004</v>
+      </c>
+      <c r="C284" t="s">
+        <v>312</v>
+      </c>
+      <c r="D284" t="s">
+        <v>314</v>
+      </c>
+      <c r="E284" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F284">
+        <v>19502</v>
       </c>
       <c r="G284" t="s">
-        <v>185</v>
-      </c>
-      <c r="H284" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="I284" t="s">
         <v>194</v>
@@ -13970,28 +13974,25 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>120</v>
-      </c>
-      <c r="B285" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C285" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D285" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E285" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F285" s="73">
-        <v>32009</v>
+        <v>267</v>
+      </c>
+      <c r="B285" s="80">
+        <v>2007</v>
+      </c>
+      <c r="C285" t="s">
+        <v>312</v>
+      </c>
+      <c r="D285" t="s">
+        <v>314</v>
+      </c>
+      <c r="E285" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F285">
+        <v>22204</v>
       </c>
       <c r="G285" t="s">
-        <v>185</v>
-      </c>
-      <c r="H285" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="I285" t="s">
         <v>194</v>
@@ -13999,54 +14000,53 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>120</v>
-      </c>
-      <c r="B286" s="1">
-        <v>1999</v>
-      </c>
-      <c r="C286" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D286" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E286" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F286" s="73">
-        <v>31428</v>
+        <v>267</v>
+      </c>
+      <c r="B286" s="80">
+        <v>2010</v>
+      </c>
+      <c r="C286" t="s">
+        <v>312</v>
+      </c>
+      <c r="D286" t="s">
+        <v>314</v>
+      </c>
+      <c r="E286" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F286">
+        <v>21496</v>
       </c>
       <c r="G286" t="s">
-        <v>185</v>
-      </c>
-      <c r="H286" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="I286" t="s">
         <v>194</v>
       </c>
+      <c r="J286" s="78"/>
+      <c r="K286" s="78"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>120</v>
-      </c>
-      <c r="B287" s="1">
-        <v>2004</v>
+        <v>267</v>
+      </c>
+      <c r="B287" s="80">
+        <v>2013</v>
       </c>
       <c r="C287" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="D287" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="E287" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F287">
-        <v>32214</v>
+        <v>30453</v>
       </c>
       <c r="G287" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="I287" t="s">
         <v>194</v>
@@ -14054,25 +14054,25 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>120</v>
-      </c>
-      <c r="B288" s="1">
-        <v>2007</v>
+        <v>267</v>
+      </c>
+      <c r="B288" s="80">
+        <v>2016</v>
       </c>
       <c r="C288" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="D288" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="E288" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F288">
-        <v>37366</v>
+        <v>35785</v>
       </c>
       <c r="G288" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="I288" t="s">
         <v>194</v>
@@ -14083,22 +14083,25 @@
         <v>120</v>
       </c>
       <c r="B289" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C289" t="s">
-        <v>218</v>
-      </c>
-      <c r="D289" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C289" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D289" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E289" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F289">
-        <v>37412</v>
+      <c r="E289" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F289" s="73">
+        <v>10646</v>
       </c>
       <c r="G289" t="s">
         <v>185</v>
+      </c>
+      <c r="H289" t="s">
+        <v>192</v>
       </c>
       <c r="I289" t="s">
         <v>194</v>
@@ -14109,22 +14112,25 @@
         <v>120</v>
       </c>
       <c r="B290" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C290" t="s">
-        <v>218</v>
-      </c>
-      <c r="D290" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C290" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D290" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E290" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F290">
-        <v>37181</v>
+      <c r="E290" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F290" s="73">
+        <v>6602</v>
       </c>
       <c r="G290" t="s">
         <v>185</v>
+      </c>
+      <c r="H290" t="s">
+        <v>192</v>
       </c>
       <c r="I290" t="s">
         <v>194</v>
@@ -14135,48 +14141,54 @@
         <v>120</v>
       </c>
       <c r="B291" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C291" t="s">
-        <v>218</v>
-      </c>
-      <c r="D291" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C291" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D291" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E291" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F291">
-        <v>36886</v>
+      <c r="E291" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F291" s="73">
+        <v>32009</v>
       </c>
       <c r="G291" t="s">
         <v>185</v>
       </c>
+      <c r="H291" t="s">
+        <v>192</v>
+      </c>
       <c r="I291" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B292" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C292" t="s">
-        <v>310</v>
-      </c>
-      <c r="D292" t="s">
-        <v>284</v>
-      </c>
-      <c r="E292" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F292">
-        <v>8131</v>
+        <v>1999</v>
+      </c>
+      <c r="C292" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D292" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E292" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F292" s="73">
+        <v>31428</v>
       </c>
       <c r="G292" t="s">
-        <v>311</v>
+        <v>185</v>
+      </c>
+      <c r="H292" t="s">
+        <v>192</v>
       </c>
       <c r="I292" t="s">
         <v>194</v>
@@ -14184,25 +14196,25 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B293" s="1">
         <v>2004</v>
       </c>
       <c r="C293" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D293" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="E293" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F293">
-        <v>7823</v>
+        <v>32214</v>
       </c>
       <c r="G293" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="I293" t="s">
         <v>194</v>
@@ -14210,25 +14222,25 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B294" s="1">
         <v>2007</v>
       </c>
       <c r="C294" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D294" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="E294" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F294">
-        <v>4812</v>
+        <v>37366</v>
       </c>
       <c r="G294" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="I294" t="s">
         <v>194</v>
@@ -14236,25 +14248,25 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B295" s="1">
         <v>2010</v>
       </c>
       <c r="C295" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D295" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="E295" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F295">
-        <v>5003</v>
+        <v>37412</v>
       </c>
       <c r="G295" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="I295" t="s">
         <v>194</v>
@@ -14262,25 +14274,25 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B296" s="1">
         <v>2013</v>
       </c>
       <c r="C296" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D296" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="E296" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F296">
-        <v>5424</v>
+        <v>37181</v>
       </c>
       <c r="G296" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="I296" t="s">
         <v>194</v>
@@ -14288,25 +14300,25 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B297" s="1">
         <v>2016</v>
       </c>
       <c r="C297" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D297" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="E297" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F297">
-        <v>10219</v>
+        <v>36886</v>
       </c>
       <c r="G297" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="I297" t="s">
         <v>194</v>
@@ -14314,28 +14326,25 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B298" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C298" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="D298" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E298" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F298" s="73">
-        <v>31571</v>
+        <v>2000</v>
+      </c>
+      <c r="C298" t="s">
+        <v>310</v>
+      </c>
+      <c r="D298" t="s">
+        <v>284</v>
+      </c>
+      <c r="E298" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F298">
+        <v>8131</v>
       </c>
       <c r="G298" t="s">
-        <v>186</v>
-      </c>
-      <c r="H298" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="I298" t="s">
         <v>194</v>
@@ -14343,28 +14352,25 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B299" s="1">
-        <v>1997</v>
-      </c>
-      <c r="C299" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="D299" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E299" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F299" s="73">
-        <v>32187</v>
+        <v>2004</v>
+      </c>
+      <c r="C299" t="s">
+        <v>310</v>
+      </c>
+      <c r="D299" t="s">
+        <v>284</v>
+      </c>
+      <c r="E299" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F299">
+        <v>7823</v>
       </c>
       <c r="G299" t="s">
-        <v>186</v>
-      </c>
-      <c r="H299" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="I299" t="s">
         <v>194</v>
@@ -14372,25 +14378,25 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>268</v>
-      </c>
-      <c r="B300" s="80">
-        <v>2000</v>
+        <v>309</v>
+      </c>
+      <c r="B300" s="1">
+        <v>2007</v>
       </c>
       <c r="C300" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D300" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E300" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F300">
-        <v>3319</v>
+        <v>4812</v>
       </c>
       <c r="G300" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I300" t="s">
         <v>194</v>
@@ -14398,25 +14404,25 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>268</v>
-      </c>
-      <c r="B301" s="80">
-        <v>2004</v>
+        <v>309</v>
+      </c>
+      <c r="B301" s="1">
+        <v>2010</v>
       </c>
       <c r="C301" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D301" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E301" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F301">
-        <v>3394</v>
+        <v>5003</v>
       </c>
       <c r="G301" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I301" t="s">
         <v>194</v>
@@ -14424,25 +14430,25 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>268</v>
-      </c>
-      <c r="B302" s="80">
-        <v>2007</v>
+        <v>309</v>
+      </c>
+      <c r="B302" s="1">
+        <v>2013</v>
       </c>
       <c r="C302" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D302" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E302" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F302">
-        <v>3933</v>
+        <v>5424</v>
       </c>
       <c r="G302" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I302" t="s">
         <v>194</v>
@@ -14450,25 +14456,25 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="B303" s="1">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C303" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D303" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E303" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F303">
-        <v>6323</v>
+        <v>10219</v>
       </c>
       <c r="G303" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I303" t="s">
         <v>194</v>
@@ -14476,25 +14482,28 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="B304" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C304" t="s">
-        <v>318</v>
-      </c>
-      <c r="D304" t="s">
-        <v>319</v>
-      </c>
-      <c r="E304" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F304">
-        <v>9990</v>
+        <v>1995</v>
+      </c>
+      <c r="C304" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D304" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E304" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F304" s="73">
+        <v>31571</v>
       </c>
       <c r="G304" t="s">
-        <v>317</v>
+        <v>186</v>
+      </c>
+      <c r="H304" t="s">
+        <v>192</v>
       </c>
       <c r="I304" t="s">
         <v>194</v>
@@ -14502,25 +14511,28 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="B305" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C305" t="s">
-        <v>318</v>
-      </c>
-      <c r="D305" t="s">
-        <v>319</v>
-      </c>
-      <c r="E305" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F305">
-        <v>45000</v>
+        <v>1997</v>
+      </c>
+      <c r="C305" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D305" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E305" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F305" s="73">
+        <v>32187</v>
       </c>
       <c r="G305" t="s">
-        <v>317</v>
+        <v>186</v>
+      </c>
+      <c r="H305" t="s">
+        <v>192</v>
       </c>
       <c r="I305" t="s">
         <v>194</v>
@@ -14530,20 +14542,20 @@
       <c r="A306" t="s">
         <v>268</v>
       </c>
-      <c r="B306" s="1">
-        <v>2014</v>
+      <c r="B306" s="80">
+        <v>2000</v>
       </c>
       <c r="C306" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D306" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E306" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F306">
-        <v>45000</v>
+        <v>3319</v>
       </c>
       <c r="G306" t="s">
         <v>317</v>
@@ -14556,20 +14568,20 @@
       <c r="A307" t="s">
         <v>268</v>
       </c>
-      <c r="B307" s="1">
-        <v>2015</v>
+      <c r="B307" s="80">
+        <v>2004</v>
       </c>
       <c r="C307" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D307" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E307" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F307">
-        <v>60000</v>
+        <v>3394</v>
       </c>
       <c r="G307" t="s">
         <v>317</v>
@@ -14582,20 +14594,20 @@
       <c r="A308" t="s">
         <v>268</v>
       </c>
-      <c r="B308" s="1">
-        <v>2016</v>
+      <c r="B308" s="80">
+        <v>2007</v>
       </c>
       <c r="C308" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D308" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E308" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F308">
-        <v>160008</v>
+        <v>3933</v>
       </c>
       <c r="G308" t="s">
         <v>317</v>
@@ -14606,25 +14618,25 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B309" s="1">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C309" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D309" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="E309" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F309">
-        <v>4560</v>
+        <v>6323</v>
       </c>
       <c r="G309" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="I309" t="s">
         <v>194</v>
@@ -14632,25 +14644,25 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B310" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C310" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="D310" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="E310" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F310">
-        <v>4585</v>
+        <v>9990</v>
       </c>
       <c r="G310" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="I310" t="s">
         <v>194</v>
@@ -14658,25 +14670,25 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B311" s="1">
         <v>2013</v>
       </c>
       <c r="C311" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="D311" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="E311" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F311">
-        <v>4517</v>
+        <v>45000</v>
       </c>
       <c r="G311" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="I311" t="s">
         <v>194</v>
@@ -14684,25 +14696,25 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B312" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C312" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="D312" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="E312" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F312">
-        <v>6457</v>
+        <v>45000</v>
       </c>
       <c r="G312" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="I312" t="s">
         <v>194</v>
@@ -14710,57 +14722,51 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="B313" s="1">
-        <v>1992</v>
-      </c>
-      <c r="C313" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D313" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="E313" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F313" s="73">
-        <v>15990</v>
+        <v>2015</v>
+      </c>
+      <c r="C313" t="s">
+        <v>318</v>
+      </c>
+      <c r="D313" t="s">
+        <v>319</v>
+      </c>
+      <c r="E313" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F313">
+        <v>60000</v>
       </c>
       <c r="G313" t="s">
-        <v>174</v>
-      </c>
-      <c r="H313" t="s">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="I313" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A314" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B314" s="67">
-        <v>1996</v>
-      </c>
-      <c r="C314" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="D314" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="E314" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F314" s="73">
-        <v>16336</v>
+      <c r="A314" t="s">
+        <v>268</v>
+      </c>
+      <c r="B314" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C314" t="s">
+        <v>318</v>
+      </c>
+      <c r="D314" t="s">
+        <v>319</v>
+      </c>
+      <c r="E314" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F314">
+        <v>160008</v>
       </c>
       <c r="G314" t="s">
-        <v>174</v>
-      </c>
-      <c r="H314" t="s">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="I314" t="s">
         <v>194</v>
@@ -14768,28 +14774,25 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B315" s="1">
-        <v>1997</v>
-      </c>
-      <c r="C315" s="64" t="s">
-        <v>130</v>
+        <v>2006</v>
+      </c>
+      <c r="C315" t="s">
+        <v>220</v>
       </c>
       <c r="D315" t="s">
         <v>122</v>
       </c>
-      <c r="E315" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F315" s="73">
-        <v>2577</v>
+      <c r="E315" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F315">
+        <v>4560</v>
       </c>
       <c r="G315" t="s">
-        <v>174</v>
-      </c>
-      <c r="H315" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="I315" t="s">
         <v>194</v>
@@ -14797,28 +14800,25 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B316" s="1">
-        <v>1999</v>
-      </c>
-      <c r="C316" s="64" t="s">
-        <v>130</v>
+        <v>2010</v>
+      </c>
+      <c r="C316" t="s">
+        <v>220</v>
       </c>
       <c r="D316" t="s">
         <v>122</v>
       </c>
-      <c r="E316" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F316" s="73">
-        <v>3859</v>
+      <c r="E316" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F316">
+        <v>4585</v>
       </c>
       <c r="G316" t="s">
-        <v>174</v>
-      </c>
-      <c r="H316" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="I316" t="s">
         <v>194</v>
@@ -14826,13 +14826,13 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B317" s="1">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C317" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D317" t="s">
         <v>122</v>
@@ -14841,10 +14841,10 @@
         <v>70</v>
       </c>
       <c r="F317">
-        <v>3725</v>
+        <v>4517</v>
       </c>
       <c r="G317" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I317" t="s">
         <v>194</v>
@@ -14852,13 +14852,13 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="B318" s="1">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="C318" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D318" t="s">
         <v>122</v>
@@ -14867,10 +14867,10 @@
         <v>70</v>
       </c>
       <c r="F318">
-        <v>3697</v>
+        <v>6457</v>
       </c>
       <c r="G318" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I318" t="s">
         <v>194</v>
@@ -14878,51 +14878,57 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B319" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C319" t="s">
-        <v>224</v>
-      </c>
-      <c r="D319" t="s">
-        <v>122</v>
-      </c>
-      <c r="E319" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F319">
-        <v>3924</v>
+        <v>1992</v>
+      </c>
+      <c r="C319" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D319" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E319" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F319" s="73">
+        <v>15990</v>
       </c>
       <c r="G319" t="s">
-        <v>225</v>
+        <v>174</v>
+      </c>
+      <c r="H319" t="s">
+        <v>192</v>
       </c>
       <c r="I319" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>129</v>
-      </c>
-      <c r="B320" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C320" t="s">
-        <v>224</v>
-      </c>
-      <c r="D320" t="s">
-        <v>122</v>
-      </c>
-      <c r="E320" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F320">
-        <v>3663</v>
+      <c r="A320" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B320" s="67">
+        <v>1996</v>
+      </c>
+      <c r="C320" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D320" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E320" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="F320" s="73">
+        <v>16336</v>
       </c>
       <c r="G320" t="s">
         <v>174</v>
+      </c>
+      <c r="H320" t="s">
+        <v>192</v>
       </c>
       <c r="I320" t="s">
         <v>194</v>
@@ -14933,48 +14939,51 @@
         <v>129</v>
       </c>
       <c r="B321" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C321" t="s">
-        <v>224</v>
+        <v>1997</v>
+      </c>
+      <c r="C321" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="D321" t="s">
         <v>122</v>
       </c>
-      <c r="E321" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F321">
-        <v>3750</v>
+      <c r="E321" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F321" s="73">
+        <v>2577</v>
       </c>
       <c r="G321" t="s">
         <v>174</v>
       </c>
+      <c r="H321" t="s">
+        <v>192</v>
+      </c>
       <c r="I321" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B322" s="1">
-        <v>1967</v>
+        <v>1999</v>
       </c>
       <c r="C322" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D322" s="63" t="s">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="D322" t="s">
+        <v>122</v>
       </c>
       <c r="E322" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F322" s="73">
-        <v>5921</v>
+        <v>3859</v>
       </c>
       <c r="G322" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H322" t="s">
         <v>192</v>
@@ -14985,28 +14994,25 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B323" s="1">
-        <v>1975</v>
-      </c>
-      <c r="C323" s="70" t="s">
-        <v>170</v>
+        <v>2004</v>
+      </c>
+      <c r="C323" t="s">
+        <v>224</v>
       </c>
       <c r="D323" t="s">
-        <v>169</v>
-      </c>
-      <c r="E323" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F323" s="73">
-        <v>10306</v>
+        <v>122</v>
+      </c>
+      <c r="E323" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F323">
+        <v>3725</v>
       </c>
       <c r="G323" t="s">
-        <v>187</v>
-      </c>
-      <c r="H323" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="I323" t="s">
         <v>194</v>
@@ -15014,28 +15020,25 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B324" s="1">
-        <v>1981</v>
-      </c>
-      <c r="C324" s="64" t="s">
-        <v>170</v>
+        <v>2007</v>
+      </c>
+      <c r="C324" t="s">
+        <v>224</v>
       </c>
       <c r="D324" t="s">
-        <v>169</v>
-      </c>
-      <c r="E324" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F324" s="73">
-        <v>9625</v>
+        <v>122</v>
+      </c>
+      <c r="E324" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F324">
+        <v>3697</v>
       </c>
       <c r="G324" t="s">
-        <v>187</v>
-      </c>
-      <c r="H324" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="I324" t="s">
         <v>194</v>
@@ -15043,28 +15046,25 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B325" s="1">
-        <v>1987</v>
-      </c>
-      <c r="C325" s="64" t="s">
-        <v>170</v>
+        <v>2010</v>
+      </c>
+      <c r="C325" t="s">
+        <v>224</v>
       </c>
       <c r="D325" t="s">
-        <v>169</v>
-      </c>
-      <c r="E325" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F325" s="73">
-        <v>9530</v>
+        <v>122</v>
+      </c>
+      <c r="E325" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F325">
+        <v>3924</v>
       </c>
       <c r="G325" t="s">
-        <v>187</v>
-      </c>
-      <c r="H325" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="I325" t="s">
         <v>194</v>
@@ -15072,28 +15072,25 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B326" s="1">
-        <v>1992</v>
-      </c>
-      <c r="C326" s="64" t="s">
-        <v>170</v>
+        <v>2012</v>
+      </c>
+      <c r="C326" t="s">
+        <v>224</v>
       </c>
       <c r="D326" t="s">
-        <v>169</v>
-      </c>
-      <c r="E326" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F326" s="73">
-        <v>12484</v>
+        <v>122</v>
+      </c>
+      <c r="E326" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F326">
+        <v>3663</v>
       </c>
       <c r="G326" t="s">
-        <v>187</v>
-      </c>
-      <c r="H326" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I326" t="s">
         <v>194</v>
@@ -15101,28 +15098,25 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B327" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C327" s="64" t="s">
-        <v>170</v>
+        <v>2015</v>
+      </c>
+      <c r="C327" t="s">
+        <v>224</v>
       </c>
       <c r="D327" t="s">
-        <v>169</v>
-      </c>
-      <c r="E327" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F327" s="73">
-        <v>16260</v>
+        <v>122</v>
+      </c>
+      <c r="E327" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F327">
+        <v>3750</v>
       </c>
       <c r="G327" t="s">
-        <v>187</v>
-      </c>
-      <c r="H327" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I327" t="s">
         <v>194</v>
@@ -15133,19 +15127,19 @@
         <v>134</v>
       </c>
       <c r="B328" s="1">
-        <v>2000</v>
+        <v>1967</v>
       </c>
       <c r="C328" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="D328" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="D328" s="63" t="s">
+        <v>168</v>
       </c>
       <c r="E328" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F328" s="73">
-        <v>14491</v>
+        <v>5921</v>
       </c>
       <c r="G328" t="s">
         <v>187</v>
@@ -15162,48 +15156,51 @@
         <v>134</v>
       </c>
       <c r="B329" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C329" t="s">
-        <v>227</v>
+        <v>1975</v>
+      </c>
+      <c r="C329" s="70" t="s">
+        <v>170</v>
       </c>
       <c r="D329" t="s">
         <v>169</v>
       </c>
-      <c r="E329" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F329">
-        <v>16268</v>
+      <c r="E329" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F329" s="73">
+        <v>10306</v>
       </c>
       <c r="G329" t="s">
         <v>187</v>
       </c>
+      <c r="H329" t="s">
+        <v>192</v>
+      </c>
       <c r="I329" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B330" s="1">
         <v>1981</v>
       </c>
       <c r="C330" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D330" s="63" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="D330" t="s">
+        <v>169</v>
       </c>
       <c r="E330" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F330" s="73">
-        <v>15286</v>
+        <v>9625</v>
       </c>
       <c r="G330" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H330" t="s">
         <v>192</v>
@@ -15214,25 +15211,25 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B331" s="1">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C331" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D331" s="63" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="D331" t="s">
+        <v>169</v>
       </c>
       <c r="E331" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F331" s="73">
-        <v>16434</v>
+        <v>9530</v>
       </c>
       <c r="G331" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H331" t="s">
         <v>192</v>
@@ -15243,25 +15240,25 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B332" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C332" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D332" s="63" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="D332" t="s">
+        <v>169</v>
       </c>
       <c r="E332" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F332" s="73">
-        <v>16434</v>
+        <v>12484</v>
       </c>
       <c r="G332" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H332" t="s">
         <v>192</v>
@@ -15272,25 +15269,25 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B333" s="1">
         <v>1995</v>
       </c>
       <c r="C333" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D333" s="63" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="D333" t="s">
+        <v>169</v>
       </c>
       <c r="E333" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F333" s="73">
-        <v>14706</v>
+        <v>16260</v>
       </c>
       <c r="G333" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H333" t="s">
         <v>192</v>
@@ -15301,25 +15298,25 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B334" s="1">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C334" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D334" s="63" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="D334" t="s">
+        <v>169</v>
       </c>
       <c r="E334" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F334" s="73">
-        <v>13701</v>
+        <v>14491</v>
       </c>
       <c r="G334" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H334" t="s">
         <v>192</v>
@@ -15330,28 +15327,25 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B335" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C335" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D335" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="E335" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F335" s="73">
-        <v>13801</v>
+        <v>2005</v>
+      </c>
+      <c r="C335" t="s">
+        <v>227</v>
+      </c>
+      <c r="D335" t="s">
+        <v>169</v>
+      </c>
+      <c r="E335" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F335">
+        <v>16268</v>
       </c>
       <c r="G335" t="s">
-        <v>188</v>
-      </c>
-      <c r="H335" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I335" t="s">
         <v>194</v>
@@ -15362,7 +15356,7 @@
         <v>158</v>
       </c>
       <c r="B336" s="1">
-        <v>2005</v>
+        <v>1981</v>
       </c>
       <c r="C336" s="64" t="s">
         <v>161</v>
@@ -15374,7 +15368,7 @@
         <v>70</v>
       </c>
       <c r="F336" s="73">
-        <v>13681</v>
+        <v>15286</v>
       </c>
       <c r="G336" t="s">
         <v>188</v>
@@ -15391,7 +15385,7 @@
         <v>158</v>
       </c>
       <c r="B337" s="1">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="C337" s="64" t="s">
         <v>161</v>
@@ -15403,7 +15397,7 @@
         <v>70</v>
       </c>
       <c r="F337" s="73">
-        <v>13776</v>
+        <v>16434</v>
       </c>
       <c r="G337" t="s">
         <v>188</v>
@@ -15420,7 +15414,7 @@
         <v>158</v>
       </c>
       <c r="B338" s="1">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="C338" s="64" t="s">
         <v>161</v>
@@ -15432,7 +15426,7 @@
         <v>70</v>
       </c>
       <c r="F338" s="73">
-        <v>14853</v>
+        <v>16434</v>
       </c>
       <c r="G338" t="s">
         <v>188</v>
@@ -15449,7 +15443,7 @@
         <v>158</v>
       </c>
       <c r="B339" s="1">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="C339" s="64" t="s">
         <v>161</v>
@@ -15461,7 +15455,7 @@
         <v>70</v>
       </c>
       <c r="F339" s="73">
-        <v>15858</v>
+        <v>14706</v>
       </c>
       <c r="G339" t="s">
         <v>188</v>
@@ -15478,7 +15472,7 @@
         <v>158</v>
       </c>
       <c r="B340" s="1">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="C340" s="64" t="s">
         <v>161</v>
@@ -15490,7 +15484,7 @@
         <v>70</v>
       </c>
       <c r="F340" s="73">
-        <v>16528</v>
+        <v>13701</v>
       </c>
       <c r="G340" t="s">
         <v>188</v>
@@ -15507,22 +15501,25 @@
         <v>158</v>
       </c>
       <c r="B341" s="1">
-        <v>1981</v>
-      </c>
-      <c r="C341" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C341" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E341" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F341">
-        <v>15286</v>
+      <c r="E341" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F341" s="73">
+        <v>13801</v>
       </c>
       <c r="G341" t="s">
         <v>188</v>
+      </c>
+      <c r="H341" t="s">
+        <v>192</v>
       </c>
       <c r="I341" t="s">
         <v>194</v>
@@ -15533,22 +15530,25 @@
         <v>158</v>
       </c>
       <c r="B342" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C342" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C342" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E342" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F342">
-        <v>16434</v>
+      <c r="E342" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F342" s="73">
+        <v>13681</v>
       </c>
       <c r="G342" t="s">
         <v>188</v>
+      </c>
+      <c r="H342" t="s">
+        <v>192</v>
       </c>
       <c r="I342" t="s">
         <v>194</v>
@@ -15559,22 +15559,25 @@
         <v>158</v>
       </c>
       <c r="B343" s="1">
-        <v>1991</v>
-      </c>
-      <c r="C343" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C343" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E343" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F343">
-        <v>16434</v>
+      <c r="E343" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F343" s="73">
+        <v>13776</v>
       </c>
       <c r="G343" t="s">
         <v>188</v>
+      </c>
+      <c r="H343" t="s">
+        <v>192</v>
       </c>
       <c r="I343" t="s">
         <v>194</v>
@@ -15585,22 +15588,25 @@
         <v>158</v>
       </c>
       <c r="B344" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C344" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C344" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E344" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F344">
-        <v>14706</v>
+      <c r="E344" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F344" s="73">
+        <v>14853</v>
       </c>
       <c r="G344" t="s">
         <v>188</v>
+      </c>
+      <c r="H344" t="s">
+        <v>192</v>
       </c>
       <c r="I344" t="s">
         <v>194</v>
@@ -15611,22 +15617,25 @@
         <v>158</v>
       </c>
       <c r="B345" s="1">
-        <v>1997</v>
-      </c>
-      <c r="C345" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C345" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E345" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F345">
-        <v>13701</v>
+      <c r="E345" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F345" s="73">
+        <v>15858</v>
       </c>
       <c r="G345" t="s">
         <v>188</v>
+      </c>
+      <c r="H345" t="s">
+        <v>192</v>
       </c>
       <c r="I345" t="s">
         <v>194</v>
@@ -15636,23 +15645,26 @@
       <c r="A346" t="s">
         <v>158</v>
       </c>
-      <c r="B346" s="80">
-        <v>2000</v>
-      </c>
-      <c r="C346" t="s">
+      <c r="B346" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C346" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E346" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F346">
-        <v>13801</v>
+      <c r="E346" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F346" s="73">
+        <v>16528</v>
       </c>
       <c r="G346" t="s">
         <v>188</v>
+      </c>
+      <c r="H346" t="s">
+        <v>192</v>
       </c>
       <c r="I346" t="s">
         <v>194</v>
@@ -15662,8 +15674,8 @@
       <c r="A347" t="s">
         <v>158</v>
       </c>
-      <c r="B347" s="80">
-        <v>2005</v>
+      <c r="B347" s="1">
+        <v>1981</v>
       </c>
       <c r="C347" t="s">
         <v>161</v>
@@ -15675,7 +15687,7 @@
         <v>70</v>
       </c>
       <c r="F347">
-        <v>13681</v>
+        <v>15286</v>
       </c>
       <c r="G347" t="s">
         <v>188</v>
@@ -15688,8 +15700,8 @@
       <c r="A348" t="s">
         <v>158</v>
       </c>
-      <c r="B348" s="80">
-        <v>2007</v>
+      <c r="B348" s="1">
+        <v>1986</v>
       </c>
       <c r="C348" t="s">
         <v>161</v>
@@ -15701,7 +15713,7 @@
         <v>70</v>
       </c>
       <c r="F348">
-        <v>13776</v>
+        <v>16434</v>
       </c>
       <c r="G348" t="s">
         <v>188</v>
@@ -15714,8 +15726,8 @@
       <c r="A349" t="s">
         <v>158</v>
       </c>
-      <c r="B349" s="80">
-        <v>2010</v>
+      <c r="B349" s="1">
+        <v>1991</v>
       </c>
       <c r="C349" t="s">
         <v>161</v>
@@ -15727,7 +15739,7 @@
         <v>70</v>
       </c>
       <c r="F349">
-        <v>14853</v>
+        <v>16434</v>
       </c>
       <c r="G349" t="s">
         <v>188</v>
@@ -15740,8 +15752,8 @@
       <c r="A350" t="s">
         <v>158</v>
       </c>
-      <c r="B350" s="80">
-        <v>2013</v>
+      <c r="B350" s="1">
+        <v>1995</v>
       </c>
       <c r="C350" t="s">
         <v>161</v>
@@ -15753,7 +15765,7 @@
         <v>70</v>
       </c>
       <c r="F350">
-        <v>15858</v>
+        <v>14706</v>
       </c>
       <c r="G350" t="s">
         <v>188</v>
@@ -15766,8 +15778,8 @@
       <c r="A351" t="s">
         <v>158</v>
       </c>
-      <c r="B351" s="80">
-        <v>2016</v>
+      <c r="B351" s="1">
+        <v>1997</v>
       </c>
       <c r="C351" t="s">
         <v>161</v>
@@ -15779,7 +15791,7 @@
         <v>70</v>
       </c>
       <c r="F351">
-        <v>16528</v>
+        <v>13701</v>
       </c>
       <c r="G351" t="s">
         <v>188</v>
@@ -15790,25 +15802,25 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="B352" s="80">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C352" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="D352" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="E352" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F352">
-        <v>18392</v>
+        <v>13801</v>
       </c>
       <c r="G352" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="I352" t="s">
         <v>194</v>
@@ -15816,25 +15828,25 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="B353" s="80">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C353" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="D353" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="E353" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F353">
-        <v>49136</v>
+        <v>13681</v>
       </c>
       <c r="G353" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="I353" t="s">
         <v>194</v>
@@ -15842,25 +15854,25 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="B354" s="80">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C354" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="D354" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="E354" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F354">
-        <v>46550</v>
+        <v>13776</v>
       </c>
       <c r="G354" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="I354" t="s">
         <v>194</v>
@@ -15868,25 +15880,25 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="B355" s="80">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C355" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="D355" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="E355" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F355">
-        <v>46622</v>
+        <v>14853</v>
       </c>
       <c r="G355" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="I355" t="s">
         <v>194</v>
@@ -15894,25 +15906,25 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="B356" s="80">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C356" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="D356" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="E356" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F356">
-        <v>45158</v>
+        <v>15858</v>
       </c>
       <c r="G356" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="I356" t="s">
         <v>194</v>
@@ -15920,28 +15932,25 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>33</v>
-      </c>
-      <c r="B357" s="1">
-        <v>1974</v>
-      </c>
-      <c r="C357" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="B357" s="80">
+        <v>2016</v>
+      </c>
+      <c r="C357" t="s">
+        <v>161</v>
       </c>
       <c r="D357" t="s">
-        <v>160</v>
-      </c>
-      <c r="E357" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F357" s="73">
-        <v>11475</v>
+        <v>162</v>
+      </c>
+      <c r="E357" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F357">
+        <v>16528</v>
       </c>
       <c r="G357" t="s">
-        <v>189</v>
-      </c>
-      <c r="H357" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I357" t="s">
         <v>194</v>
@@ -15949,25 +15958,25 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>33</v>
-      </c>
-      <c r="B358" s="1">
-        <v>1979</v>
+        <v>270</v>
+      </c>
+      <c r="B358" s="80">
+        <v>2004</v>
       </c>
       <c r="C358" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="D358" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="E358" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F358">
-        <v>65238</v>
+        <v>18392</v>
       </c>
       <c r="G358" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="I358" t="s">
         <v>194</v>
@@ -15975,25 +15984,25 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>33</v>
-      </c>
-      <c r="B359" s="1">
-        <v>1986</v>
+        <v>270</v>
+      </c>
+      <c r="B359" s="80">
+        <v>2007</v>
       </c>
       <c r="C359" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="D359" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="E359" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F359">
-        <v>58258</v>
+        <v>49136</v>
       </c>
       <c r="G359" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="I359" t="s">
         <v>194</v>
@@ -16001,25 +16010,25 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>33</v>
-      </c>
-      <c r="B360" s="1">
-        <v>1991</v>
+        <v>270</v>
+      </c>
+      <c r="B360" s="80">
+        <v>2010</v>
       </c>
       <c r="C360" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="D360" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="E360" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F360">
-        <v>59219</v>
+        <v>46550</v>
       </c>
       <c r="G360" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="I360" t="s">
         <v>194</v>
@@ -16027,25 +16036,25 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>33</v>
-      </c>
-      <c r="B361" s="1">
-        <v>1992</v>
+        <v>270</v>
+      </c>
+      <c r="B361" s="80">
+        <v>2013</v>
       </c>
       <c r="C361" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="D361" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="E361" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F361">
-        <v>58970</v>
+        <v>46622</v>
       </c>
       <c r="G361" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="I361" t="s">
         <v>194</v>
@@ -16053,25 +16062,25 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>33</v>
-      </c>
-      <c r="B362" s="1">
-        <v>1993</v>
+        <v>270</v>
+      </c>
+      <c r="B362" s="80">
+        <v>2016</v>
       </c>
       <c r="C362" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="D362" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="E362" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F362">
-        <v>57079</v>
+        <v>45158</v>
       </c>
       <c r="G362" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="I362" t="s">
         <v>194</v>
@@ -16082,22 +16091,25 @@
         <v>33</v>
       </c>
       <c r="B363" s="1">
-        <v>1994</v>
-      </c>
-      <c r="C363" t="s">
-        <v>253</v>
+        <v>1974</v>
+      </c>
+      <c r="C363" s="64" t="s">
+        <v>159</v>
       </c>
       <c r="D363" t="s">
         <v>160</v>
       </c>
-      <c r="E363" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F363">
-        <v>56941</v>
+      <c r="E363" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F363" s="73">
+        <v>11475</v>
       </c>
       <c r="G363" t="s">
         <v>189</v>
+      </c>
+      <c r="H363" t="s">
+        <v>192</v>
       </c>
       <c r="I363" t="s">
         <v>194</v>
@@ -16108,7 +16120,7 @@
         <v>33</v>
       </c>
       <c r="B364" s="1">
-        <v>1995</v>
+        <v>1979</v>
       </c>
       <c r="C364" t="s">
         <v>253</v>
@@ -16120,7 +16132,7 @@
         <v>70</v>
       </c>
       <c r="F364">
-        <v>49682</v>
+        <v>65238</v>
       </c>
       <c r="G364" t="s">
         <v>189</v>
@@ -16134,7 +16146,7 @@
         <v>33</v>
       </c>
       <c r="B365" s="1">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="C365" t="s">
         <v>253</v>
@@ -16146,7 +16158,7 @@
         <v>70</v>
       </c>
       <c r="F365">
-        <v>50311</v>
+        <v>58258</v>
       </c>
       <c r="G365" t="s">
         <v>189</v>
@@ -16160,7 +16172,7 @@
         <v>33</v>
       </c>
       <c r="B366" s="1">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C366" t="s">
         <v>253</v>
@@ -16172,7 +16184,7 @@
         <v>70</v>
       </c>
       <c r="F366">
-        <v>50348</v>
+        <v>59219</v>
       </c>
       <c r="G366" t="s">
         <v>189</v>
@@ -16186,7 +16198,7 @@
         <v>33</v>
       </c>
       <c r="B367" s="1">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C367" t="s">
         <v>253</v>
@@ -16198,7 +16210,7 @@
         <v>70</v>
       </c>
       <c r="F367">
-        <v>50781</v>
+        <v>58970</v>
       </c>
       <c r="G367" t="s">
         <v>189</v>
@@ -16212,7 +16224,7 @@
         <v>33</v>
       </c>
       <c r="B368" s="1">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="C368" t="s">
         <v>253</v>
@@ -16224,7 +16236,7 @@
         <v>70</v>
       </c>
       <c r="F368">
-        <v>51016</v>
+        <v>57079</v>
       </c>
       <c r="G368" t="s">
         <v>189</v>
@@ -16238,7 +16250,7 @@
         <v>33</v>
       </c>
       <c r="B369" s="1">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C369" t="s">
         <v>253</v>
@@ -16250,7 +16262,7 @@
         <v>70</v>
       </c>
       <c r="F369">
-        <v>78054</v>
+        <v>56941</v>
       </c>
       <c r="G369" t="s">
         <v>189</v>
@@ -16264,7 +16276,7 @@
         <v>33</v>
       </c>
       <c r="B370" s="1">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="C370" t="s">
         <v>253</v>
@@ -16276,7 +16288,7 @@
         <v>70</v>
       </c>
       <c r="F370">
-        <v>78265</v>
+        <v>49682</v>
       </c>
       <c r="G370" t="s">
         <v>189</v>
@@ -16290,19 +16302,19 @@
         <v>33</v>
       </c>
       <c r="B371" s="1">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C371" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D371" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="E371" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F371">
-        <v>78310</v>
+        <v>50311</v>
       </c>
       <c r="G371" t="s">
         <v>189</v>
@@ -16316,19 +16328,19 @@
         <v>33</v>
       </c>
       <c r="B372" s="1">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="C372" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D372" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="E372" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F372">
-        <v>77149</v>
+        <v>50348</v>
       </c>
       <c r="G372" t="s">
         <v>189</v>
@@ -16342,19 +16354,19 @@
         <v>33</v>
       </c>
       <c r="B373" s="1">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="C373" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D373" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="E373" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F373">
-        <v>76447</v>
+        <v>50781</v>
       </c>
       <c r="G373" t="s">
         <v>189</v>
@@ -16368,19 +16380,19 @@
         <v>33</v>
       </c>
       <c r="B374" s="1">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C374" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D374" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="E374" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F374">
-        <v>75939</v>
+        <v>51016</v>
       </c>
       <c r="G374" t="s">
         <v>189</v>
@@ -16394,19 +16406,19 @@
         <v>33</v>
       </c>
       <c r="B375" s="1">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C375" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D375" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="E375" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F375">
-        <v>75477</v>
+        <v>78054</v>
       </c>
       <c r="G375" t="s">
         <v>189</v>
@@ -16420,19 +16432,19 @@
         <v>33</v>
       </c>
       <c r="B376" s="1">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C376" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D376" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="E376" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F376">
-        <v>75872</v>
+        <v>78265</v>
       </c>
       <c r="G376" t="s">
         <v>189</v>
@@ -16446,7 +16458,7 @@
         <v>33</v>
       </c>
       <c r="B377" s="1">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C377" t="s">
         <v>254</v>
@@ -16458,7 +16470,7 @@
         <v>70</v>
       </c>
       <c r="F377">
-        <v>76185</v>
+        <v>78310</v>
       </c>
       <c r="G377" t="s">
         <v>189</v>
@@ -16472,7 +16484,7 @@
         <v>33</v>
       </c>
       <c r="B378" s="1">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="C378" t="s">
         <v>254</v>
@@ -16484,7 +16496,7 @@
         <v>70</v>
       </c>
       <c r="F378">
-        <v>76260</v>
+        <v>77149</v>
       </c>
       <c r="G378" t="s">
         <v>189</v>
@@ -16498,7 +16510,7 @@
         <v>33</v>
       </c>
       <c r="B379" s="1">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C379" t="s">
         <v>254</v>
@@ -16510,7 +16522,7 @@
         <v>70</v>
       </c>
       <c r="F379">
-        <v>75188</v>
+        <v>76447</v>
       </c>
       <c r="G379" t="s">
         <v>189</v>
@@ -16524,7 +16536,7 @@
         <v>33</v>
       </c>
       <c r="B380" s="1">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C380" t="s">
         <v>254</v>
@@ -16536,7 +16548,7 @@
         <v>70</v>
       </c>
       <c r="F380">
-        <v>74383</v>
+        <v>75939</v>
       </c>
       <c r="G380" t="s">
         <v>189</v>
@@ -16550,7 +16562,7 @@
         <v>33</v>
       </c>
       <c r="B381" s="1">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C381" t="s">
         <v>254</v>
@@ -16562,7 +16574,7 @@
         <v>70</v>
       </c>
       <c r="F381">
-        <v>74821</v>
+        <v>75477</v>
       </c>
       <c r="G381" t="s">
         <v>189</v>
@@ -16576,7 +16588,7 @@
         <v>33</v>
       </c>
       <c r="B382" s="1">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C382" t="s">
         <v>254</v>
@@ -16588,7 +16600,7 @@
         <v>70</v>
       </c>
       <c r="F382">
-        <v>51498</v>
+        <v>75872</v>
       </c>
       <c r="G382" t="s">
         <v>189</v>
@@ -16602,7 +16614,7 @@
         <v>33</v>
       </c>
       <c r="B383" s="1">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C383" t="s">
         <v>254</v>
@@ -16614,7 +16626,7 @@
         <v>70</v>
       </c>
       <c r="F383">
-        <v>74257</v>
+        <v>76185</v>
       </c>
       <c r="G383" t="s">
         <v>189</v>
@@ -16628,7 +16640,7 @@
         <v>33</v>
       </c>
       <c r="B384" s="1">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C384" t="s">
         <v>254</v>
@@ -16640,7 +16652,7 @@
         <v>70</v>
       </c>
       <c r="F384">
-        <v>69484</v>
+        <v>76260</v>
       </c>
       <c r="G384" t="s">
         <v>189</v>
@@ -16654,7 +16666,7 @@
         <v>33</v>
       </c>
       <c r="B385" s="1">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C385" t="s">
         <v>254</v>
@@ -16666,7 +16678,7 @@
         <v>70</v>
       </c>
       <c r="F385">
-        <v>69957</v>
+        <v>75188</v>
       </c>
       <c r="G385" t="s">
         <v>189</v>
@@ -16680,7 +16692,7 @@
         <v>33</v>
       </c>
       <c r="B386" s="1">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C386" t="s">
         <v>254</v>
@@ -16692,7 +16704,7 @@
         <v>70</v>
       </c>
       <c r="F386">
-        <v>67909</v>
+        <v>74383</v>
       </c>
       <c r="G386" t="s">
         <v>189</v>
@@ -16706,7 +16718,7 @@
         <v>33</v>
       </c>
       <c r="B387" s="1">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C387" t="s">
         <v>254</v>
@@ -16718,7 +16730,7 @@
         <v>70</v>
       </c>
       <c r="F387">
-        <v>68345</v>
+        <v>74821</v>
       </c>
       <c r="G387" t="s">
         <v>189</v>
@@ -16729,25 +16741,25 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>271</v>
-      </c>
-      <c r="B388" s="80">
-        <v>2011</v>
+        <v>33</v>
+      </c>
+      <c r="B388" s="1">
+        <v>2013</v>
       </c>
       <c r="C388" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="D388" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E388" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F388">
-        <v>9399</v>
+        <v>51498</v>
       </c>
       <c r="G388" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="I388" t="s">
         <v>194</v>
@@ -16755,25 +16767,25 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>271</v>
-      </c>
-      <c r="B389" s="80">
-        <v>2013</v>
+        <v>33</v>
+      </c>
+      <c r="B389" s="1">
+        <v>2014</v>
       </c>
       <c r="C389" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="D389" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E389" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F389">
-        <v>9399</v>
+        <v>74257</v>
       </c>
       <c r="G389" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="I389" t="s">
         <v>194</v>
@@ -16781,25 +16793,25 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>269</v>
-      </c>
-      <c r="B390" s="80">
-        <v>2008</v>
+        <v>33</v>
+      </c>
+      <c r="B390" s="1">
+        <v>2015</v>
       </c>
       <c r="C390" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D390" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E390" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F390">
-        <v>7296</v>
+        <v>69484</v>
       </c>
       <c r="G390" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="I390" t="s">
         <v>194</v>
@@ -16807,25 +16819,25 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>269</v>
-      </c>
-      <c r="B391" s="80">
-        <v>2010</v>
+        <v>33</v>
+      </c>
+      <c r="B391" s="1">
+        <v>2016</v>
       </c>
       <c r="C391" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D391" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E391" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F391">
-        <v>6786</v>
+        <v>69957</v>
       </c>
       <c r="G391" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="I391" t="s">
         <v>194</v>
@@ -16833,34 +16845,190 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C392" t="s">
+        <v>254</v>
+      </c>
+      <c r="D392" t="s">
+        <v>333</v>
+      </c>
+      <c r="E392" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F392">
+        <v>67909</v>
+      </c>
+      <c r="G392" t="s">
+        <v>189</v>
+      </c>
+      <c r="I392" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C393" t="s">
+        <v>254</v>
+      </c>
+      <c r="D393" t="s">
+        <v>333</v>
+      </c>
+      <c r="E393" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F393">
+        <v>68345</v>
+      </c>
+      <c r="G393" t="s">
+        <v>189</v>
+      </c>
+      <c r="I393" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>271</v>
+      </c>
+      <c r="B394" s="80">
+        <v>2011</v>
+      </c>
+      <c r="C394" t="s">
+        <v>325</v>
+      </c>
+      <c r="D394" t="s">
+        <v>327</v>
+      </c>
+      <c r="E394" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F394">
+        <v>9399</v>
+      </c>
+      <c r="G394" t="s">
+        <v>326</v>
+      </c>
+      <c r="I394" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>271</v>
+      </c>
+      <c r="B395" s="80">
+        <v>2013</v>
+      </c>
+      <c r="C395" t="s">
+        <v>325</v>
+      </c>
+      <c r="D395" t="s">
+        <v>327</v>
+      </c>
+      <c r="E395" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F395">
+        <v>9399</v>
+      </c>
+      <c r="G395" t="s">
+        <v>326</v>
+      </c>
+      <c r="I395" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
         <v>269</v>
       </c>
-      <c r="B392" s="80">
+      <c r="B396" s="80">
+        <v>2008</v>
+      </c>
+      <c r="C396" t="s">
+        <v>320</v>
+      </c>
+      <c r="D396" t="s">
+        <v>321</v>
+      </c>
+      <c r="E396" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F396">
+        <v>7296</v>
+      </c>
+      <c r="G396" t="s">
+        <v>322</v>
+      </c>
+      <c r="I396" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>269</v>
+      </c>
+      <c r="B397" s="80">
+        <v>2010</v>
+      </c>
+      <c r="C397" t="s">
+        <v>320</v>
+      </c>
+      <c r="D397" t="s">
+        <v>321</v>
+      </c>
+      <c r="E397" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F397">
+        <v>6786</v>
+      </c>
+      <c r="G397" t="s">
+        <v>322</v>
+      </c>
+      <c r="I397" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>269</v>
+      </c>
+      <c r="B398" s="80">
         <v>2012</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C398" t="s">
         <v>320</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D398" t="s">
         <v>321</v>
       </c>
-      <c r="E392" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F392">
+      <c r="E398" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F398">
         <v>8040</v>
       </c>
-      <c r="G392" t="s">
+      <c r="G398" t="s">
         <v>322</v>
       </c>
-      <c r="I392" t="s">
+      <c r="I398" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I392" xr:uid="{AE5E4937-8ADC-4BF9-92DA-D3858EAD9318}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I392">
-      <sortCondition ref="A1:A392"/>
+  <autoFilter ref="A1:I398" xr:uid="{AE5E4937-8ADC-4BF9-92DA-D3858EAD9318}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I398">
+      <sortCondition ref="A1:A398"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/02.data/_aux/LIS datasets.xlsx
+++ b/02.data/_aux/LIS datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb463998\OneDrive - WBG\GIT\LIS_data\02.data\_aux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{2A61BDC1-A49B-4B5E-A20C-D93011F926B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E19C560-8A09-4B55-B7AB-49543FFF9F11}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{2A61BDC1-A49B-4B5E-A20C-D93011F926B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A10F9EA0-27FB-4BC8-8657-6203A34C864C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DA214762-5DBE-485D-812E-A8355C7FFC9F}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Countries in LIS'!$A$1:$C$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LIS_survname!$A$1:$I$398</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LIS_survname!$A$1:$I$399</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="339">
   <si>
     <t>Belgium</t>
   </si>
@@ -1154,6 +1154,26 @@
   </si>
   <si>
     <t>04</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <r>
+      <t>Palestine Expenditure and Consumption Survey (PECS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (Palestine)</t>
+    </r>
+  </si>
+  <si>
+    <t>PECS-LIS</t>
   </si>
 </sst>
 </file>
@@ -6262,12 +6282,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5624527B-43F9-4DB1-BB8A-3C401E64EEA7}">
-  <dimension ref="A1:M398"/>
+  <dimension ref="A1:M399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H238" sqref="H238"/>
+      <selection pane="bottomLeft" activeCell="F281" sqref="F281:I281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13866,25 +13886,25 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>266</v>
-      </c>
-      <c r="B281" s="80">
-        <v>2007</v>
+        <v>336</v>
+      </c>
+      <c r="B281" s="1">
+        <v>2017</v>
       </c>
       <c r="C281" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="D281" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="E281" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F281">
-        <v>13091</v>
+        <v>3736</v>
       </c>
       <c r="G281" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="I281" t="s">
         <v>194</v>
@@ -13895,7 +13915,7 @@
         <v>266</v>
       </c>
       <c r="B282" s="80">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C282" t="s">
         <v>307</v>
@@ -13907,7 +13927,7 @@
         <v>70</v>
       </c>
       <c r="F282">
-        <v>13391</v>
+        <v>13091</v>
       </c>
       <c r="G282" t="s">
         <v>308</v>
@@ -13921,7 +13941,7 @@
         <v>266</v>
       </c>
       <c r="B283" s="80">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C283" t="s">
         <v>307</v>
@@ -13933,7 +13953,7 @@
         <v>70</v>
       </c>
       <c r="F283">
-        <v>11905</v>
+        <v>13391</v>
       </c>
       <c r="G283" t="s">
         <v>308</v>
@@ -13941,43 +13961,43 @@
       <c r="I283" t="s">
         <v>194</v>
       </c>
-      <c r="J283" s="78"/>
-      <c r="K283" s="78"/>
-      <c r="L283" s="78"/>
-      <c r="M283" s="78"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B284" s="80">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C284" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D284" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="E284" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F284">
-        <v>19502</v>
+        <v>11905</v>
       </c>
       <c r="G284" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I284" t="s">
         <v>194</v>
       </c>
+      <c r="J284" s="78"/>
+      <c r="K284" s="78"/>
+      <c r="L284" s="78"/>
+      <c r="M284" s="78"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>267</v>
       </c>
       <c r="B285" s="80">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C285" t="s">
         <v>312</v>
@@ -13989,7 +14009,7 @@
         <v>70</v>
       </c>
       <c r="F285">
-        <v>22204</v>
+        <v>19502</v>
       </c>
       <c r="G285" t="s">
         <v>313</v>
@@ -14003,7 +14023,7 @@
         <v>267</v>
       </c>
       <c r="B286" s="80">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C286" t="s">
         <v>312</v>
@@ -14015,7 +14035,7 @@
         <v>70</v>
       </c>
       <c r="F286">
-        <v>21496</v>
+        <v>22204</v>
       </c>
       <c r="G286" t="s">
         <v>313</v>
@@ -14023,15 +14043,13 @@
       <c r="I286" t="s">
         <v>194</v>
       </c>
-      <c r="J286" s="78"/>
-      <c r="K286" s="78"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>267</v>
       </c>
       <c r="B287" s="80">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C287" t="s">
         <v>312</v>
@@ -14043,7 +14061,7 @@
         <v>70</v>
       </c>
       <c r="F287">
-        <v>30453</v>
+        <v>21496</v>
       </c>
       <c r="G287" t="s">
         <v>313</v>
@@ -14051,13 +14069,15 @@
       <c r="I287" t="s">
         <v>194</v>
       </c>
+      <c r="J287" s="78"/>
+      <c r="K287" s="78"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>267</v>
       </c>
       <c r="B288" s="80">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C288" t="s">
         <v>312</v>
@@ -14069,7 +14089,7 @@
         <v>70</v>
       </c>
       <c r="F288">
-        <v>35785</v>
+        <v>30453</v>
       </c>
       <c r="G288" t="s">
         <v>313</v>
@@ -14080,28 +14100,25 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>120</v>
-      </c>
-      <c r="B289" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C289" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D289" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E289" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F289" s="73">
-        <v>10646</v>
+        <v>267</v>
+      </c>
+      <c r="B289" s="80">
+        <v>2016</v>
+      </c>
+      <c r="C289" t="s">
+        <v>312</v>
+      </c>
+      <c r="D289" t="s">
+        <v>314</v>
+      </c>
+      <c r="E289" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F289">
+        <v>35785</v>
       </c>
       <c r="G289" t="s">
-        <v>185</v>
-      </c>
-      <c r="H289" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="I289" t="s">
         <v>194</v>
@@ -14112,7 +14129,7 @@
         <v>120</v>
       </c>
       <c r="B290" s="1">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="C290" s="64" t="s">
         <v>121</v>
@@ -14124,7 +14141,7 @@
         <v>70</v>
       </c>
       <c r="F290" s="73">
-        <v>6602</v>
+        <v>10646</v>
       </c>
       <c r="G290" t="s">
         <v>185</v>
@@ -14141,7 +14158,7 @@
         <v>120</v>
       </c>
       <c r="B291" s="1">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="C291" s="64" t="s">
         <v>121</v>
@@ -14153,7 +14170,7 @@
         <v>70</v>
       </c>
       <c r="F291" s="73">
-        <v>32009</v>
+        <v>6602</v>
       </c>
       <c r="G291" t="s">
         <v>185</v>
@@ -14170,7 +14187,7 @@
         <v>120</v>
       </c>
       <c r="B292" s="1">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C292" s="64" t="s">
         <v>121</v>
@@ -14182,7 +14199,7 @@
         <v>70</v>
       </c>
       <c r="F292" s="73">
-        <v>31428</v>
+        <v>32009</v>
       </c>
       <c r="G292" t="s">
         <v>185</v>
@@ -14199,22 +14216,25 @@
         <v>120</v>
       </c>
       <c r="B293" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C293" t="s">
-        <v>218</v>
-      </c>
-      <c r="D293" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C293" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D293" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E293" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F293">
-        <v>32214</v>
+      <c r="E293" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F293" s="73">
+        <v>31428</v>
       </c>
       <c r="G293" t="s">
         <v>185</v>
+      </c>
+      <c r="H293" t="s">
+        <v>192</v>
       </c>
       <c r="I293" t="s">
         <v>194</v>
@@ -14225,7 +14245,7 @@
         <v>120</v>
       </c>
       <c r="B294" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C294" t="s">
         <v>218</v>
@@ -14237,7 +14257,7 @@
         <v>70</v>
       </c>
       <c r="F294">
-        <v>37366</v>
+        <v>32214</v>
       </c>
       <c r="G294" t="s">
         <v>185</v>
@@ -14251,7 +14271,7 @@
         <v>120</v>
       </c>
       <c r="B295" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C295" t="s">
         <v>218</v>
@@ -14263,7 +14283,7 @@
         <v>70</v>
       </c>
       <c r="F295">
-        <v>37412</v>
+        <v>37366</v>
       </c>
       <c r="G295" t="s">
         <v>185</v>
@@ -14277,7 +14297,7 @@
         <v>120</v>
       </c>
       <c r="B296" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C296" t="s">
         <v>218</v>
@@ -14289,7 +14309,7 @@
         <v>70</v>
       </c>
       <c r="F296">
-        <v>37181</v>
+        <v>37412</v>
       </c>
       <c r="G296" t="s">
         <v>185</v>
@@ -14303,7 +14323,7 @@
         <v>120</v>
       </c>
       <c r="B297" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C297" t="s">
         <v>218</v>
@@ -14315,7 +14335,7 @@
         <v>70</v>
       </c>
       <c r="F297">
-        <v>36886</v>
+        <v>37181</v>
       </c>
       <c r="G297" t="s">
         <v>185</v>
@@ -14326,25 +14346,25 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B298" s="1">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C298" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D298" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="E298" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F298">
-        <v>8131</v>
+        <v>36886</v>
       </c>
       <c r="G298" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="I298" t="s">
         <v>194</v>
@@ -14355,7 +14375,7 @@
         <v>309</v>
       </c>
       <c r="B299" s="1">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C299" t="s">
         <v>310</v>
@@ -14367,7 +14387,7 @@
         <v>70</v>
       </c>
       <c r="F299">
-        <v>7823</v>
+        <v>8131</v>
       </c>
       <c r="G299" t="s">
         <v>311</v>
@@ -14381,7 +14401,7 @@
         <v>309</v>
       </c>
       <c r="B300" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C300" t="s">
         <v>310</v>
@@ -14393,7 +14413,7 @@
         <v>70</v>
       </c>
       <c r="F300">
-        <v>4812</v>
+        <v>7823</v>
       </c>
       <c r="G300" t="s">
         <v>311</v>
@@ -14407,7 +14427,7 @@
         <v>309</v>
       </c>
       <c r="B301" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C301" t="s">
         <v>310</v>
@@ -14419,7 +14439,7 @@
         <v>70</v>
       </c>
       <c r="F301">
-        <v>5003</v>
+        <v>4812</v>
       </c>
       <c r="G301" t="s">
         <v>311</v>
@@ -14433,7 +14453,7 @@
         <v>309</v>
       </c>
       <c r="B302" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C302" t="s">
         <v>310</v>
@@ -14445,7 +14465,7 @@
         <v>70</v>
       </c>
       <c r="F302">
-        <v>5424</v>
+        <v>5003</v>
       </c>
       <c r="G302" t="s">
         <v>311</v>
@@ -14459,7 +14479,7 @@
         <v>309</v>
       </c>
       <c r="B303" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C303" t="s">
         <v>310</v>
@@ -14471,7 +14491,7 @@
         <v>70</v>
       </c>
       <c r="F303">
-        <v>10219</v>
+        <v>5424</v>
       </c>
       <c r="G303" t="s">
         <v>311</v>
@@ -14482,28 +14502,25 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B304" s="1">
-        <v>1995</v>
-      </c>
-      <c r="C304" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="D304" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E304" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F304" s="73">
-        <v>31571</v>
+        <v>2016</v>
+      </c>
+      <c r="C304" t="s">
+        <v>310</v>
+      </c>
+      <c r="D304" t="s">
+        <v>284</v>
+      </c>
+      <c r="E304" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F304">
+        <v>10219</v>
       </c>
       <c r="G304" t="s">
-        <v>186</v>
-      </c>
-      <c r="H304" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="I304" t="s">
         <v>194</v>
@@ -14514,7 +14531,7 @@
         <v>123</v>
       </c>
       <c r="B305" s="1">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C305" s="64" t="s">
         <v>124</v>
@@ -14526,7 +14543,7 @@
         <v>70</v>
       </c>
       <c r="F305" s="73">
-        <v>32187</v>
+        <v>31571</v>
       </c>
       <c r="G305" t="s">
         <v>186</v>
@@ -14540,25 +14557,28 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>268</v>
-      </c>
-      <c r="B306" s="80">
-        <v>2000</v>
-      </c>
-      <c r="C306" t="s">
-        <v>315</v>
-      </c>
-      <c r="D306" t="s">
-        <v>316</v>
-      </c>
-      <c r="E306" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F306">
-        <v>3319</v>
+        <v>123</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C306" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D306" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E306" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F306" s="73">
+        <v>32187</v>
       </c>
       <c r="G306" t="s">
-        <v>317</v>
+        <v>186</v>
+      </c>
+      <c r="H306" t="s">
+        <v>192</v>
       </c>
       <c r="I306" t="s">
         <v>194</v>
@@ -14569,7 +14589,7 @@
         <v>268</v>
       </c>
       <c r="B307" s="80">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C307" t="s">
         <v>315</v>
@@ -14581,7 +14601,7 @@
         <v>70</v>
       </c>
       <c r="F307">
-        <v>3394</v>
+        <v>3319</v>
       </c>
       <c r="G307" t="s">
         <v>317</v>
@@ -14595,7 +14615,7 @@
         <v>268</v>
       </c>
       <c r="B308" s="80">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C308" t="s">
         <v>315</v>
@@ -14607,7 +14627,7 @@
         <v>70</v>
       </c>
       <c r="F308">
-        <v>3933</v>
+        <v>3394</v>
       </c>
       <c r="G308" t="s">
         <v>317</v>
@@ -14620,8 +14640,8 @@
       <c r="A309" t="s">
         <v>268</v>
       </c>
-      <c r="B309" s="1">
-        <v>2010</v>
+      <c r="B309" s="80">
+        <v>2007</v>
       </c>
       <c r="C309" t="s">
         <v>315</v>
@@ -14633,7 +14653,7 @@
         <v>70</v>
       </c>
       <c r="F309">
-        <v>6323</v>
+        <v>3933</v>
       </c>
       <c r="G309" t="s">
         <v>317</v>
@@ -14647,19 +14667,19 @@
         <v>268</v>
       </c>
       <c r="B310" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C310" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D310" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E310" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F310">
-        <v>9990</v>
+        <v>6323</v>
       </c>
       <c r="G310" t="s">
         <v>317</v>
@@ -14673,7 +14693,7 @@
         <v>268</v>
       </c>
       <c r="B311" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C311" t="s">
         <v>318</v>
@@ -14685,7 +14705,7 @@
         <v>70</v>
       </c>
       <c r="F311">
-        <v>45000</v>
+        <v>9990</v>
       </c>
       <c r="G311" t="s">
         <v>317</v>
@@ -14699,7 +14719,7 @@
         <v>268</v>
       </c>
       <c r="B312" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C312" t="s">
         <v>318</v>
@@ -14725,7 +14745,7 @@
         <v>268</v>
       </c>
       <c r="B313" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C313" t="s">
         <v>318</v>
@@ -14737,7 +14757,7 @@
         <v>70</v>
       </c>
       <c r="F313">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="G313" t="s">
         <v>317</v>
@@ -14751,7 +14771,7 @@
         <v>268</v>
       </c>
       <c r="B314" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C314" t="s">
         <v>318</v>
@@ -14763,7 +14783,7 @@
         <v>70</v>
       </c>
       <c r="F314">
-        <v>160008</v>
+        <v>60000</v>
       </c>
       <c r="G314" t="s">
         <v>317</v>
@@ -14774,25 +14794,25 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B315" s="1">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="C315" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="D315" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="E315" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F315">
-        <v>4560</v>
+        <v>160008</v>
       </c>
       <c r="G315" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="I315" t="s">
         <v>194</v>
@@ -14803,7 +14823,7 @@
         <v>219</v>
       </c>
       <c r="B316" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C316" t="s">
         <v>220</v>
@@ -14815,7 +14835,7 @@
         <v>70</v>
       </c>
       <c r="F316">
-        <v>4585</v>
+        <v>4560</v>
       </c>
       <c r="G316" t="s">
         <v>221</v>
@@ -14829,7 +14849,7 @@
         <v>219</v>
       </c>
       <c r="B317" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C317" t="s">
         <v>220</v>
@@ -14841,7 +14861,7 @@
         <v>70</v>
       </c>
       <c r="F317">
-        <v>4517</v>
+        <v>4585</v>
       </c>
       <c r="G317" t="s">
         <v>221</v>
@@ -14855,7 +14875,7 @@
         <v>219</v>
       </c>
       <c r="B318" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C318" t="s">
         <v>220</v>
@@ -14867,7 +14887,7 @@
         <v>70</v>
       </c>
       <c r="F318">
-        <v>6457</v>
+        <v>4517</v>
       </c>
       <c r="G318" t="s">
         <v>221</v>
@@ -14878,51 +14898,48 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
+        <v>219</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C319" t="s">
+        <v>220</v>
+      </c>
+      <c r="D319" t="s">
+        <v>122</v>
+      </c>
+      <c r="E319" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F319">
+        <v>6457</v>
+      </c>
+      <c r="G319" t="s">
+        <v>221</v>
+      </c>
+      <c r="I319" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
         <v>126</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B320" s="1">
         <v>1992</v>
       </c>
-      <c r="C319" s="64" t="s">
+      <c r="C320" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D319" s="63" t="s">
+      <c r="D320" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="E319" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F319" s="73">
+      <c r="E320" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F320" s="73">
         <v>15990</v>
-      </c>
-      <c r="G319" t="s">
-        <v>174</v>
-      </c>
-      <c r="H319" t="s">
-        <v>192</v>
-      </c>
-      <c r="I319" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A320" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B320" s="67">
-        <v>1996</v>
-      </c>
-      <c r="C320" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="D320" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="E320" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F320" s="73">
-        <v>16336</v>
       </c>
       <c r="G320" t="s">
         <v>174</v>
@@ -14935,23 +14952,23 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>129</v>
-      </c>
-      <c r="B321" s="1">
-        <v>1997</v>
-      </c>
-      <c r="C321" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D321" t="s">
-        <v>122</v>
-      </c>
-      <c r="E321" s="60" t="s">
+      <c r="A321" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B321" s="67">
+        <v>1996</v>
+      </c>
+      <c r="C321" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D321" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E321" s="69" t="s">
         <v>70</v>
       </c>
       <c r="F321" s="73">
-        <v>2577</v>
+        <v>16336</v>
       </c>
       <c r="G321" t="s">
         <v>174</v>
@@ -14968,7 +14985,7 @@
         <v>129</v>
       </c>
       <c r="B322" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C322" s="64" t="s">
         <v>130</v>
@@ -14980,7 +14997,7 @@
         <v>70</v>
       </c>
       <c r="F322" s="73">
-        <v>3859</v>
+        <v>2577</v>
       </c>
       <c r="G322" t="s">
         <v>174</v>
@@ -14997,22 +15014,25 @@
         <v>129</v>
       </c>
       <c r="B323" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C323" t="s">
-        <v>224</v>
+        <v>1999</v>
+      </c>
+      <c r="C323" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="D323" t="s">
         <v>122</v>
       </c>
-      <c r="E323" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F323">
-        <v>3725</v>
+      <c r="E323" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F323" s="73">
+        <v>3859</v>
       </c>
       <c r="G323" t="s">
-        <v>225</v>
+        <v>174</v>
+      </c>
+      <c r="H323" t="s">
+        <v>192</v>
       </c>
       <c r="I323" t="s">
         <v>194</v>
@@ -15023,7 +15043,7 @@
         <v>129</v>
       </c>
       <c r="B324" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C324" t="s">
         <v>224</v>
@@ -15035,7 +15055,7 @@
         <v>70</v>
       </c>
       <c r="F324">
-        <v>3697</v>
+        <v>3725</v>
       </c>
       <c r="G324" t="s">
         <v>225</v>
@@ -15049,7 +15069,7 @@
         <v>129</v>
       </c>
       <c r="B325" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C325" t="s">
         <v>224</v>
@@ -15061,7 +15081,7 @@
         <v>70</v>
       </c>
       <c r="F325">
-        <v>3924</v>
+        <v>3697</v>
       </c>
       <c r="G325" t="s">
         <v>225</v>
@@ -15075,7 +15095,7 @@
         <v>129</v>
       </c>
       <c r="B326" s="1">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C326" t="s">
         <v>224</v>
@@ -15087,10 +15107,10 @@
         <v>70</v>
       </c>
       <c r="F326">
-        <v>3663</v>
+        <v>3924</v>
       </c>
       <c r="G326" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="I326" t="s">
         <v>194</v>
@@ -15101,7 +15121,7 @@
         <v>129</v>
       </c>
       <c r="B327" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C327" t="s">
         <v>224</v>
@@ -15113,7 +15133,7 @@
         <v>70</v>
       </c>
       <c r="F327">
-        <v>3750</v>
+        <v>3663</v>
       </c>
       <c r="G327" t="s">
         <v>174</v>
@@ -15124,28 +15144,25 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B328" s="1">
-        <v>1967</v>
-      </c>
-      <c r="C328" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D328" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="E328" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F328" s="73">
-        <v>5921</v>
+        <v>2015</v>
+      </c>
+      <c r="C328" t="s">
+        <v>224</v>
+      </c>
+      <c r="D328" t="s">
+        <v>122</v>
+      </c>
+      <c r="E328" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F328">
+        <v>3750</v>
       </c>
       <c r="G328" t="s">
-        <v>187</v>
-      </c>
-      <c r="H328" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I328" t="s">
         <v>194</v>
@@ -15156,19 +15173,19 @@
         <v>134</v>
       </c>
       <c r="B329" s="1">
-        <v>1975</v>
-      </c>
-      <c r="C329" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="D329" t="s">
-        <v>169</v>
+        <v>1967</v>
+      </c>
+      <c r="C329" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D329" s="63" t="s">
+        <v>168</v>
       </c>
       <c r="E329" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F329" s="73">
-        <v>10306</v>
+        <v>5921</v>
       </c>
       <c r="G329" t="s">
         <v>187</v>
@@ -15185,9 +15202,9 @@
         <v>134</v>
       </c>
       <c r="B330" s="1">
-        <v>1981</v>
-      </c>
-      <c r="C330" s="64" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C330" s="70" t="s">
         <v>170</v>
       </c>
       <c r="D330" t="s">
@@ -15197,7 +15214,7 @@
         <v>70</v>
       </c>
       <c r="F330" s="73">
-        <v>9625</v>
+        <v>10306</v>
       </c>
       <c r="G330" t="s">
         <v>187</v>
@@ -15214,7 +15231,7 @@
         <v>134</v>
       </c>
       <c r="B331" s="1">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="C331" s="64" t="s">
         <v>170</v>
@@ -15226,7 +15243,7 @@
         <v>70</v>
       </c>
       <c r="F331" s="73">
-        <v>9530</v>
+        <v>9625</v>
       </c>
       <c r="G331" t="s">
         <v>187</v>
@@ -15243,7 +15260,7 @@
         <v>134</v>
       </c>
       <c r="B332" s="1">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="C332" s="64" t="s">
         <v>170</v>
@@ -15255,7 +15272,7 @@
         <v>70</v>
       </c>
       <c r="F332" s="73">
-        <v>12484</v>
+        <v>9530</v>
       </c>
       <c r="G332" t="s">
         <v>187</v>
@@ -15272,7 +15289,7 @@
         <v>134</v>
       </c>
       <c r="B333" s="1">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="C333" s="64" t="s">
         <v>170</v>
@@ -15284,7 +15301,7 @@
         <v>70</v>
       </c>
       <c r="F333" s="73">
-        <v>16260</v>
+        <v>12484</v>
       </c>
       <c r="G333" t="s">
         <v>187</v>
@@ -15301,7 +15318,7 @@
         <v>134</v>
       </c>
       <c r="B334" s="1">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C334" s="64" t="s">
         <v>170</v>
@@ -15313,7 +15330,7 @@
         <v>70</v>
       </c>
       <c r="F334" s="73">
-        <v>14491</v>
+        <v>16260</v>
       </c>
       <c r="G334" t="s">
         <v>187</v>
@@ -15330,51 +15347,51 @@
         <v>134</v>
       </c>
       <c r="B335" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C335" t="s">
-        <v>227</v>
+        <v>2000</v>
+      </c>
+      <c r="C335" s="64" t="s">
+        <v>170</v>
       </c>
       <c r="D335" t="s">
         <v>169</v>
       </c>
-      <c r="E335" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F335">
-        <v>16268</v>
+      <c r="E335" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F335" s="73">
+        <v>14491</v>
       </c>
       <c r="G335" t="s">
         <v>187</v>
       </c>
+      <c r="H335" t="s">
+        <v>192</v>
+      </c>
       <c r="I335" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B336" s="1">
-        <v>1981</v>
-      </c>
-      <c r="C336" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D336" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="E336" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F336" s="73">
-        <v>15286</v>
+        <v>2005</v>
+      </c>
+      <c r="C336" t="s">
+        <v>227</v>
+      </c>
+      <c r="D336" t="s">
+        <v>169</v>
+      </c>
+      <c r="E336" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F336">
+        <v>16268</v>
       </c>
       <c r="G336" t="s">
-        <v>188</v>
-      </c>
-      <c r="H336" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I336" t="s">
         <v>194</v>
@@ -15385,7 +15402,7 @@
         <v>158</v>
       </c>
       <c r="B337" s="1">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="C337" s="64" t="s">
         <v>161</v>
@@ -15397,7 +15414,7 @@
         <v>70</v>
       </c>
       <c r="F337" s="73">
-        <v>16434</v>
+        <v>15286</v>
       </c>
       <c r="G337" t="s">
         <v>188</v>
@@ -15414,7 +15431,7 @@
         <v>158</v>
       </c>
       <c r="B338" s="1">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C338" s="64" t="s">
         <v>161</v>
@@ -15443,7 +15460,7 @@
         <v>158</v>
       </c>
       <c r="B339" s="1">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C339" s="64" t="s">
         <v>161</v>
@@ -15455,7 +15472,7 @@
         <v>70</v>
       </c>
       <c r="F339" s="73">
-        <v>14706</v>
+        <v>16434</v>
       </c>
       <c r="G339" t="s">
         <v>188</v>
@@ -15472,7 +15489,7 @@
         <v>158</v>
       </c>
       <c r="B340" s="1">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C340" s="64" t="s">
         <v>161</v>
@@ -15484,7 +15501,7 @@
         <v>70</v>
       </c>
       <c r="F340" s="73">
-        <v>13701</v>
+        <v>14706</v>
       </c>
       <c r="G340" t="s">
         <v>188</v>
@@ -15501,7 +15518,7 @@
         <v>158</v>
       </c>
       <c r="B341" s="1">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C341" s="64" t="s">
         <v>161</v>
@@ -15513,7 +15530,7 @@
         <v>70</v>
       </c>
       <c r="F341" s="73">
-        <v>13801</v>
+        <v>13701</v>
       </c>
       <c r="G341" t="s">
         <v>188</v>
@@ -15530,7 +15547,7 @@
         <v>158</v>
       </c>
       <c r="B342" s="1">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C342" s="64" t="s">
         <v>161</v>
@@ -15542,7 +15559,7 @@
         <v>70</v>
       </c>
       <c r="F342" s="73">
-        <v>13681</v>
+        <v>13801</v>
       </c>
       <c r="G342" t="s">
         <v>188</v>
@@ -15559,7 +15576,7 @@
         <v>158</v>
       </c>
       <c r="B343" s="1">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C343" s="64" t="s">
         <v>161</v>
@@ -15571,7 +15588,7 @@
         <v>70</v>
       </c>
       <c r="F343" s="73">
-        <v>13776</v>
+        <v>13681</v>
       </c>
       <c r="G343" t="s">
         <v>188</v>
@@ -15588,7 +15605,7 @@
         <v>158</v>
       </c>
       <c r="B344" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C344" s="64" t="s">
         <v>161</v>
@@ -15600,7 +15617,7 @@
         <v>70</v>
       </c>
       <c r="F344" s="73">
-        <v>14853</v>
+        <v>13776</v>
       </c>
       <c r="G344" t="s">
         <v>188</v>
@@ -15617,7 +15634,7 @@
         <v>158</v>
       </c>
       <c r="B345" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C345" s="64" t="s">
         <v>161</v>
@@ -15629,7 +15646,7 @@
         <v>70</v>
       </c>
       <c r="F345" s="73">
-        <v>15858</v>
+        <v>14853</v>
       </c>
       <c r="G345" t="s">
         <v>188</v>
@@ -15646,7 +15663,7 @@
         <v>158</v>
       </c>
       <c r="B346" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C346" s="64" t="s">
         <v>161</v>
@@ -15658,7 +15675,7 @@
         <v>70</v>
       </c>
       <c r="F346" s="73">
-        <v>16528</v>
+        <v>15858</v>
       </c>
       <c r="G346" t="s">
         <v>188</v>
@@ -15675,22 +15692,25 @@
         <v>158</v>
       </c>
       <c r="B347" s="1">
-        <v>1981</v>
-      </c>
-      <c r="C347" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C347" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E347" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F347">
-        <v>15286</v>
+      <c r="E347" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F347" s="73">
+        <v>16528</v>
       </c>
       <c r="G347" t="s">
         <v>188</v>
+      </c>
+      <c r="H347" t="s">
+        <v>192</v>
       </c>
       <c r="I347" t="s">
         <v>194</v>
@@ -15701,7 +15721,7 @@
         <v>158</v>
       </c>
       <c r="B348" s="1">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="C348" t="s">
         <v>161</v>
@@ -15713,7 +15733,7 @@
         <v>70</v>
       </c>
       <c r="F348">
-        <v>16434</v>
+        <v>15286</v>
       </c>
       <c r="G348" t="s">
         <v>188</v>
@@ -15727,7 +15747,7 @@
         <v>158</v>
       </c>
       <c r="B349" s="1">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C349" t="s">
         <v>161</v>
@@ -15753,7 +15773,7 @@
         <v>158</v>
       </c>
       <c r="B350" s="1">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C350" t="s">
         <v>161</v>
@@ -15765,7 +15785,7 @@
         <v>70</v>
       </c>
       <c r="F350">
-        <v>14706</v>
+        <v>16434</v>
       </c>
       <c r="G350" t="s">
         <v>188</v>
@@ -15779,7 +15799,7 @@
         <v>158</v>
       </c>
       <c r="B351" s="1">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C351" t="s">
         <v>161</v>
@@ -15791,7 +15811,7 @@
         <v>70</v>
       </c>
       <c r="F351">
-        <v>13701</v>
+        <v>14706</v>
       </c>
       <c r="G351" t="s">
         <v>188</v>
@@ -15804,8 +15824,8 @@
       <c r="A352" t="s">
         <v>158</v>
       </c>
-      <c r="B352" s="80">
-        <v>2000</v>
+      <c r="B352" s="1">
+        <v>1997</v>
       </c>
       <c r="C352" t="s">
         <v>161</v>
@@ -15817,7 +15837,7 @@
         <v>70</v>
       </c>
       <c r="F352">
-        <v>13801</v>
+        <v>13701</v>
       </c>
       <c r="G352" t="s">
         <v>188</v>
@@ -15831,7 +15851,7 @@
         <v>158</v>
       </c>
       <c r="B353" s="80">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C353" t="s">
         <v>161</v>
@@ -15843,7 +15863,7 @@
         <v>70</v>
       </c>
       <c r="F353">
-        <v>13681</v>
+        <v>13801</v>
       </c>
       <c r="G353" t="s">
         <v>188</v>
@@ -15857,7 +15877,7 @@
         <v>158</v>
       </c>
       <c r="B354" s="80">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C354" t="s">
         <v>161</v>
@@ -15869,7 +15889,7 @@
         <v>70</v>
       </c>
       <c r="F354">
-        <v>13776</v>
+        <v>13681</v>
       </c>
       <c r="G354" t="s">
         <v>188</v>
@@ -15883,7 +15903,7 @@
         <v>158</v>
       </c>
       <c r="B355" s="80">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C355" t="s">
         <v>161</v>
@@ -15895,7 +15915,7 @@
         <v>70</v>
       </c>
       <c r="F355">
-        <v>14853</v>
+        <v>13776</v>
       </c>
       <c r="G355" t="s">
         <v>188</v>
@@ -15909,7 +15929,7 @@
         <v>158</v>
       </c>
       <c r="B356" s="80">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C356" t="s">
         <v>161</v>
@@ -15921,7 +15941,7 @@
         <v>70</v>
       </c>
       <c r="F356">
-        <v>15858</v>
+        <v>14853</v>
       </c>
       <c r="G356" t="s">
         <v>188</v>
@@ -15935,7 +15955,7 @@
         <v>158</v>
       </c>
       <c r="B357" s="80">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C357" t="s">
         <v>161</v>
@@ -15947,7 +15967,7 @@
         <v>70</v>
       </c>
       <c r="F357">
-        <v>16528</v>
+        <v>15858</v>
       </c>
       <c r="G357" t="s">
         <v>188</v>
@@ -15958,25 +15978,25 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="B358" s="80">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C358" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="D358" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="E358" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F358">
-        <v>18392</v>
+        <v>16528</v>
       </c>
       <c r="G358" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="I358" t="s">
         <v>194</v>
@@ -15987,7 +16007,7 @@
         <v>270</v>
       </c>
       <c r="B359" s="80">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C359" t="s">
         <v>323</v>
@@ -15999,7 +16019,7 @@
         <v>70</v>
       </c>
       <c r="F359">
-        <v>49136</v>
+        <v>18392</v>
       </c>
       <c r="G359" t="s">
         <v>324</v>
@@ -16013,7 +16033,7 @@
         <v>270</v>
       </c>
       <c r="B360" s="80">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C360" t="s">
         <v>323</v>
@@ -16025,7 +16045,7 @@
         <v>70</v>
       </c>
       <c r="F360">
-        <v>46550</v>
+        <v>49136</v>
       </c>
       <c r="G360" t="s">
         <v>324</v>
@@ -16039,7 +16059,7 @@
         <v>270</v>
       </c>
       <c r="B361" s="80">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C361" t="s">
         <v>323</v>
@@ -16051,7 +16071,7 @@
         <v>70</v>
       </c>
       <c r="F361">
-        <v>46622</v>
+        <v>46550</v>
       </c>
       <c r="G361" t="s">
         <v>324</v>
@@ -16065,7 +16085,7 @@
         <v>270</v>
       </c>
       <c r="B362" s="80">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C362" t="s">
         <v>323</v>
@@ -16077,7 +16097,7 @@
         <v>70</v>
       </c>
       <c r="F362">
-        <v>45158</v>
+        <v>46622</v>
       </c>
       <c r="G362" t="s">
         <v>324</v>
@@ -16088,28 +16108,25 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>33</v>
-      </c>
-      <c r="B363" s="1">
-        <v>1974</v>
-      </c>
-      <c r="C363" s="64" t="s">
-        <v>159</v>
+        <v>270</v>
+      </c>
+      <c r="B363" s="80">
+        <v>2016</v>
+      </c>
+      <c r="C363" t="s">
+        <v>323</v>
       </c>
       <c r="D363" t="s">
-        <v>160</v>
-      </c>
-      <c r="E363" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F363" s="73">
-        <v>11475</v>
+        <v>284</v>
+      </c>
+      <c r="E363" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F363">
+        <v>45158</v>
       </c>
       <c r="G363" t="s">
-        <v>189</v>
-      </c>
-      <c r="H363" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="I363" t="s">
         <v>194</v>
@@ -16120,22 +16137,25 @@
         <v>33</v>
       </c>
       <c r="B364" s="1">
-        <v>1979</v>
-      </c>
-      <c r="C364" t="s">
-        <v>253</v>
+        <v>1974</v>
+      </c>
+      <c r="C364" s="64" t="s">
+        <v>159</v>
       </c>
       <c r="D364" t="s">
         <v>160</v>
       </c>
-      <c r="E364" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F364">
-        <v>65238</v>
+      <c r="E364" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F364" s="73">
+        <v>11475</v>
       </c>
       <c r="G364" t="s">
         <v>189</v>
+      </c>
+      <c r="H364" t="s">
+        <v>192</v>
       </c>
       <c r="I364" t="s">
         <v>194</v>
@@ -16146,7 +16166,7 @@
         <v>33</v>
       </c>
       <c r="B365" s="1">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="C365" t="s">
         <v>253</v>
@@ -16158,7 +16178,7 @@
         <v>70</v>
       </c>
       <c r="F365">
-        <v>58258</v>
+        <v>65238</v>
       </c>
       <c r="G365" t="s">
         <v>189</v>
@@ -16172,7 +16192,7 @@
         <v>33</v>
       </c>
       <c r="B366" s="1">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C366" t="s">
         <v>253</v>
@@ -16184,7 +16204,7 @@
         <v>70</v>
       </c>
       <c r="F366">
-        <v>59219</v>
+        <v>58258</v>
       </c>
       <c r="G366" t="s">
         <v>189</v>
@@ -16198,7 +16218,7 @@
         <v>33</v>
       </c>
       <c r="B367" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C367" t="s">
         <v>253</v>
@@ -16210,7 +16230,7 @@
         <v>70</v>
       </c>
       <c r="F367">
-        <v>58970</v>
+        <v>59219</v>
       </c>
       <c r="G367" t="s">
         <v>189</v>
@@ -16224,7 +16244,7 @@
         <v>33</v>
       </c>
       <c r="B368" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C368" t="s">
         <v>253</v>
@@ -16236,7 +16256,7 @@
         <v>70</v>
       </c>
       <c r="F368">
-        <v>57079</v>
+        <v>58970</v>
       </c>
       <c r="G368" t="s">
         <v>189</v>
@@ -16250,7 +16270,7 @@
         <v>33</v>
       </c>
       <c r="B369" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C369" t="s">
         <v>253</v>
@@ -16262,7 +16282,7 @@
         <v>70</v>
       </c>
       <c r="F369">
-        <v>56941</v>
+        <v>57079</v>
       </c>
       <c r="G369" t="s">
         <v>189</v>
@@ -16276,7 +16296,7 @@
         <v>33</v>
       </c>
       <c r="B370" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C370" t="s">
         <v>253</v>
@@ -16288,7 +16308,7 @@
         <v>70</v>
       </c>
       <c r="F370">
-        <v>49682</v>
+        <v>56941</v>
       </c>
       <c r="G370" t="s">
         <v>189</v>
@@ -16302,7 +16322,7 @@
         <v>33</v>
       </c>
       <c r="B371" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C371" t="s">
         <v>253</v>
@@ -16314,7 +16334,7 @@
         <v>70</v>
       </c>
       <c r="F371">
-        <v>50311</v>
+        <v>49682</v>
       </c>
       <c r="G371" t="s">
         <v>189</v>
@@ -16328,7 +16348,7 @@
         <v>33</v>
       </c>
       <c r="B372" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C372" t="s">
         <v>253</v>
@@ -16340,7 +16360,7 @@
         <v>70</v>
       </c>
       <c r="F372">
-        <v>50348</v>
+        <v>50311</v>
       </c>
       <c r="G372" t="s">
         <v>189</v>
@@ -16354,7 +16374,7 @@
         <v>33</v>
       </c>
       <c r="B373" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C373" t="s">
         <v>253</v>
@@ -16366,7 +16386,7 @@
         <v>70</v>
       </c>
       <c r="F373">
-        <v>50781</v>
+        <v>50348</v>
       </c>
       <c r="G373" t="s">
         <v>189</v>
@@ -16380,7 +16400,7 @@
         <v>33</v>
       </c>
       <c r="B374" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C374" t="s">
         <v>253</v>
@@ -16392,7 +16412,7 @@
         <v>70</v>
       </c>
       <c r="F374">
-        <v>51016</v>
+        <v>50781</v>
       </c>
       <c r="G374" t="s">
         <v>189</v>
@@ -16406,7 +16426,7 @@
         <v>33</v>
       </c>
       <c r="B375" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C375" t="s">
         <v>253</v>
@@ -16418,7 +16438,7 @@
         <v>70</v>
       </c>
       <c r="F375">
-        <v>78054</v>
+        <v>51016</v>
       </c>
       <c r="G375" t="s">
         <v>189</v>
@@ -16432,7 +16452,7 @@
         <v>33</v>
       </c>
       <c r="B376" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C376" t="s">
         <v>253</v>
@@ -16444,7 +16464,7 @@
         <v>70</v>
       </c>
       <c r="F376">
-        <v>78265</v>
+        <v>78054</v>
       </c>
       <c r="G376" t="s">
         <v>189</v>
@@ -16458,19 +16478,19 @@
         <v>33</v>
       </c>
       <c r="B377" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C377" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D377" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="E377" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F377">
-        <v>78310</v>
+        <v>78265</v>
       </c>
       <c r="G377" t="s">
         <v>189</v>
@@ -16484,7 +16504,7 @@
         <v>33</v>
       </c>
       <c r="B378" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C378" t="s">
         <v>254</v>
@@ -16496,7 +16516,7 @@
         <v>70</v>
       </c>
       <c r="F378">
-        <v>77149</v>
+        <v>78310</v>
       </c>
       <c r="G378" t="s">
         <v>189</v>
@@ -16510,7 +16530,7 @@
         <v>33</v>
       </c>
       <c r="B379" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C379" t="s">
         <v>254</v>
@@ -16522,7 +16542,7 @@
         <v>70</v>
       </c>
       <c r="F379">
-        <v>76447</v>
+        <v>77149</v>
       </c>
       <c r="G379" t="s">
         <v>189</v>
@@ -16536,7 +16556,7 @@
         <v>33</v>
       </c>
       <c r="B380" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C380" t="s">
         <v>254</v>
@@ -16548,7 +16568,7 @@
         <v>70</v>
       </c>
       <c r="F380">
-        <v>75939</v>
+        <v>76447</v>
       </c>
       <c r="G380" t="s">
         <v>189</v>
@@ -16562,7 +16582,7 @@
         <v>33</v>
       </c>
       <c r="B381" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C381" t="s">
         <v>254</v>
@@ -16574,7 +16594,7 @@
         <v>70</v>
       </c>
       <c r="F381">
-        <v>75477</v>
+        <v>75939</v>
       </c>
       <c r="G381" t="s">
         <v>189</v>
@@ -16588,7 +16608,7 @@
         <v>33</v>
       </c>
       <c r="B382" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C382" t="s">
         <v>254</v>
@@ -16600,7 +16620,7 @@
         <v>70</v>
       </c>
       <c r="F382">
-        <v>75872</v>
+        <v>75477</v>
       </c>
       <c r="G382" t="s">
         <v>189</v>
@@ -16614,7 +16634,7 @@
         <v>33</v>
       </c>
       <c r="B383" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C383" t="s">
         <v>254</v>
@@ -16626,7 +16646,7 @@
         <v>70</v>
       </c>
       <c r="F383">
-        <v>76185</v>
+        <v>75872</v>
       </c>
       <c r="G383" t="s">
         <v>189</v>
@@ -16640,7 +16660,7 @@
         <v>33</v>
       </c>
       <c r="B384" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C384" t="s">
         <v>254</v>
@@ -16652,7 +16672,7 @@
         <v>70</v>
       </c>
       <c r="F384">
-        <v>76260</v>
+        <v>76185</v>
       </c>
       <c r="G384" t="s">
         <v>189</v>
@@ -16666,7 +16686,7 @@
         <v>33</v>
       </c>
       <c r="B385" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C385" t="s">
         <v>254</v>
@@ -16678,7 +16698,7 @@
         <v>70</v>
       </c>
       <c r="F385">
-        <v>75188</v>
+        <v>76260</v>
       </c>
       <c r="G385" t="s">
         <v>189</v>
@@ -16692,7 +16712,7 @@
         <v>33</v>
       </c>
       <c r="B386" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C386" t="s">
         <v>254</v>
@@ -16704,7 +16724,7 @@
         <v>70</v>
       </c>
       <c r="F386">
-        <v>74383</v>
+        <v>75188</v>
       </c>
       <c r="G386" t="s">
         <v>189</v>
@@ -16718,7 +16738,7 @@
         <v>33</v>
       </c>
       <c r="B387" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C387" t="s">
         <v>254</v>
@@ -16730,7 +16750,7 @@
         <v>70</v>
       </c>
       <c r="F387">
-        <v>74821</v>
+        <v>74383</v>
       </c>
       <c r="G387" t="s">
         <v>189</v>
@@ -16744,7 +16764,7 @@
         <v>33</v>
       </c>
       <c r="B388" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C388" t="s">
         <v>254</v>
@@ -16756,7 +16776,7 @@
         <v>70</v>
       </c>
       <c r="F388">
-        <v>51498</v>
+        <v>74821</v>
       </c>
       <c r="G388" t="s">
         <v>189</v>
@@ -16770,7 +16790,7 @@
         <v>33</v>
       </c>
       <c r="B389" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C389" t="s">
         <v>254</v>
@@ -16782,7 +16802,7 @@
         <v>70</v>
       </c>
       <c r="F389">
-        <v>74257</v>
+        <v>51498</v>
       </c>
       <c r="G389" t="s">
         <v>189</v>
@@ -16796,7 +16816,7 @@
         <v>33</v>
       </c>
       <c r="B390" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C390" t="s">
         <v>254</v>
@@ -16808,7 +16828,7 @@
         <v>70</v>
       </c>
       <c r="F390">
-        <v>69484</v>
+        <v>74257</v>
       </c>
       <c r="G390" t="s">
         <v>189</v>
@@ -16822,7 +16842,7 @@
         <v>33</v>
       </c>
       <c r="B391" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C391" t="s">
         <v>254</v>
@@ -16834,7 +16854,7 @@
         <v>70</v>
       </c>
       <c r="F391">
-        <v>69957</v>
+        <v>69484</v>
       </c>
       <c r="G391" t="s">
         <v>189</v>
@@ -16848,7 +16868,7 @@
         <v>33</v>
       </c>
       <c r="B392" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C392" t="s">
         <v>254</v>
@@ -16860,7 +16880,7 @@
         <v>70</v>
       </c>
       <c r="F392">
-        <v>67909</v>
+        <v>69957</v>
       </c>
       <c r="G392" t="s">
         <v>189</v>
@@ -16874,7 +16894,7 @@
         <v>33</v>
       </c>
       <c r="B393" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C393" t="s">
         <v>254</v>
@@ -16886,7 +16906,7 @@
         <v>70</v>
       </c>
       <c r="F393">
-        <v>68345</v>
+        <v>67909</v>
       </c>
       <c r="G393" t="s">
         <v>189</v>
@@ -16897,25 +16917,25 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>271</v>
-      </c>
-      <c r="B394" s="80">
-        <v>2011</v>
+        <v>33</v>
+      </c>
+      <c r="B394" s="1">
+        <v>2018</v>
       </c>
       <c r="C394" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="D394" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E394" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F394">
-        <v>9399</v>
+        <v>68345</v>
       </c>
       <c r="G394" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="I394" t="s">
         <v>194</v>
@@ -16926,7 +16946,7 @@
         <v>271</v>
       </c>
       <c r="B395" s="80">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C395" t="s">
         <v>325</v>
@@ -16949,25 +16969,25 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B396" s="80">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C396" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D396" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E396" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F396">
-        <v>7296</v>
+        <v>9399</v>
       </c>
       <c r="G396" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I396" t="s">
         <v>194</v>
@@ -16978,7 +16998,7 @@
         <v>269</v>
       </c>
       <c r="B397" s="80">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C397" t="s">
         <v>320</v>
@@ -16990,7 +17010,7 @@
         <v>70</v>
       </c>
       <c r="F397">
-        <v>6786</v>
+        <v>7296</v>
       </c>
       <c r="G397" t="s">
         <v>322</v>
@@ -17004,7 +17024,7 @@
         <v>269</v>
       </c>
       <c r="B398" s="80">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C398" t="s">
         <v>320</v>
@@ -17016,7 +17036,7 @@
         <v>70</v>
       </c>
       <c r="F398">
-        <v>8040</v>
+        <v>6786</v>
       </c>
       <c r="G398" t="s">
         <v>322</v>
@@ -17025,10 +17045,36 @@
         <v>194</v>
       </c>
     </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>269</v>
+      </c>
+      <c r="B399" s="80">
+        <v>2012</v>
+      </c>
+      <c r="C399" t="s">
+        <v>320</v>
+      </c>
+      <c r="D399" t="s">
+        <v>321</v>
+      </c>
+      <c r="E399" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F399">
+        <v>8040</v>
+      </c>
+      <c r="G399" t="s">
+        <v>322</v>
+      </c>
+      <c r="I399" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I398" xr:uid="{AE5E4937-8ADC-4BF9-92DA-D3858EAD9318}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I398">
-      <sortCondition ref="A1:A398"/>
+  <autoFilter ref="A1:I399" xr:uid="{AE5E4937-8ADC-4BF9-92DA-D3858EAD9318}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I399">
+      <sortCondition ref="A1:A399"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/02.data/_aux/LIS datasets.xlsx
+++ b/02.data/_aux/LIS datasets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb463998\OneDrive - WBG\GIT\LIS_data\02.data\_aux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb384996\OneDrive - WBG\WorldBank\DECDG\PovcalNet Team\LIS_data\02.data\_aux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="6_{048320F3-D374-479D-BAA0-BA0B1D7286D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAF3124C-F5B9-4969-A469-1AA957E4C7EB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{1B81E764-586F-483D-A243-A4A1D0846175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24D499E3-B48A-42AB-886E-ADD04A3D80EE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DA214762-5DBE-485D-812E-A8355C7FFC9F}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15750" activeTab="2" xr2:uid="{DA214762-5DBE-485D-812E-A8355C7FFC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Surveys to be added" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Countries in LIS'!$A$1:$C$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LIS_survname!$A$1:$I$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LIS_survname!$A$1:$I$459</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2687,19 +2687,19 @@
       <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="37" width="2.54296875" customWidth="1"/>
-    <col min="38" max="38" width="2.453125" customWidth="1"/>
-    <col min="39" max="39" width="2.453125" style="9" customWidth="1"/>
-    <col min="40" max="51" width="2.453125" customWidth="1"/>
-    <col min="52" max="52" width="2.7265625" customWidth="1"/>
-    <col min="53" max="53" width="8.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="37" width="2.5703125" customWidth="1"/>
+    <col min="38" max="38" width="2.42578125" customWidth="1"/>
+    <col min="39" max="39" width="2.42578125" style="9" customWidth="1"/>
+    <col min="40" max="51" width="2.42578125" customWidth="1"/>
+    <col min="52" max="52" width="2.7109375" customWidth="1"/>
+    <col min="53" max="53" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="53" t="s">
         <v>25</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>2</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4893,18 +4893,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="BA28" s="48">
         <f>SUM(BA2:BA27)</f>
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B29" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>1</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>2</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>3</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>4</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>5</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>6</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>7</v>
       </c>
@@ -5716,15 +5716,15 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="16"/>
-    <col min="2" max="2" width="20.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="17"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="16"/>
+    <col min="2" max="2" width="20.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="17"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="s">
         <v>34</v>
@@ -5733,7 +5733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="80">
         <v>32</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="80">
         <v>33</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="80">
         <v>34</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="80">
         <v>35</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="80">
         <v>36</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="80">
         <v>37</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="80">
         <v>38</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="80">
         <v>39</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="80">
         <v>40</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="80">
         <v>41</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="80">
         <v>42</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="80">
         <v>43</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="80">
         <v>44</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="80">
         <v>45</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="80">
         <v>46</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="80">
         <v>47</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="80">
         <v>48</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="80">
         <v>49</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="80">
         <v>50</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="80">
         <v>51</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="81">
         <v>52</v>
       </c>
@@ -6314,24 +6314,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5624527B-43F9-4DB1-BB8A-3C401E64EEA7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H457" sqref="H457"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="79.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>339</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>229</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>229</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -7127,7 +7128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -7475,7 +7476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>253</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -7932,7 +7933,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -8019,7 +8020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -8077,7 +8078,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>140</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>254</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>254</v>
       </c>
@@ -8580,7 +8581,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>254</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>254</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>254</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>254</v>
       </c>
@@ -8737,7 +8738,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>254</v>
       </c>
@@ -8842,7 +8843,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>255</v>
       </c>
@@ -8868,7 +8869,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>255</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>262</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>262</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -8972,7 +8973,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>256</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>256</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>256</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>220</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -9180,7 +9181,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="65" t="s">
         <v>78</v>
       </c>
@@ -9264,7 +9265,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>78</v>
       </c>
@@ -9345,7 +9346,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>65</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>65</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>65</v>
       </c>
@@ -9510,7 +9511,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>65</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>65</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>65</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -9626,7 +9627,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>65</v>
       </c>
@@ -9707,7 +9708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -9811,7 +9812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>65</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -9889,7 +9890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>65</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>65</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>65</v>
       </c>
@@ -10019,7 +10020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>65</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>65</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>65</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>65</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>81</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="77" t="s">
         <v>81</v>
       </c>
@@ -10317,7 +10318,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="77" t="s">
         <v>81</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="77" t="s">
         <v>81</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="77" t="s">
         <v>81</v>
       </c>
@@ -10395,7 +10396,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="77" t="s">
         <v>81</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>257</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -10473,7 +10474,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>131</v>
       </c>
@@ -10502,7 +10503,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>131</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>131</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>131</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>131</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>131</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>131</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>131</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>131</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="77" t="s">
         <v>200</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="77" t="s">
         <v>200</v>
       </c>
@@ -10800,7 +10801,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="77" t="s">
         <v>200</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="77" t="s">
         <v>200</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="77" t="s">
         <v>200</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="77" t="s">
         <v>200</v>
       </c>
@@ -10904,7 +10905,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>84</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>84</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -11020,7 +11021,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="77" t="s">
         <v>84</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="77" t="s">
         <v>84</v>
       </c>
@@ -11072,7 +11073,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="77" t="s">
         <v>84</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="77" t="s">
         <v>84</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="77" t="s">
         <v>84</v>
       </c>
@@ -11150,7 +11151,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>87</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>87</v>
       </c>
@@ -11208,7 +11209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>87</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>87</v>
       </c>
@@ -11266,7 +11267,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>87</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="77" t="s">
         <v>87</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>87</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>147</v>
       </c>
@@ -11376,7 +11377,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>147</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>147</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>147</v>
       </c>
@@ -11463,7 +11464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>147</v>
       </c>
@@ -11492,7 +11493,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>147</v>
       </c>
@@ -11521,7 +11522,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>147</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>147</v>
       </c>
@@ -11579,7 +11580,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>147</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>147</v>
       </c>
@@ -11637,7 +11638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>147</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>147</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>147</v>
       </c>
@@ -11721,7 +11722,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>147</v>
       </c>
@@ -11747,7 +11748,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>147</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>147</v>
       </c>
@@ -11799,7 +11800,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>147</v>
       </c>
@@ -11825,7 +11826,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>147</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>147</v>
       </c>
@@ -11877,7 +11878,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>147</v>
       </c>
@@ -11903,7 +11904,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>147</v>
       </c>
@@ -11929,7 +11930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>147</v>
       </c>
@@ -11955,7 +11956,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>147</v>
       </c>
@@ -11981,7 +11982,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>147</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>147</v>
       </c>
@@ -12033,7 +12034,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>147</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>147</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>259</v>
       </c>
@@ -12111,7 +12112,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>259</v>
       </c>
@@ -12137,7 +12138,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>259</v>
       </c>
@@ -12163,7 +12164,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>95</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>95</v>
       </c>
@@ -12221,7 +12222,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>95</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>95</v>
       </c>
@@ -12273,7 +12274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>95</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>95</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>95</v>
       </c>
@@ -12351,7 +12352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>260</v>
       </c>
@@ -12377,7 +12378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>260</v>
       </c>
@@ -12403,7 +12404,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>260</v>
       </c>
@@ -12429,7 +12430,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>97</v>
       </c>
@@ -12458,7 +12459,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>97</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="65" t="s">
         <v>97</v>
       </c>
@@ -12516,7 +12517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>97</v>
       </c>
@@ -12542,7 +12543,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>97</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>97</v>
       </c>
@@ -12594,7 +12595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>97</v>
       </c>
@@ -12620,7 +12621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>97</v>
       </c>
@@ -12646,7 +12647,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>261</v>
       </c>
@@ -12672,7 +12673,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>261</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>101</v>
       </c>
@@ -12727,7 +12728,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>101</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>101</v>
       </c>
@@ -12785,7 +12786,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>101</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>101</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>101</v>
       </c>
@@ -12872,7 +12873,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>101</v>
       </c>
@@ -12901,7 +12902,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>101</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>101</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>101</v>
       </c>
@@ -12988,7 +12989,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>101</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>101</v>
       </c>
@@ -13046,7 +13047,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>101</v>
       </c>
@@ -13075,7 +13076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>101</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>101</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>101</v>
       </c>
@@ -13162,7 +13163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>101</v>
       </c>
@@ -13191,7 +13192,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>101</v>
       </c>
@@ -13220,7 +13221,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>101</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>101</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>101</v>
       </c>
@@ -13307,7 +13308,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>208</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>208</v>
       </c>
@@ -13359,7 +13360,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>208</v>
       </c>
@@ -13385,7 +13386,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>243</v>
       </c>
@@ -13411,7 +13412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>243</v>
       </c>
@@ -13437,7 +13438,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>243</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>243</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>243</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>243</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>243</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>243</v>
       </c>
@@ -13593,7 +13594,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>243</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>243</v>
       </c>
@@ -13645,7 +13646,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>243</v>
       </c>
@@ -13671,7 +13672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>106</v>
       </c>
@@ -13700,7 +13701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>106</v>
       </c>
@@ -13729,7 +13730,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>106</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>106</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>106</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>106</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>106</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>106</v>
       </c>
@@ -13903,7 +13904,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>106</v>
       </c>
@@ -13929,7 +13930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>106</v>
       </c>
@@ -13955,7 +13956,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>106</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>106</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>106</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>195</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>195</v>
       </c>
@@ -14091,7 +14092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>195</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>248</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>248</v>
       </c>
@@ -14169,7 +14170,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>248</v>
       </c>
@@ -14195,7 +14196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>248</v>
       </c>
@@ -14221,7 +14222,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>248</v>
       </c>
@@ -14247,7 +14248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>248</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>212</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>212</v>
       </c>
@@ -14325,7 +14326,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>212</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>212</v>
       </c>
@@ -14377,7 +14378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>212</v>
       </c>
@@ -14403,7 +14404,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>212</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>212</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>212</v>
       </c>
@@ -14481,7 +14482,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>212</v>
       </c>
@@ -14507,7 +14508,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>109</v>
       </c>
@@ -14536,7 +14537,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>109</v>
       </c>
@@ -14565,7 +14566,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>109</v>
       </c>
@@ -14594,7 +14595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>109</v>
       </c>
@@ -14623,7 +14624,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>109</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>109</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>109</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>109</v>
       </c>
@@ -14730,7 +14731,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>109</v>
       </c>
@@ -14756,7 +14757,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>263</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>263</v>
       </c>
@@ -14808,7 +14809,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>263</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -14860,7 +14861,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>263</v>
       </c>
@@ -14886,7 +14887,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>263</v>
       </c>
@@ -14912,7 +14913,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>263</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>263</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>263</v>
       </c>
@@ -14990,7 +14991,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>263</v>
       </c>
@@ -15016,7 +15017,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>263</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>263</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>263</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>263</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>114</v>
       </c>
@@ -15175,7 +15176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>114</v>
       </c>
@@ -15204,7 +15205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>114</v>
       </c>
@@ -15233,7 +15234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>114</v>
       </c>
@@ -15262,7 +15263,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>114</v>
       </c>
@@ -15291,7 +15292,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>114</v>
       </c>
@@ -15320,7 +15321,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>114</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>114</v>
       </c>
@@ -15378,7 +15379,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>114</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>118</v>
       </c>
@@ -15436,7 +15437,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>118</v>
       </c>
@@ -15465,7 +15466,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>118</v>
       </c>
@@ -15494,7 +15495,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>118</v>
       </c>
@@ -15523,7 +15524,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>118</v>
       </c>
@@ -15552,7 +15553,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>118</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>118</v>
       </c>
@@ -15604,7 +15605,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>118</v>
       </c>
@@ -15630,7 +15631,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>118</v>
       </c>
@@ -15656,7 +15657,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>334</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>264</v>
       </c>
@@ -15708,7 +15709,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>264</v>
       </c>
@@ -15734,7 +15735,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>264</v>
       </c>
@@ -15764,7 +15765,7 @@
       <c r="L347" s="77"/>
       <c r="M347" s="77"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>264</v>
       </c>
@@ -15794,7 +15795,7 @@
       <c r="L348" s="77"/>
       <c r="M348" s="77"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>265</v>
       </c>
@@ -15820,7 +15821,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>265</v>
       </c>
@@ -15846,7 +15847,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>265</v>
       </c>
@@ -15874,7 +15875,7 @@
       <c r="J351" s="77"/>
       <c r="K351" s="77"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>265</v>
       </c>
@@ -15900,7 +15901,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>265</v>
       </c>
@@ -15926,7 +15927,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>120</v>
       </c>
@@ -15955,7 +15956,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>120</v>
       </c>
@@ -15984,7 +15985,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>120</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>120</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>120</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>120</v>
       </c>
@@ -16094,7 +16095,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>120</v>
       </c>
@@ -16120,7 +16121,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>120</v>
       </c>
@@ -16146,7 +16147,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>120</v>
       </c>
@@ -16172,7 +16173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>307</v>
       </c>
@@ -16198,7 +16199,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>307</v>
       </c>
@@ -16224,7 +16225,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>307</v>
       </c>
@@ -16250,7 +16251,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>307</v>
       </c>
@@ -16276,7 +16277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>307</v>
       </c>
@@ -16302,7 +16303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>307</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>123</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>123</v>
       </c>
@@ -16386,7 +16387,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>266</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>266</v>
       </c>
@@ -16438,7 +16439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>266</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>266</v>
       </c>
@@ -16490,7 +16491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>266</v>
       </c>
@@ -16516,7 +16517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>266</v>
       </c>
@@ -16542,7 +16543,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>266</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>266</v>
       </c>
@@ -16594,7 +16595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>266</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>266</v>
       </c>
@@ -16646,7 +16647,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>343</v>
       </c>
@@ -16672,7 +16673,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>343</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>343</v>
       </c>
@@ -16724,7 +16725,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>343</v>
       </c>
@@ -16750,7 +16751,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>126</v>
       </c>
@@ -16779,7 +16780,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="65" t="s">
         <v>126</v>
       </c>
@@ -16808,7 +16809,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="62" t="s">
         <v>126</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="62" t="s">
         <v>126</v>
       </c>
@@ -16866,7 +16867,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="62" t="s">
         <v>126</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="62" t="s">
         <v>126</v>
       </c>
@@ -16924,7 +16925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>129</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>129</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>129</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>129</v>
       </c>
@@ -17034,7 +17035,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>129</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>129</v>
       </c>
@@ -17086,7 +17087,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>129</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>134</v>
       </c>
@@ -17141,7 +17142,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>134</v>
       </c>
@@ -17170,7 +17171,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>134</v>
       </c>
@@ -17199,7 +17200,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>134</v>
       </c>
@@ -17228,7 +17229,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>134</v>
       </c>
@@ -17257,7 +17258,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>134</v>
       </c>
@@ -17286,7 +17287,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>134</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>134</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>158</v>
       </c>
@@ -17370,7 +17371,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>158</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>158</v>
       </c>
@@ -17428,7 +17429,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>158</v>
       </c>
@@ -17457,7 +17458,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>158</v>
       </c>
@@ -17486,7 +17487,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>158</v>
       </c>
@@ -17515,7 +17516,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>158</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>158</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>158</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>158</v>
       </c>
@@ -17631,7 +17632,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>158</v>
       </c>
@@ -17660,7 +17661,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>268</v>
       </c>
@@ -17686,7 +17687,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>268</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>268</v>
       </c>
@@ -17738,7 +17739,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>268</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>268</v>
       </c>
@@ -17790,7 +17791,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>33</v>
       </c>
@@ -17819,7 +17820,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>33</v>
       </c>
@@ -17845,7 +17846,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>33</v>
       </c>
@@ -17871,7 +17872,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>33</v>
       </c>
@@ -17897,7 +17898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>33</v>
       </c>
@@ -17923,7 +17924,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>33</v>
       </c>
@@ -17949,7 +17950,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>33</v>
       </c>
@@ -17975,7 +17976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>33</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>33</v>
       </c>
@@ -18027,7 +18028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>33</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>33</v>
       </c>
@@ -18079,7 +18080,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>33</v>
       </c>
@@ -18105,7 +18106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>33</v>
       </c>
@@ -18131,7 +18132,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>33</v>
       </c>
@@ -18157,7 +18158,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>33</v>
       </c>
@@ -18183,7 +18184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>33</v>
       </c>
@@ -18209,7 +18210,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>33</v>
       </c>
@@ -18235,7 +18236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>33</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>33</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>33</v>
       </c>
@@ -18313,7 +18314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>33</v>
       </c>
@@ -18339,7 +18340,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>33</v>
       </c>
@@ -18365,7 +18366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>33</v>
       </c>
@@ -18391,7 +18392,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>33</v>
       </c>
@@ -18417,7 +18418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>33</v>
       </c>
@@ -18443,7 +18444,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>33</v>
       </c>
@@ -18469,7 +18470,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>33</v>
       </c>
@@ -18495,7 +18496,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>33</v>
       </c>
@@ -18521,7 +18522,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>33</v>
       </c>
@@ -18547,7 +18548,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>33</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>33</v>
       </c>
@@ -18599,7 +18600,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>269</v>
       </c>
@@ -18625,7 +18626,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>269</v>
       </c>
@@ -18651,7 +18652,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>267</v>
       </c>
@@ -18677,7 +18678,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>267</v>
       </c>
@@ -18703,7 +18704,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>267</v>
       </c>
@@ -18729,7 +18730,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>267</v>
       </c>
@@ -18755,7 +18756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>267</v>
       </c>
@@ -18782,6 +18783,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I459" xr:uid="{E3A9507D-07D0-4F6E-AB66-310087C0F510}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CAN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18797,12 +18805,12 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="100.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>60</v>
       </c>
@@ -18819,7 +18827,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -18836,7 +18844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -18853,7 +18861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -18870,7 +18878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -18887,7 +18895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -18904,7 +18912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -18921,7 +18929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -18938,7 +18946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -18955,7 +18963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -18972,7 +18980,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -18989,7 +18997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -19006,7 +19014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -19023,7 +19031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>78</v>
       </c>
@@ -19038,7 +19046,7 @@
       </c>
       <c r="E14" s="68"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -19055,7 +19063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -19072,7 +19080,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -19089,7 +19097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -19106,7 +19114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -19123,7 +19131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -19140,7 +19148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -19157,7 +19165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -19174,7 +19182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -19191,7 +19199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -19208,7 +19216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -19225,7 +19233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -19242,7 +19250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -19259,7 +19267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -19276,7 +19284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -19293,7 +19301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -19310,7 +19318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -19327,7 +19335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -19344,7 +19352,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -19361,7 +19369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -19378,7 +19386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -19395,7 +19403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -19412,7 +19420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -19429,7 +19437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -19446,7 +19454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -19463,7 +19471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -19480,7 +19488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>97</v>
       </c>
@@ -19493,7 +19501,7 @@
       <c r="D41" s="65"/>
       <c r="E41" s="68"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -19510,7 +19518,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -19527,7 +19535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -19544,7 +19552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -19561,7 +19569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -19578,7 +19586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -19595,7 +19603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -19612,7 +19620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -19629,7 +19637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -19646,7 +19654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -19663,7 +19671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -19680,7 +19688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -19697,7 +19705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -19714,7 +19722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -19731,7 +19739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -19748,7 +19756,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -19765,7 +19773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -19782,7 +19790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -19799,7 +19807,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -19816,7 +19824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -19833,7 +19841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -19850,7 +19858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -19867,7 +19875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -19884,7 +19892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -19901,7 +19909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -19918,7 +19926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -19935,7 +19943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -19952,7 +19960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -19969,7 +19977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -19986,7 +19994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -20003,7 +20011,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -20020,7 +20028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -20037,7 +20045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -20054,7 +20062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -20071,7 +20079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -20088,7 +20096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
         <v>126</v>
       </c>
@@ -20103,7 +20111,7 @@
       </c>
       <c r="E77" s="68"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -20120,7 +20128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -20137,7 +20145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>131</v>
       </c>
@@ -20154,7 +20162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -20171,7 +20179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -20188,7 +20196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -20205,7 +20213,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -20222,7 +20230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -20239,7 +20247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -20256,7 +20264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -20273,7 +20281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -20290,7 +20298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -20307,7 +20315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -20324,7 +20332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -20341,7 +20349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -20358,7 +20366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -20375,7 +20383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -20392,7 +20400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -20409,7 +20417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -20426,7 +20434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -20443,7 +20451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -20460,7 +20468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -20477,7 +20485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -20494,7 +20502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -20511,7 +20519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -20528,7 +20536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -20545,7 +20553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -20562,7 +20570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -20579,7 +20587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -20596,7 +20604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -20613,7 +20621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>158</v>
       </c>
@@ -20630,7 +20638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>158</v>
       </c>
@@ -20647,7 +20655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>158</v>
       </c>
@@ -20664,7 +20672,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>158</v>
       </c>
@@ -20681,7 +20689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>158</v>
       </c>
@@ -20698,7 +20706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -20715,7 +20723,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>158</v>
       </c>
@@ -20732,7 +20740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>158</v>
       </c>
@@ -20749,7 +20757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>158</v>
       </c>
@@ -20766,7 +20774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>158</v>
       </c>
@@ -20783,7 +20791,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>158</v>
       </c>
@@ -20800,7 +20808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>

--- a/02.data/_aux/LIS datasets.xlsx
+++ b/02.data/_aux/LIS datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/mviveros_worldbank_org2/Documents/GIT/LIS_data/02.data/_aux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1002" documentId="13_ncr:1_{23E223E5-8195-41FF-8C7D-40BD88F80865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C6800C-D306-4305-A5D2-758412055C85}"/>
+  <xr:revisionPtr revIDLastSave="1017" documentId="13_ncr:1_{23E223E5-8195-41FF-8C7D-40BD88F80865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7472D9-1069-4225-B006-E8CCB842AB1C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{DA214762-5DBE-485D-812E-A8355C7FFC9F}"/>
   </bookViews>
@@ -1353,7 +1353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1387,6 +1387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1759,9 +1765,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1769,7 +1782,23 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5498,244 +5527,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C16:G16 I16:AL16 C2:AL5 C10:AL15 C9:I9 C17:AL21 C22:AD22 AF22:AL22 C23:AL25 C27:AL27 C26:P26 R26:AL26 C7:AL8 C6:AI6 AK6:AL6 K9:U9 W9:Z9">
-    <cfRule type="cellIs" dxfId="65" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ9">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW35">
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ35">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ35">
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO35">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ35">
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9:AC9">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF9:AG9">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI9">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT33">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8402,9 +8431,9 @@
   <dimension ref="A1:L660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C249" sqref="C249"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8463,7 +8492,7 @@
       <c r="E2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="72">
         <v>14755</v>
       </c>
       <c r="G2" t="s">
@@ -8489,7 +8518,7 @@
       <c r="E3" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="72">
         <v>7563</v>
       </c>
       <c r="G3" t="s">
@@ -8515,7 +8544,7 @@
       <c r="E4" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="72">
         <v>14450</v>
       </c>
       <c r="G4" t="s">
@@ -8541,7 +8570,7 @@
       <c r="E5" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="72">
         <v>6819</v>
       </c>
       <c r="G5" t="s">
@@ -8567,7 +8596,7 @@
       <c r="E6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="72">
         <v>6786</v>
       </c>
       <c r="G6" t="s">
@@ -8593,7 +8622,7 @@
       <c r="E7" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="72">
         <v>10210</v>
       </c>
       <c r="G7" t="s">
@@ -8619,7 +8648,7 @@
       <c r="E8" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="72">
         <v>11361</v>
       </c>
       <c r="G8" t="s">
@@ -8645,7 +8674,7 @@
       <c r="E9" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="72">
         <v>9345</v>
       </c>
       <c r="G9" t="s">
@@ -8671,7 +8700,7 @@
       <c r="E10" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="72">
         <v>18071</v>
       </c>
       <c r="G10" t="s">
@@ -8697,7 +8726,7 @@
       <c r="E11" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="72">
         <v>14162</v>
       </c>
       <c r="G11" t="s">
@@ -8723,7 +8752,7 @@
       <c r="E12" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="72">
         <v>17768</v>
       </c>
       <c r="G12" t="s">
@@ -8749,7 +8778,7 @@
       <c r="E13" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="72">
         <v>14060</v>
       </c>
       <c r="G13" t="s">
@@ -8763,10 +8792,10 @@
       <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="80">
         <v>1987</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="62" t="s">
@@ -10109,7 +10138,7 @@
       <c r="E60" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="72">
         <v>118590</v>
       </c>
       <c r="G60" t="s">
@@ -10135,7 +10164,7 @@
       <c r="E61" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="72">
         <v>121163</v>
       </c>
       <c r="G61" t="s">
@@ -10161,7 +10190,7 @@
       <c r="E62" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="72">
         <v>111986</v>
       </c>
       <c r="G62" t="s">
@@ -10187,7 +10216,7 @@
       <c r="E63" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="72">
         <v>116543</v>
       </c>
       <c r="G63" t="s">
@@ -10213,7 +10242,7 @@
       <c r="E64" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="72">
         <v>148199</v>
       </c>
       <c r="G64" t="s">
@@ -10297,7 +10326,7 @@
       <c r="E67" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="72">
         <v>15136</v>
       </c>
       <c r="G67" t="s">
@@ -10323,7 +10352,7 @@
       <c r="E68" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="72">
         <v>10999</v>
       </c>
       <c r="G68" t="s">
@@ -10349,7 +10378,7 @@
       <c r="E69" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="72">
         <v>20035</v>
       </c>
       <c r="G69" t="s">
@@ -10375,7 +10404,7 @@
       <c r="E70" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="72">
         <v>37475</v>
       </c>
       <c r="G70" t="s">
@@ -10401,7 +10430,7 @@
       <c r="E71" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="72">
         <v>30501</v>
       </c>
       <c r="G71" t="s">
@@ -10427,7 +10456,7 @@
       <c r="E72" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="72">
         <v>30764</v>
       </c>
       <c r="G72" t="s">
@@ -10453,7 +10482,7 @@
       <c r="E73" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="72">
         <v>31218</v>
       </c>
       <c r="G73" t="s">
@@ -10479,7 +10508,7 @@
       <c r="E74" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="72">
         <v>29266</v>
       </c>
       <c r="G74" t="s">
@@ -10505,7 +10534,7 @@
       <c r="E75" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="72">
         <v>28970</v>
       </c>
       <c r="G75" t="s">
@@ -10531,7 +10560,7 @@
       <c r="E76" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="72">
         <v>29578</v>
       </c>
       <c r="G76" t="s">
@@ -10557,7 +10586,7 @@
       <c r="E77" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="72">
         <v>28196</v>
       </c>
       <c r="G77" t="s">
@@ -10583,7 +10612,7 @@
       <c r="E78" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="72">
         <v>28589</v>
       </c>
       <c r="G78" t="s">
@@ -10609,7 +10638,7 @@
       <c r="E79" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="72">
         <v>27820</v>
       </c>
       <c r="G79" t="s">
@@ -10635,7 +10664,7 @@
       <c r="E80" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="72">
         <v>27079</v>
       </c>
       <c r="G80" t="s">
@@ -10661,7 +10690,7 @@
       <c r="E81" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="72">
         <v>27381</v>
       </c>
       <c r="G81" t="s">
@@ -10687,7 +10716,7 @@
       <c r="E82" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="72">
         <v>26745</v>
       </c>
       <c r="G82" t="s">
@@ -10713,7 +10742,7 @@
       <c r="E83" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="72">
         <v>25135</v>
       </c>
       <c r="G83" t="s">
@@ -10739,7 +10768,7 @@
       <c r="E84" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="72">
         <v>25690</v>
       </c>
       <c r="G84" t="s">
@@ -10765,7 +10794,7 @@
       <c r="E85" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="72">
         <v>25019</v>
       </c>
       <c r="G85" t="s">
@@ -10791,7 +10820,7 @@
       <c r="E86" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="72">
         <v>24231</v>
       </c>
       <c r="G86" t="s">
@@ -10817,7 +10846,7 @@
       <c r="E87" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="72">
         <v>24311</v>
       </c>
       <c r="G87" t="s">
@@ -10846,7 +10875,7 @@
       <c r="E88" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="72">
         <v>23014</v>
       </c>
       <c r="G88" t="s">
@@ -10875,7 +10904,7 @@
       <c r="E89" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="72">
         <v>23437</v>
       </c>
       <c r="G89" t="s">
@@ -10904,7 +10933,7 @@
       <c r="E90" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="72">
         <v>25825</v>
       </c>
       <c r="G90" t="s">
@@ -10933,7 +10962,7 @@
       <c r="E91" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="72">
         <v>26675</v>
       </c>
       <c r="G91" t="s">
@@ -10962,7 +10991,7 @@
       <c r="E92" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="72">
         <v>39769</v>
       </c>
       <c r="G92" t="s">
@@ -10991,7 +11020,7 @@
       <c r="E93" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="72">
         <v>40857</v>
       </c>
       <c r="G93" t="s">
@@ -11136,7 +11165,7 @@
       <c r="E98" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="72">
         <v>3270</v>
       </c>
       <c r="G98" t="s">
@@ -11188,7 +11217,7 @@
       <c r="E100" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="72">
         <v>6778</v>
       </c>
       <c r="G100" t="s">
@@ -11214,7 +11243,7 @@
       <c r="E101" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="72">
         <v>7372</v>
       </c>
       <c r="G101" t="s">
@@ -11240,7 +11269,7 @@
       <c r="E102" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="72">
         <v>7513</v>
       </c>
       <c r="G102" t="s">
@@ -11266,7 +11295,7 @@
       <c r="E103" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="72">
         <v>7502</v>
       </c>
       <c r="G103" t="s">
@@ -11292,7 +11321,7 @@
       <c r="E104" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="72">
         <v>7529</v>
       </c>
       <c r="G104" t="s">
@@ -11318,7 +11347,7 @@
       <c r="E105" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="72">
         <v>7341</v>
       </c>
       <c r="G105" t="s">
@@ -11344,7 +11373,7 @@
       <c r="E106" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="72">
         <v>6792</v>
       </c>
       <c r="G106" t="s">
@@ -11370,7 +11399,7 @@
       <c r="E107" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="72">
         <v>7468</v>
       </c>
       <c r="G107" t="s">
@@ -11396,7 +11425,7 @@
       <c r="E108" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="72">
         <v>7762</v>
       </c>
       <c r="G108" t="s">
@@ -11422,7 +11451,7 @@
       <c r="E109" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="72">
         <v>8122</v>
       </c>
       <c r="G109" t="s">
@@ -11448,7 +11477,7 @@
       <c r="E110" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="72">
         <v>6680</v>
       </c>
       <c r="G110" t="s">
@@ -11474,7 +11503,7 @@
       <c r="E111" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="72">
         <v>7341</v>
       </c>
       <c r="G111" t="s">
@@ -11500,7 +11529,7 @@
       <c r="E112" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="72">
         <v>25793</v>
       </c>
       <c r="G112" t="s">
@@ -11526,7 +11555,7 @@
       <c r="E113" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="72">
         <v>35948</v>
       </c>
       <c r="G113" t="s">
@@ -11552,7 +11581,7 @@
       <c r="E114" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="72">
         <v>45379</v>
       </c>
       <c r="G114" t="s">
@@ -11578,7 +11607,7 @@
       <c r="E115" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="72">
         <v>33636</v>
       </c>
       <c r="G115" t="s">
@@ -11604,7 +11633,7 @@
       <c r="E116" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="72">
         <v>48107</v>
       </c>
       <c r="G116" t="s">
@@ -11630,7 +11659,7 @@
       <c r="E117" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="72">
         <v>65036</v>
       </c>
       <c r="G117" t="s">
@@ -11656,7 +11685,7 @@
       <c r="E118" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="72">
         <v>68153</v>
       </c>
       <c r="G118" t="s">
@@ -11683,7 +11712,7 @@
       <c r="E119" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="72">
         <v>73720</v>
       </c>
       <c r="G119" t="s">
@@ -11709,7 +11738,7 @@
       <c r="E120" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="72">
         <v>71460</v>
       </c>
       <c r="G120" t="s">
@@ -11735,7 +11764,7 @@
       <c r="E121" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="72">
         <v>59084</v>
       </c>
       <c r="G121" t="s">
@@ -11762,7 +11791,7 @@
       <c r="E122" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="72">
         <v>66725</v>
       </c>
       <c r="G122" t="s">
@@ -11788,7 +11817,7 @@
       <c r="E123" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="72">
         <v>83887</v>
       </c>
       <c r="G123" t="s">
@@ -11814,7 +11843,7 @@
       <c r="E124" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="72">
         <v>70948</v>
       </c>
       <c r="G124" t="s">
@@ -11840,7 +11869,7 @@
       <c r="E125" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="72">
         <v>17124</v>
       </c>
       <c r="G125" t="s">
@@ -11866,7 +11895,7 @@
       <c r="E126" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="72">
         <v>17890</v>
       </c>
       <c r="G126" t="s">
@@ -11892,7 +11921,7 @@
       <c r="E127" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="72">
         <v>20745</v>
       </c>
       <c r="G127" t="s">
@@ -11918,7 +11947,7 @@
       <c r="E128" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="72">
         <v>10800</v>
       </c>
       <c r="G128" t="s">
@@ -11944,7 +11973,7 @@
       <c r="E129" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="72">
         <v>12600</v>
       </c>
       <c r="G129" t="s">
@@ -11970,7 +11999,7 @@
       <c r="E130" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="72">
         <v>12899</v>
       </c>
       <c r="G130" t="s">
@@ -11996,7 +12025,7 @@
       <c r="E131" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="72">
         <v>64492</v>
       </c>
       <c r="G131" t="s">
@@ -12022,7 +12051,7 @@
       <c r="E132" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="72">
         <v>129164</v>
       </c>
       <c r="G132" t="s">
@@ -12048,7 +12077,7 @@
       <c r="E133" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="72">
         <v>132481</v>
       </c>
       <c r="G133" t="s">
@@ -12074,7 +12103,7 @@
       <c r="E134" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="72">
         <v>12510</v>
       </c>
       <c r="G134" t="s">
@@ -12100,7 +12129,7 @@
       <c r="E135" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="72">
         <v>151402</v>
       </c>
       <c r="G135" t="s">
@@ -12126,7 +12155,7 @@
       <c r="E136" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="72">
         <v>77557</v>
       </c>
       <c r="G136" t="s">
@@ -12152,7 +12181,7 @@
       <c r="E137" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="72">
         <v>219978</v>
       </c>
       <c r="G137" t="s">
@@ -12178,7 +12207,7 @@
       <c r="E138" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="72">
         <v>221988</v>
       </c>
       <c r="G138" t="s">
@@ -12204,7 +12233,7 @@
       <c r="E139" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="72">
         <v>221181</v>
       </c>
       <c r="G139" t="s">
@@ -12230,7 +12259,7 @@
       <c r="E140" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="72">
         <v>226261</v>
       </c>
       <c r="G140" t="s">
@@ -12256,7 +12285,7 @@
       <c r="E141" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="72">
         <v>230269</v>
       </c>
       <c r="G141" t="s">
@@ -12282,7 +12311,7 @@
       <c r="E142" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="72">
         <v>228662</v>
       </c>
       <c r="G142" t="s">
@@ -12308,7 +12337,7 @@
       <c r="E143" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="72">
         <v>228944</v>
       </c>
       <c r="G143" t="s">
@@ -12334,7 +12363,7 @@
       <c r="E144" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="72">
         <v>228932</v>
       </c>
       <c r="G144" t="s">
@@ -12360,7 +12389,7 @@
       <c r="E145" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="72">
         <v>232219</v>
       </c>
       <c r="G145" t="s">
@@ -12386,7 +12415,7 @@
       <c r="E146" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="72">
         <v>231178</v>
       </c>
       <c r="G146" t="s">
@@ -12412,7 +12441,7 @@
       <c r="E147" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="72">
         <v>230909</v>
       </c>
       <c r="G147" t="s">
@@ -12438,7 +12467,7 @@
       <c r="E148" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="72">
         <v>231128</v>
       </c>
       <c r="G148" t="s">
@@ -12464,7 +12493,7 @@
       <c r="E149" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="72">
         <v>231831</v>
       </c>
       <c r="G149" t="s">
@@ -12490,7 +12519,7 @@
       <c r="E150" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="72">
         <v>134399</v>
       </c>
       <c r="G150" t="s">
@@ -12545,7 +12574,7 @@
       <c r="E152" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F152" s="79">
+      <c r="F152" s="72">
         <v>28148</v>
       </c>
       <c r="G152" s="62" t="s">
@@ -12603,7 +12632,7 @@
       <c r="E154" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="72">
         <v>4351</v>
       </c>
       <c r="G154" t="s">
@@ -12629,7 +12658,7 @@
       <c r="E155" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="72">
         <v>11294</v>
       </c>
       <c r="G155" t="s">
@@ -12655,7 +12684,7 @@
       <c r="E156" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="72">
         <v>8866</v>
       </c>
       <c r="G156" t="s">
@@ -12681,7 +12710,7 @@
       <c r="E157" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="72">
         <v>8053</v>
       </c>
       <c r="G157" t="s">
@@ -12707,7 +12736,7 @@
       <c r="E158" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="72">
         <v>8701</v>
       </c>
       <c r="G158" t="s">
@@ -12776,19 +12805,19 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="A161" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="82">
         <v>1981</v>
       </c>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D161" s="62" t="s">
+      <c r="D161" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="E161" s="59" t="s">
+      <c r="E161" s="84" t="s">
         <v>70</v>
       </c>
       <c r="F161" s="72">
@@ -13139,7 +13168,7 @@
       <c r="E173" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="72">
         <v>6768</v>
       </c>
       <c r="G173" t="s">
@@ -13168,7 +13197,7 @@
       <c r="E174" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="72">
         <v>6699</v>
       </c>
       <c r="G174" t="s">
@@ -13255,7 +13284,7 @@
       <c r="E177" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="72">
         <v>7220</v>
       </c>
       <c r="G177" t="s">
@@ -13284,7 +13313,7 @@
       <c r="E178" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="72">
         <v>13082</v>
       </c>
       <c r="G178" t="s">
@@ -13313,7 +13342,7 @@
       <c r="E179" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="72">
         <v>11796</v>
       </c>
       <c r="G179" t="s">
@@ -13339,7 +13368,7 @@
       <c r="E180" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="72">
         <v>12320</v>
       </c>
       <c r="G180" t="s">
@@ -13365,7 +13394,7 @@
       <c r="E181" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="72">
         <v>11909</v>
       </c>
       <c r="G181" t="s">
@@ -13391,7 +13420,7 @@
       <c r="E182" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="72">
         <v>11644</v>
       </c>
       <c r="G182" t="s">
@@ -13417,7 +13446,7 @@
       <c r="E183" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="72">
         <v>11294</v>
       </c>
       <c r="G183" t="s">
@@ -13443,7 +13472,7 @@
       <c r="E184" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="72">
         <v>12361</v>
       </c>
       <c r="G184" t="s">
@@ -13469,7 +13498,7 @@
       <c r="E185" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="72">
         <v>11552</v>
       </c>
       <c r="G185" t="s">
@@ -13495,7 +13524,7 @@
       <c r="E186" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="72">
         <v>10921</v>
       </c>
       <c r="G186" t="s">
@@ -13521,7 +13550,7 @@
       <c r="E187" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="72">
         <v>10270</v>
       </c>
       <c r="G187" t="s">
@@ -13547,7 +13576,7 @@
       <c r="E188" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="72">
         <v>13888</v>
       </c>
       <c r="G188" t="s">
@@ -13573,7 +13602,7 @@
       <c r="E189" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="72">
         <v>16703</v>
       </c>
       <c r="G189" t="s">
@@ -13599,7 +13628,7 @@
       <c r="E190" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="72">
         <v>16397</v>
       </c>
       <c r="G190" t="s">
@@ -13625,7 +13654,7 @@
       <c r="E191" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="72">
         <v>17992</v>
       </c>
       <c r="G191" t="s">
@@ -13651,7 +13680,7 @@
       <c r="E192" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="72">
         <v>15946</v>
       </c>
       <c r="G192" t="s">
@@ -13677,7 +13706,7 @@
       <c r="E193" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="72">
         <v>15908</v>
       </c>
       <c r="G193" t="s">
@@ -13703,7 +13732,7 @@
       <c r="E194" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="72">
         <v>14426</v>
       </c>
       <c r="G194" t="s">
@@ -13961,7 +13990,7 @@
       <c r="E203" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="72">
         <v>83409</v>
       </c>
       <c r="G203" t="s">
@@ -13987,7 +14016,7 @@
       <c r="E204" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="72">
         <v>84669</v>
       </c>
       <c r="G204" t="s">
@@ -14013,7 +14042,7 @@
       <c r="E205" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="72">
         <v>85645</v>
       </c>
       <c r="G205" t="s">
@@ -14039,7 +14068,7 @@
       <c r="E206" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="72">
         <v>87517</v>
       </c>
       <c r="G206" t="s">
@@ -14065,7 +14094,7 @@
       <c r="E207" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="72">
         <v>89245</v>
       </c>
       <c r="G207" t="s">
@@ -14091,7 +14120,7 @@
       <c r="E208" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="72">
         <v>8363</v>
       </c>
       <c r="G208" t="s">
@@ -14117,7 +14146,7 @@
       <c r="E209" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="72">
         <v>12060</v>
       </c>
       <c r="G209" t="s">
@@ -14288,7 +14317,7 @@
       <c r="E215" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="72">
         <v>12996</v>
       </c>
       <c r="G215" t="s">
@@ -14314,7 +14343,7 @@
       <c r="E216" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="72">
         <v>13014</v>
       </c>
       <c r="G216" t="s">
@@ -14340,7 +14369,7 @@
       <c r="E217" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="72">
         <v>13109</v>
       </c>
       <c r="G217" t="s">
@@ -14366,7 +14395,7 @@
       <c r="E218" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="72">
         <v>11965</v>
       </c>
       <c r="G218" t="s">
@@ -14392,7 +14421,7 @@
       <c r="E219" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="72">
         <v>13740</v>
       </c>
       <c r="G219" t="s">
@@ -14418,7 +14447,7 @@
       <c r="E220" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="72">
         <v>6068</v>
       </c>
       <c r="G220" t="s">
@@ -14444,7 +14473,7 @@
       <c r="E221" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="72">
         <v>4169</v>
       </c>
       <c r="G221" t="s">
@@ -14470,7 +14499,7 @@
       <c r="E222" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="72">
         <v>4744</v>
       </c>
       <c r="G222" t="s">
@@ -14496,7 +14525,7 @@
       <c r="E223" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="72">
         <v>4993</v>
       </c>
       <c r="G223" t="s">
@@ -14522,7 +14551,7 @@
       <c r="E224" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="72">
         <v>5871</v>
       </c>
       <c r="G224" t="s">
@@ -14548,7 +14577,7 @@
       <c r="E225" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="72">
         <v>6155</v>
       </c>
       <c r="G225" t="s">
@@ -14690,7 +14719,7 @@
       <c r="E230" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="72">
         <v>11229</v>
       </c>
       <c r="G230" t="s">
@@ -14716,7 +14745,7 @@
       <c r="E231" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="72">
         <v>10472</v>
       </c>
       <c r="G231" t="s">
@@ -14742,7 +14771,7 @@
       <c r="E232" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="72">
         <v>9351</v>
       </c>
       <c r="G232" t="s">
@@ -14768,7 +14797,7 @@
       <c r="E233" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="72">
         <v>11030</v>
       </c>
       <c r="G233" t="s">
@@ -14794,7 +14823,7 @@
       <c r="E234" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="72">
         <v>10210</v>
       </c>
       <c r="G234" t="s">
@@ -14820,7 +14849,7 @@
       <c r="E235" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="72">
         <v>37798</v>
       </c>
       <c r="G235" t="s">
@@ -14846,7 +14875,7 @@
       <c r="E236" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="72">
         <v>34643</v>
       </c>
       <c r="G236" t="s">
@@ -14860,10 +14889,10 @@
       <c r="A237" t="s">
         <v>87</v>
       </c>
-      <c r="B237" s="81">
+      <c r="B237" s="80">
         <v>1978</v>
       </c>
-      <c r="C237" s="80" t="s">
+      <c r="C237" s="79" t="s">
         <v>164</v>
       </c>
       <c r="D237" t="s">
@@ -14938,10 +14967,10 @@
       <c r="A240" t="s">
         <v>87</v>
       </c>
-      <c r="B240" s="81">
+      <c r="B240" s="80">
         <v>1989</v>
       </c>
-      <c r="C240" s="80" t="s">
+      <c r="C240" s="79" t="s">
         <v>164</v>
       </c>
       <c r="D240" t="s">
@@ -14990,10 +15019,10 @@
       <c r="A242" t="s">
         <v>87</v>
       </c>
-      <c r="B242" s="81">
+      <c r="B242" s="80">
         <v>1994</v>
       </c>
-      <c r="C242" s="80" t="s">
+      <c r="C242" s="79" t="s">
         <v>164</v>
       </c>
       <c r="D242" t="s">
@@ -15792,16 +15821,16 @@
         <v>1995</v>
       </c>
       <c r="C272" s="63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D272" s="62" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E272" s="59" t="s">
         <v>70</v>
       </c>
       <c r="F272" s="72">
-        <v>6797</v>
+        <v>26435</v>
       </c>
       <c r="G272" t="s">
         <v>180</v>
@@ -16061,7 +16090,7 @@
       <c r="E281" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="72">
         <v>28041</v>
       </c>
       <c r="G281" t="s">
@@ -16087,7 +16116,7 @@
       <c r="E282" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="72">
         <v>28029</v>
       </c>
       <c r="G282" t="s">
@@ -16139,7 +16168,7 @@
       <c r="E284" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="72">
         <v>24977</v>
       </c>
       <c r="G284" t="s">
@@ -16165,7 +16194,7 @@
       <c r="E285" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="72">
         <v>25088</v>
       </c>
       <c r="G285" t="s">
@@ -16191,7 +16220,7 @@
       <c r="E286" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="72">
         <v>25200</v>
       </c>
       <c r="G286" t="s">
@@ -16217,7 +16246,7 @@
       <c r="E287" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="72">
         <v>25350</v>
       </c>
       <c r="G287" t="s">
@@ -16243,7 +16272,7 @@
       <c r="E288" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="72">
         <v>20759</v>
       </c>
       <c r="G288" t="s">
@@ -16269,7 +16298,7 @@
       <c r="E289" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="72">
         <v>20196</v>
       </c>
       <c r="G289" t="s">
@@ -16295,7 +16324,7 @@
       <c r="E290" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="72">
         <v>20137</v>
       </c>
       <c r="G290" t="s">
@@ -16321,7 +16350,7 @@
       <c r="E291" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="72">
         <v>19535</v>
       </c>
       <c r="G291" t="s">
@@ -16347,7 +16376,7 @@
       <c r="E292" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="72">
         <v>19322</v>
       </c>
       <c r="G292" t="s">
@@ -16373,7 +16402,7 @@
       <c r="E293" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="72">
         <v>19380</v>
       </c>
       <c r="G293" t="s">
@@ -16399,7 +16428,7 @@
       <c r="E294" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="72">
         <v>19105</v>
       </c>
       <c r="G294" t="s">
@@ -16425,7 +16454,7 @@
       <c r="E295" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="72">
         <v>19169</v>
       </c>
       <c r="G295" t="s">
@@ -16451,7 +16480,7 @@
       <c r="E296" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="72">
         <v>19210</v>
       </c>
       <c r="G296" t="s">
@@ -16477,7 +16506,7 @@
       <c r="E297" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="72">
         <v>10007</v>
       </c>
       <c r="G297" t="s">
@@ -16503,7 +16532,7 @@
       <c r="E298" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="72">
         <v>4166</v>
       </c>
       <c r="G298" t="s">
@@ -16529,7 +16558,7 @@
       <c r="E299" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="72">
         <v>5669</v>
       </c>
       <c r="G299" t="s">
@@ -16555,7 +16584,7 @@
       <c r="E300" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="72">
         <v>2760</v>
       </c>
       <c r="G300" t="s">
@@ -16581,7 +16610,7 @@
       <c r="E301" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="72">
         <v>2877</v>
       </c>
       <c r="G301" t="s">
@@ -16607,7 +16636,7 @@
       <c r="E302" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="72">
         <v>2827</v>
       </c>
       <c r="G302" t="s">
@@ -16633,7 +16662,7 @@
       <c r="E303" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="72">
         <v>2824</v>
       </c>
       <c r="G303" t="s">
@@ -16659,7 +16688,7 @@
       <c r="E304" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="72">
         <v>2783</v>
       </c>
       <c r="G304" t="s">
@@ -16685,7 +16714,7 @@
       <c r="E305" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="72">
         <v>2768</v>
       </c>
       <c r="G305" t="s">
@@ -16711,7 +16740,7 @@
       <c r="E306" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="72">
         <v>2170</v>
       </c>
       <c r="G306" t="s">
@@ -16737,7 +16766,7 @@
       <c r="E307" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="72">
         <v>2742</v>
       </c>
       <c r="G307" t="s">
@@ -16763,7 +16792,7 @@
       <c r="E308" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="72">
         <v>3243</v>
       </c>
       <c r="G308" t="s">
@@ -16847,7 +16876,7 @@
       <c r="E311" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="72">
         <v>5568</v>
       </c>
       <c r="G311" t="s">
@@ -16873,7 +16902,7 @@
       <c r="E312" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="72">
         <v>6504</v>
       </c>
       <c r="G312" t="s">
@@ -16899,7 +16928,7 @@
       <c r="E313" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="72">
         <v>6029</v>
       </c>
       <c r="G313" t="s">
@@ -16925,7 +16954,7 @@
       <c r="E314" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="72">
         <v>8620</v>
       </c>
       <c r="G314" t="s">
@@ -16951,7 +16980,7 @@
       <c r="E315" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="72">
         <v>22743</v>
       </c>
       <c r="G315" t="s">
@@ -16977,7 +17006,7 @@
       <c r="E316" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="72">
         <v>13686</v>
       </c>
       <c r="G316" t="s">
@@ -17003,7 +17032,7 @@
       <c r="E317" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F317">
+      <c r="F317" s="72">
         <v>13482</v>
       </c>
       <c r="G317" t="s">
@@ -17029,7 +17058,7 @@
       <c r="E318" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="72">
         <v>11536</v>
       </c>
       <c r="G318" t="s">
@@ -17113,7 +17142,7 @@
       <c r="E321" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F321" s="79">
+      <c r="F321" s="72">
         <v>2013</v>
       </c>
       <c r="G321" s="62" t="s">
@@ -17142,7 +17171,7 @@
       <c r="E322" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="72">
         <v>2058</v>
       </c>
       <c r="G322" t="s">
@@ -17168,7 +17197,7 @@
       <c r="E323" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="72">
         <v>2024</v>
       </c>
       <c r="G323" t="s">
@@ -17194,7 +17223,7 @@
       <c r="E324" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="72">
         <v>2048</v>
       </c>
       <c r="G324" t="s">
@@ -17220,7 +17249,7 @@
       <c r="E325" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="72">
         <v>2061</v>
       </c>
       <c r="G325" t="s">
@@ -17246,7 +17275,7 @@
       <c r="E326" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="72">
         <v>2772</v>
       </c>
       <c r="G326" t="s">
@@ -17272,7 +17301,7 @@
       <c r="E327" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="72">
         <v>41554</v>
       </c>
       <c r="G327" t="s">
@@ -17298,7 +17327,7 @@
       <c r="E328" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="72">
         <v>42152</v>
       </c>
       <c r="G328" t="s">
@@ -17469,7 +17498,7 @@
       <c r="E334" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="72">
         <v>3090</v>
       </c>
       <c r="G334" t="s">
@@ -17498,7 +17527,7 @@
       <c r="E335" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="72">
         <v>5477</v>
       </c>
       <c r="G335" t="s">
@@ -17527,7 +17556,7 @@
       <c r="E336" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="72">
         <v>6085</v>
       </c>
       <c r="G336" t="s">
@@ -17556,7 +17585,7 @@
       <c r="E337" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F337">
+      <c r="F337" s="72">
         <v>5836</v>
       </c>
       <c r="G337" t="s">
@@ -17585,7 +17614,7 @@
       <c r="E338" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F338">
+      <c r="F338" s="72">
         <v>5608</v>
       </c>
       <c r="G338" t="s">
@@ -17614,7 +17643,7 @@
       <c r="E339" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F339">
+      <c r="F339" s="72">
         <v>5247</v>
       </c>
       <c r="G339" t="s">
@@ -17643,7 +17672,7 @@
       <c r="E340" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="72">
         <v>5183</v>
       </c>
       <c r="G340" t="s">
@@ -17672,7 +17701,7 @@
       <c r="E341" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F341">
+      <c r="F341" s="72">
         <v>4642</v>
       </c>
       <c r="G341" t="s">
@@ -17701,7 +17730,7 @@
       <c r="E342" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F342">
+      <c r="F342" s="72">
         <v>4333</v>
       </c>
       <c r="G342" t="s">
@@ -17730,7 +17759,7 @@
       <c r="E343" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F343">
+      <c r="F343" s="72">
         <v>4592</v>
       </c>
       <c r="G343" t="s">
@@ -17759,7 +17788,7 @@
       <c r="E344" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="72">
         <v>4922</v>
       </c>
       <c r="G344" t="s">
@@ -17788,7 +17817,7 @@
       <c r="E345" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="72">
         <v>5486</v>
       </c>
       <c r="G345" t="s">
@@ -17817,7 +17846,7 @@
       <c r="E346" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="72">
         <v>5452</v>
       </c>
       <c r="G346" t="s">
@@ -17846,7 +17875,7 @@
       <c r="E347" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="72">
         <v>5418</v>
       </c>
       <c r="G347" t="s">
@@ -17875,7 +17904,7 @@
       <c r="E348" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="72">
         <v>5029</v>
       </c>
       <c r="G348" t="s">
@@ -17904,7 +17933,7 @@
       <c r="E349" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="72">
         <v>4382</v>
       </c>
       <c r="G349" t="s">
@@ -17933,7 +17962,7 @@
       <c r="E350" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F350">
+      <c r="F350" s="72">
         <v>4183</v>
       </c>
       <c r="G350" t="s">
@@ -17962,7 +17991,7 @@
       <c r="E351" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="72">
         <v>2928</v>
       </c>
       <c r="G351" t="s">
@@ -17988,7 +18017,7 @@
       <c r="E352" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="72">
         <v>2887</v>
       </c>
       <c r="G352" t="s">
@@ -18014,7 +18043,7 @@
       <c r="E353" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="72">
         <v>3018</v>
       </c>
       <c r="G353" t="s">
@@ -18040,7 +18069,7 @@
       <c r="E354" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F354">
+      <c r="F354" s="72">
         <v>2271</v>
       </c>
       <c r="G354" t="s">
@@ -18066,7 +18095,7 @@
       <c r="E355" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="72">
         <v>5000</v>
       </c>
       <c r="G355" t="s">
@@ -18092,7 +18121,7 @@
       <c r="E356" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="72">
         <v>5212</v>
       </c>
       <c r="G356" t="s">
@@ -18118,7 +18147,7 @@
       <c r="E357" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="72">
         <v>5230</v>
       </c>
       <c r="G357" t="s">
@@ -18144,7 +18173,7 @@
       <c r="E358" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="72">
         <v>5787</v>
       </c>
       <c r="G358" t="s">
@@ -18170,7 +18199,7 @@
       <c r="E359" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="72">
         <v>6227</v>
       </c>
       <c r="G359" t="s">
@@ -18196,7 +18225,7 @@
       <c r="E360" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="72">
         <v>6218</v>
       </c>
       <c r="G360" t="s">
@@ -18222,7 +18251,7 @@
       <c r="E361" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="72">
         <v>6132</v>
       </c>
       <c r="G361" t="s">
@@ -18248,7 +18277,7 @@
       <c r="E362" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="72">
         <v>6272</v>
       </c>
       <c r="G362" t="s">
@@ -18274,7 +18303,7 @@
       <c r="E363" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F363">
+      <c r="F363" s="72">
         <v>6259</v>
       </c>
       <c r="G363" t="s">
@@ -18300,7 +18329,7 @@
       <c r="E364" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F364">
+      <c r="F364" s="72">
         <v>6173</v>
       </c>
       <c r="G364" t="s">
@@ -18326,7 +18355,7 @@
       <c r="E365" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="72">
         <v>5971</v>
       </c>
       <c r="G365" t="s">
@@ -18352,7 +18381,7 @@
       <c r="E366" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="72">
         <v>6270</v>
       </c>
       <c r="G366" t="s">
@@ -18378,7 +18407,7 @@
       <c r="E367" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="72">
         <v>6168</v>
       </c>
       <c r="G367" t="s">
@@ -18404,7 +18433,7 @@
       <c r="E368" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F368">
+      <c r="F368" s="72">
         <v>6051</v>
       </c>
       <c r="G368" t="s">
@@ -18430,7 +18459,7 @@
       <c r="E369" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F369">
+      <c r="F369" s="72">
         <v>8742</v>
       </c>
       <c r="G369" t="s">
@@ -18456,7 +18485,7 @@
       <c r="E370" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F370">
+      <c r="F370" s="72">
         <v>9507</v>
       </c>
       <c r="G370" t="s">
@@ -18482,7 +18511,7 @@
       <c r="E371" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F371">
+      <c r="F371" s="72">
         <v>8465</v>
       </c>
       <c r="G371" t="s">
@@ -18508,7 +18537,7 @@
       <c r="E372" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F372">
+      <c r="F372" s="72">
         <v>8550</v>
       </c>
       <c r="G372" t="s">
@@ -18534,7 +18563,7 @@
       <c r="E373" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="72">
         <v>8903</v>
       </c>
       <c r="G373" t="s">
@@ -18560,7 +18589,7 @@
       <c r="E374" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="F374">
+      <c r="F374" s="72">
         <v>9017</v>
       </c>
       <c r="G374" t="s">
@@ -18586,7 +18615,7 @@
       <c r="E375" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F375">
+      <c r="F375" s="72">
         <v>8792</v>
       </c>
       <c r="G375" t="s">
@@ -18612,7 +18641,7 @@
       <c r="E376" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F376">
+      <c r="F376" s="72">
         <v>8022</v>
       </c>
       <c r="G376" t="s">
@@ -18641,7 +18670,7 @@
       <c r="E377" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F377">
+      <c r="F377" s="72">
         <v>8027</v>
       </c>
       <c r="G377" t="s">
@@ -18670,7 +18699,7 @@
       <c r="E378" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="72">
         <v>8274</v>
       </c>
       <c r="G378" t="s">
@@ -18699,7 +18728,7 @@
       <c r="E379" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F379">
+      <c r="F379" s="72">
         <v>8188</v>
       </c>
       <c r="G379" t="s">
@@ -18728,7 +18757,7 @@
       <c r="E380" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="72">
         <v>8089</v>
       </c>
       <c r="G380" t="s">
@@ -18757,7 +18786,7 @@
       <c r="E381" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F381">
+      <c r="F381" s="72">
         <v>8135</v>
       </c>
       <c r="G381" t="s">
@@ -18786,7 +18815,7 @@
       <c r="E382" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F382">
+      <c r="F382" s="72">
         <v>7147</v>
       </c>
       <c r="G382" t="s">
@@ -18815,7 +18844,7 @@
       <c r="E383" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="72">
         <v>8001</v>
       </c>
       <c r="G383" t="s">
@@ -18844,7 +18873,7 @@
       <c r="E384" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F384">
+      <c r="F384" s="72">
         <v>8012</v>
       </c>
       <c r="G384" t="s">
@@ -18873,7 +18902,7 @@
       <c r="E385" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F385">
+      <c r="F385" s="72">
         <v>7977</v>
       </c>
       <c r="G385" t="s">
@@ -18902,7 +18931,7 @@
       <c r="E386" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F386">
+      <c r="F386" s="72">
         <v>7951</v>
       </c>
       <c r="G386" t="s">
@@ -18931,7 +18960,7 @@
       <c r="E387" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="72">
         <v>8156</v>
       </c>
       <c r="G387" t="s">
@@ -18960,7 +18989,7 @@
       <c r="E388" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="72">
         <v>7421</v>
       </c>
       <c r="G388" t="s">
@@ -18989,7 +19018,7 @@
       <c r="E389" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="72">
         <v>4022</v>
       </c>
       <c r="G389" t="s">
@@ -19018,7 +19047,7 @@
       <c r="E390" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="72">
         <v>3160</v>
       </c>
       <c r="G390" t="s">
@@ -19047,7 +19076,7 @@
       <c r="E391" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="72">
         <v>2358</v>
       </c>
       <c r="G391" t="s">
@@ -19076,7 +19105,7 @@
       <c r="E392" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="72">
         <v>15532</v>
       </c>
       <c r="G392" t="s">
@@ -19102,7 +19131,7 @@
       <c r="E393" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="72">
         <v>13655</v>
       </c>
       <c r="G393" t="s">
@@ -19128,7 +19157,7 @@
       <c r="E394" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="72">
         <v>13317</v>
       </c>
       <c r="G394" t="s">
@@ -19154,7 +19183,7 @@
       <c r="E395" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="72">
         <v>13075</v>
       </c>
       <c r="G395" t="s">
@@ -19180,7 +19209,7 @@
       <c r="E396" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="72">
         <v>12377</v>
       </c>
       <c r="G396" t="s">
@@ -19206,7 +19235,7 @@
       <c r="E397" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="72">
         <v>11442</v>
       </c>
       <c r="G397" t="s">
@@ -19232,7 +19261,7 @@
       <c r="E398" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F398">
+      <c r="F398" s="72">
         <v>5314</v>
       </c>
       <c r="G398" t="s">
@@ -19258,7 +19287,7 @@
       <c r="E399" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="72">
         <v>5200</v>
       </c>
       <c r="G399" t="s">
@@ -19284,7 +19313,7 @@
       <c r="E400" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="72">
         <v>5394</v>
       </c>
       <c r="G400" t="s">
@@ -19310,7 +19339,7 @@
       <c r="E401" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="72">
         <v>5142</v>
       </c>
       <c r="G401" t="s">
@@ -19336,7 +19365,7 @@
       <c r="E402" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F402">
+      <c r="F402" s="72">
         <v>5194</v>
       </c>
       <c r="G402" t="s">
@@ -19362,7 +19391,7 @@
       <c r="E403" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F403">
+      <c r="F403" s="72">
         <v>4849</v>
       </c>
       <c r="G403" t="s">
@@ -19388,7 +19417,7 @@
       <c r="E404" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="72">
         <v>4808</v>
       </c>
       <c r="G404" t="s">
@@ -19414,7 +19443,7 @@
       <c r="E405" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F405">
+      <c r="F405" s="72">
         <v>4944</v>
       </c>
       <c r="G405" t="s">
@@ -19440,7 +19469,7 @@
       <c r="E406" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="72">
         <v>4905</v>
       </c>
       <c r="G406" t="s">
@@ -19466,7 +19495,7 @@
       <c r="E407" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F407">
+      <c r="F407" s="72">
         <v>5131</v>
       </c>
       <c r="G407" t="s">
@@ -19637,7 +19666,7 @@
       <c r="E413" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="72">
         <v>3622</v>
       </c>
       <c r="G413" t="s">
@@ -19663,7 +19692,7 @@
       <c r="E414" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="72">
         <v>3779</v>
       </c>
       <c r="G414" t="s">
@@ -19689,7 +19718,7 @@
       <c r="E415" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="72">
         <v>5464</v>
       </c>
       <c r="G415" t="s">
@@ -19715,7 +19744,7 @@
       <c r="E416" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="72">
         <v>3879</v>
       </c>
       <c r="G416" t="s">
@@ -19741,6 +19770,7 @@
       <c r="E417" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F417" s="72"/>
       <c r="G417" t="s">
         <v>174</v>
       </c>
@@ -19764,6 +19794,7 @@
       <c r="E418" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F418" s="72"/>
       <c r="G418" t="s">
         <v>174</v>
       </c>
@@ -19787,6 +19818,7 @@
       <c r="E419" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F419" s="72"/>
       <c r="G419" t="s">
         <v>174</v>
       </c>
@@ -19810,6 +19842,7 @@
       <c r="E420" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F420" s="72"/>
       <c r="G420" t="s">
         <v>174</v>
       </c>
@@ -19833,6 +19866,7 @@
       <c r="E421" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F421" s="72"/>
       <c r="G421" t="s">
         <v>174</v>
       </c>
@@ -19856,7 +19890,7 @@
       <c r="E422" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="72">
         <v>6893</v>
       </c>
       <c r="G422" t="s">
@@ -19885,6 +19919,7 @@
       <c r="E423" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F423" s="72"/>
       <c r="G423" t="s">
         <v>298</v>
       </c>
@@ -19911,6 +19946,7 @@
       <c r="E424" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F424" s="72"/>
       <c r="G424" t="s">
         <v>298</v>
       </c>
@@ -19937,6 +19973,7 @@
       <c r="E425" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F425" s="72"/>
       <c r="G425" t="s">
         <v>298</v>
       </c>
@@ -19963,6 +20000,7 @@
       <c r="E426" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F426" s="72"/>
       <c r="G426" t="s">
         <v>298</v>
       </c>
@@ -19989,6 +20027,7 @@
       <c r="E427" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F427" s="72"/>
       <c r="G427" t="s">
         <v>298</v>
       </c>
@@ -20015,6 +20054,7 @@
       <c r="E428" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F428" s="72"/>
       <c r="G428" t="s">
         <v>298</v>
       </c>
@@ -20041,6 +20081,7 @@
       <c r="E429" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F429" s="72"/>
       <c r="G429" t="s">
         <v>298</v>
       </c>
@@ -20056,7 +20097,7 @@
         <v>346</v>
       </c>
       <c r="B430" s="1">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C430" t="s">
         <v>347</v>
@@ -20067,6 +20108,7 @@
       <c r="E430" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F430" s="72"/>
       <c r="G430" t="s">
         <v>298</v>
       </c>
@@ -20093,7 +20135,7 @@
       <c r="E431" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F431">
+      <c r="F431" s="72">
         <v>4735</v>
       </c>
       <c r="G431" t="s">
@@ -20119,7 +20161,7 @@
       <c r="E432" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F432">
+      <c r="F432" s="72">
         <v>11531</v>
       </c>
       <c r="G432" t="s">
@@ -20145,7 +20187,7 @@
       <c r="E433" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="72">
         <v>10530</v>
       </c>
       <c r="G433" t="s">
@@ -20171,7 +20213,7 @@
       <c r="E434" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="72">
         <v>12815</v>
       </c>
       <c r="G434" t="s">
@@ -20197,7 +20239,7 @@
       <c r="E435" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="72">
         <v>14042</v>
       </c>
       <c r="G435" t="s">
@@ -20223,7 +20265,7 @@
       <c r="E436" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F436">
+      <c r="F436" s="72">
         <v>10952</v>
       </c>
       <c r="G436" t="s">
@@ -20249,7 +20291,7 @@
       <c r="E437" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F437">
+      <c r="F437" s="72">
         <v>10108</v>
       </c>
       <c r="G437" t="s">
@@ -20275,7 +20317,7 @@
       <c r="E438" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F438">
+      <c r="F438" s="72">
         <v>17167</v>
       </c>
       <c r="G438" t="s">
@@ -20301,7 +20343,7 @@
       <c r="E439" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F439">
+      <c r="F439" s="72">
         <v>22595</v>
       </c>
       <c r="G439" t="s">
@@ -20327,7 +20369,7 @@
       <c r="E440" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F440">
+      <c r="F440" s="72">
         <v>23174</v>
       </c>
       <c r="G440" t="s">
@@ -20353,7 +20395,7 @@
       <c r="E441" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F441">
+      <c r="F441" s="72">
         <v>20875</v>
       </c>
       <c r="G441" t="s">
@@ -20379,7 +20421,7 @@
       <c r="E442" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F442">
+      <c r="F442" s="72">
         <v>10337</v>
       </c>
       <c r="G442" t="s">
@@ -20405,7 +20447,7 @@
       <c r="E443" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F443">
+      <c r="F443" s="72">
         <v>27655</v>
       </c>
       <c r="G443" t="s">
@@ -20431,7 +20473,7 @@
       <c r="E444" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F444">
+      <c r="F444" s="72">
         <v>9002</v>
       </c>
       <c r="G444" t="s">
@@ -20457,7 +20499,7 @@
       <c r="E445" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F445">
+      <c r="F445" s="72">
         <v>19479</v>
       </c>
       <c r="G445" t="s">
@@ -20483,7 +20525,7 @@
       <c r="E446" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F446">
+      <c r="F446" s="72">
         <v>70311</v>
       </c>
       <c r="G446" t="s">
@@ -20509,7 +20551,7 @@
       <c r="E447" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F447">
+      <c r="F447" s="72">
         <v>74647</v>
       </c>
       <c r="G447" t="s">
@@ -21057,7 +21099,7 @@
       <c r="E466" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F466">
+      <c r="F466" s="72">
         <v>13131</v>
       </c>
       <c r="G466" t="s">
@@ -21083,7 +21125,7 @@
       <c r="E467" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F467">
+      <c r="F467" s="72">
         <v>217884</v>
       </c>
       <c r="G467" t="s">
@@ -21109,7 +21151,7 @@
       <c r="E468" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F468">
+      <c r="F468" s="72">
         <v>228200</v>
       </c>
       <c r="G468" t="s">
@@ -21135,7 +21177,7 @@
       <c r="E469" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F469">
+      <c r="F469" s="72">
         <v>235732</v>
       </c>
       <c r="G469" t="s">
@@ -21161,7 +21203,7 @@
       <c r="E470" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F470">
+      <c r="F470" s="72">
         <v>243915</v>
       </c>
       <c r="G470" t="s">
@@ -21187,7 +21229,7 @@
       <c r="E471" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F471">
+      <c r="F471" s="72">
         <v>257116</v>
       </c>
       <c r="G471" t="s">
@@ -21213,7 +21255,7 @@
       <c r="E472" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F472">
+      <c r="F472" s="72">
         <v>261320</v>
       </c>
       <c r="G472" t="s">
@@ -21239,7 +21281,7 @@
       <c r="E473" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F473">
+      <c r="F473" s="72">
         <v>3736</v>
       </c>
       <c r="G473" t="s">
@@ -21265,7 +21307,7 @@
       <c r="E474" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F474">
+      <c r="F474" s="72">
         <v>13091</v>
       </c>
       <c r="G474" t="s">
@@ -21291,7 +21333,7 @@
       <c r="E475" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F475">
+      <c r="F475" s="72">
         <v>13391</v>
       </c>
       <c r="G475" t="s">
@@ -21317,7 +21359,7 @@
       <c r="E476" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F476">
+      <c r="F476" s="72">
         <v>11905</v>
       </c>
       <c r="G476" t="s">
@@ -21346,7 +21388,7 @@
       <c r="E477" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F477">
+      <c r="F477" s="72">
         <v>11610</v>
       </c>
       <c r="G477" t="s">
@@ -21375,7 +21417,7 @@
       <c r="E478" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F478">
+      <c r="F478" s="72">
         <v>19502</v>
       </c>
       <c r="G478" t="s">
@@ -21401,6 +21443,7 @@
       <c r="E479" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F479" s="72"/>
       <c r="G479" t="s">
         <v>309</v>
       </c>
@@ -21424,6 +21467,7 @@
       <c r="E480" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F480" s="72"/>
       <c r="G480" t="s">
         <v>309</v>
       </c>
@@ -21447,7 +21491,7 @@
       <c r="E481" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="72">
         <v>22204</v>
       </c>
       <c r="G481" t="s">
@@ -21473,6 +21517,7 @@
       <c r="E482" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F482" s="72"/>
       <c r="G482" t="s">
         <v>309</v>
       </c>
@@ -21496,6 +21541,7 @@
       <c r="E483" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F483" s="72"/>
       <c r="G483" t="s">
         <v>309</v>
       </c>
@@ -21519,7 +21565,7 @@
       <c r="E484" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F484">
+      <c r="F484" s="72">
         <v>21496</v>
       </c>
       <c r="G484" t="s">
@@ -21546,6 +21592,7 @@
       <c r="E485" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F485" s="72"/>
       <c r="G485" t="s">
         <v>309</v>
       </c>
@@ -21570,6 +21617,7 @@
       <c r="E486" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F486" s="72"/>
       <c r="G486" t="s">
         <v>309</v>
       </c>
@@ -21594,7 +21642,7 @@
       <c r="E487" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F487">
+      <c r="F487" s="72">
         <v>30453</v>
       </c>
       <c r="G487" t="s">
@@ -21620,6 +21668,7 @@
       <c r="E488" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F488" s="72"/>
       <c r="G488" t="s">
         <v>309</v>
       </c>
@@ -21643,6 +21692,7 @@
       <c r="E489" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F489" s="72"/>
       <c r="G489" t="s">
         <v>309</v>
       </c>
@@ -21666,7 +21716,7 @@
       <c r="E490" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F490">
+      <c r="F490" s="72">
         <v>35785</v>
       </c>
       <c r="G490" t="s">
@@ -21692,6 +21742,7 @@
       <c r="E491" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F491" s="72"/>
       <c r="G491" t="s">
         <v>309</v>
       </c>
@@ -21715,6 +21766,7 @@
       <c r="E492" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F492" s="72"/>
       <c r="G492" t="s">
         <v>309</v>
       </c>
@@ -21738,6 +21790,7 @@
       <c r="E493" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F493" s="72"/>
       <c r="G493" t="s">
         <v>309</v>
       </c>
@@ -21877,7 +21930,7 @@
       <c r="E498" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F498">
+      <c r="F498" s="72">
         <v>32214</v>
       </c>
       <c r="G498" t="s">
@@ -21955,7 +22008,7 @@
       <c r="E501" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F501">
+      <c r="F501" s="72">
         <v>37366</v>
       </c>
       <c r="G501" t="s">
@@ -22033,7 +22086,7 @@
       <c r="E504" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F504">
+      <c r="F504" s="72">
         <v>37412</v>
       </c>
       <c r="G504" t="s">
@@ -22111,7 +22164,7 @@
       <c r="E507" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F507">
+      <c r="F507" s="72">
         <v>37181</v>
       </c>
       <c r="G507" t="s">
@@ -22189,7 +22242,7 @@
       <c r="E510" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F510">
+      <c r="F510" s="72">
         <v>36886</v>
       </c>
       <c r="G510" t="s">
@@ -22215,7 +22268,7 @@
       <c r="E511" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F511">
+      <c r="F511" s="72">
         <v>36655</v>
       </c>
       <c r="G511" t="s">
@@ -22241,7 +22294,7 @@
       <c r="E512" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F512">
+      <c r="F512" s="72">
         <v>36166</v>
       </c>
       <c r="G512" t="s">
@@ -22267,7 +22320,7 @@
       <c r="E513" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F513">
+      <c r="F513" s="72">
         <v>35923</v>
       </c>
       <c r="G513" t="s">
@@ -22293,7 +22346,7 @@
       <c r="E514" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F514">
+      <c r="F514" s="72">
         <v>33529</v>
       </c>
       <c r="G514" t="s">
@@ -22319,7 +22372,7 @@
       <c r="E515" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F515">
+      <c r="F515" s="72">
         <v>4353</v>
       </c>
       <c r="G515" t="s">
@@ -22345,7 +22398,7 @@
       <c r="E516" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F516">
+      <c r="F516" s="72">
         <v>5101</v>
       </c>
       <c r="G516" t="s">
@@ -22371,7 +22424,7 @@
       <c r="E517" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F517">
+      <c r="F517" s="72">
         <v>8131</v>
       </c>
       <c r="G517" t="s">
@@ -22397,7 +22450,7 @@
       <c r="E518" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F518">
+      <c r="F518" s="72">
         <v>3789</v>
       </c>
       <c r="G518" t="s">
@@ -22423,7 +22476,7 @@
       <c r="E519" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F519">
+      <c r="F519" s="72">
         <v>9591</v>
       </c>
       <c r="G519" t="s">
@@ -22449,7 +22502,7 @@
       <c r="E520" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F520">
+      <c r="F520" s="72">
         <v>7823</v>
       </c>
       <c r="G520" t="s">
@@ -22475,7 +22528,7 @@
       <c r="E521" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F521">
+      <c r="F521" s="72">
         <v>4464</v>
       </c>
       <c r="G521" t="s">
@@ -22501,7 +22554,7 @@
       <c r="E522" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F522">
+      <c r="F522" s="72">
         <v>5292</v>
       </c>
       <c r="G522" t="s">
@@ -22527,7 +22580,7 @@
       <c r="E523" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F523">
+      <c r="F523" s="72">
         <v>4812</v>
       </c>
       <c r="G523" t="s">
@@ -22553,7 +22606,7 @@
       <c r="E524" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F524">
+      <c r="F524" s="72">
         <v>4601</v>
       </c>
       <c r="G524" t="s">
@@ -22579,7 +22632,7 @@
       <c r="E525" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F525">
+      <c r="F525" s="72">
         <v>4439</v>
       </c>
       <c r="G525" t="s">
@@ -22605,7 +22658,7 @@
       <c r="E526" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F526">
+      <c r="F526" s="72">
         <v>5003</v>
       </c>
       <c r="G526" t="s">
@@ -22631,7 +22684,7 @@
       <c r="E527" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F527">
+      <c r="F527" s="72">
         <v>4894</v>
       </c>
       <c r="G527" t="s">
@@ -22657,7 +22710,7 @@
       <c r="E528" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F528">
+      <c r="F528" s="72">
         <v>5288</v>
       </c>
       <c r="G528" t="s">
@@ -22683,7 +22736,7 @@
       <c r="E529" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F529">
+      <c r="F529" s="72">
         <v>5424</v>
       </c>
       <c r="G529" t="s">
@@ -22709,7 +22762,7 @@
       <c r="E530" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F530">
+      <c r="F530" s="72">
         <v>5165</v>
       </c>
       <c r="G530" t="s">
@@ -22735,7 +22788,7 @@
       <c r="E531" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F531">
+      <c r="F531" s="72">
         <v>8229</v>
       </c>
       <c r="G531" t="s">
@@ -22761,7 +22814,7 @@
       <c r="E532" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F532">
+      <c r="F532" s="72">
         <v>10219</v>
       </c>
       <c r="G532" t="s">
@@ -22787,7 +22840,7 @@
       <c r="E533" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F533">
+      <c r="F533" s="72">
         <v>9570</v>
       </c>
       <c r="G533" t="s">
@@ -22813,7 +22866,7 @@
       <c r="E534" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F534">
+      <c r="F534" s="72">
         <v>4999</v>
       </c>
       <c r="G534" t="s">
@@ -22839,7 +22892,7 @@
       <c r="E535" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F535">
+      <c r="F535" s="72">
         <v>5099</v>
       </c>
       <c r="G535" t="s">
@@ -22865,7 +22918,7 @@
       <c r="E536" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F536">
+      <c r="F536" s="72">
         <v>4842</v>
       </c>
       <c r="G536" t="s">
@@ -22949,7 +23002,7 @@
       <c r="E539" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F539">
+      <c r="F539" s="72">
         <v>3319</v>
       </c>
       <c r="G539" t="s">
@@ -22975,7 +23028,7 @@
       <c r="E540" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F540">
+      <c r="F540" s="72">
         <v>3394</v>
       </c>
       <c r="G540" t="s">
@@ -23001,7 +23054,7 @@
       <c r="E541" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F541">
+      <c r="F541" s="72">
         <v>3933</v>
       </c>
       <c r="G541" t="s">
@@ -23027,7 +23080,7 @@
       <c r="E542" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F542">
+      <c r="F542" s="72">
         <v>6323</v>
       </c>
       <c r="G542" t="s">
@@ -23053,7 +23106,7 @@
       <c r="E543" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F543">
+      <c r="F543" s="72">
         <v>9990</v>
       </c>
       <c r="G543" t="s">
@@ -23079,7 +23132,7 @@
       <c r="E544" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F544">
+      <c r="F544" s="72">
         <v>45000</v>
       </c>
       <c r="G544" t="s">
@@ -23105,7 +23158,7 @@
       <c r="E545" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F545">
+      <c r="F545" s="72">
         <v>45000</v>
       </c>
       <c r="G545" t="s">
@@ -23131,7 +23184,7 @@
       <c r="E546" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F546">
+      <c r="F546" s="72">
         <v>60000</v>
       </c>
       <c r="G546" t="s">
@@ -23157,7 +23210,7 @@
       <c r="E547" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F547">
+      <c r="F547" s="72">
         <v>160008</v>
       </c>
       <c r="G547" t="s">
@@ -23183,7 +23236,7 @@
       <c r="E548" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F548">
+      <c r="F548" s="72">
         <v>60000</v>
       </c>
       <c r="G548" t="s">
@@ -23209,7 +23262,7 @@
       <c r="E549" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F549">
+      <c r="F549" s="72">
         <v>60000</v>
       </c>
       <c r="G549" t="s">
@@ -23235,7 +23288,7 @@
       <c r="E550" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F550">
+      <c r="F550" s="72">
         <v>60000</v>
       </c>
       <c r="G550" t="s">
@@ -23261,7 +23314,7 @@
       <c r="E551" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F551">
+      <c r="F551" s="72">
         <v>4560</v>
       </c>
       <c r="G551" t="s">
@@ -23287,7 +23340,7 @@
       <c r="E552" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F552">
+      <c r="F552" s="72">
         <v>4585</v>
       </c>
       <c r="G552" t="s">
@@ -23313,7 +23366,7 @@
       <c r="E553" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F553">
+      <c r="F553" s="72">
         <v>4517</v>
       </c>
       <c r="G553" t="s">
@@ -23339,7 +23392,7 @@
       <c r="E554" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F554">
+      <c r="F554" s="72">
         <v>6457</v>
       </c>
       <c r="G554" t="s">
@@ -23539,7 +23592,7 @@
       <c r="E561" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F561" s="62">
+      <c r="F561" s="72">
         <v>5637</v>
       </c>
       <c r="G561" t="s">
@@ -23565,7 +23618,7 @@
       <c r="E562" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F562" s="62">
+      <c r="F562" s="72">
         <v>5738</v>
       </c>
       <c r="G562" t="s">
@@ -23591,7 +23644,7 @@
       <c r="E563" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F563" s="62">
+      <c r="F563" s="72">
         <v>5602</v>
       </c>
       <c r="G563" t="s">
@@ -23617,7 +23670,7 @@
       <c r="E564" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F564" s="62">
+      <c r="F564" s="72">
         <v>5662</v>
       </c>
       <c r="G564" t="s">
@@ -23643,7 +23696,7 @@
       <c r="E565" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F565" s="62">
+      <c r="F565" s="72">
         <v>5591</v>
       </c>
       <c r="G565" t="s">
@@ -23727,7 +23780,7 @@
       <c r="E568" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F568">
+      <c r="F568" s="72">
         <v>3725</v>
       </c>
       <c r="G568" t="s">
@@ -23753,7 +23806,7 @@
       <c r="E569" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F569">
+      <c r="F569" s="72">
         <v>3697</v>
       </c>
       <c r="G569" t="s">
@@ -23779,7 +23832,7 @@
       <c r="E570" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F570">
+      <c r="F570" s="72">
         <v>3924</v>
       </c>
       <c r="G570" t="s">
@@ -23805,7 +23858,7 @@
       <c r="E571" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F571">
+      <c r="F571" s="72">
         <v>3663</v>
       </c>
       <c r="G571" t="s">
@@ -23831,7 +23884,7 @@
       <c r="E572" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F572">
+      <c r="F572" s="72">
         <v>3750</v>
       </c>
       <c r="G572" t="s">
@@ -23842,16 +23895,16 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A573" t="s">
+      <c r="A573" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="B573" s="1">
+      <c r="B573" s="82">
         <v>1967</v>
       </c>
-      <c r="C573" s="63" t="s">
+      <c r="C573" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D573" s="62" t="s">
+      <c r="D573" s="81" t="s">
         <v>168</v>
       </c>
       <c r="E573" s="59" t="s">
@@ -24060,7 +24113,7 @@
       <c r="E580" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F580">
+      <c r="F580" s="72">
         <v>16268</v>
       </c>
       <c r="G580" t="s">
@@ -24405,7 +24458,7 @@
       <c r="E592" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F592">
+      <c r="F592" s="72">
         <v>18392</v>
       </c>
       <c r="G592" t="s">
@@ -24431,6 +24484,7 @@
       <c r="E593" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F593" s="72"/>
       <c r="G593" t="s">
         <v>320</v>
       </c>
@@ -24454,6 +24508,7 @@
       <c r="E594" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F594" s="72"/>
       <c r="G594" t="s">
         <v>320</v>
       </c>
@@ -24477,7 +24532,7 @@
       <c r="E595" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F595">
+      <c r="F595" s="72">
         <v>49136</v>
       </c>
       <c r="G595" t="s">
@@ -24503,6 +24558,7 @@
       <c r="E596" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F596" s="72"/>
       <c r="G596" t="s">
         <v>320</v>
       </c>
@@ -24526,6 +24582,7 @@
       <c r="E597" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F597" s="72"/>
       <c r="G597" t="s">
         <v>320</v>
       </c>
@@ -24549,7 +24606,7 @@
       <c r="E598" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F598">
+      <c r="F598" s="72">
         <v>46550</v>
       </c>
       <c r="G598" t="s">
@@ -24575,6 +24632,7 @@
       <c r="E599" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F599" s="72"/>
       <c r="G599" t="s">
         <v>320</v>
       </c>
@@ -24598,6 +24656,7 @@
       <c r="E600" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F600" s="72"/>
       <c r="G600" t="s">
         <v>320</v>
       </c>
@@ -24621,7 +24680,7 @@
       <c r="E601" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F601">
+      <c r="F601" s="72">
         <v>46622</v>
       </c>
       <c r="G601" t="s">
@@ -24647,6 +24706,7 @@
       <c r="E602" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F602" s="72"/>
       <c r="G602" t="s">
         <v>320</v>
       </c>
@@ -24670,6 +24730,7 @@
       <c r="E603" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F603" s="72"/>
       <c r="G603" t="s">
         <v>320</v>
       </c>
@@ -24693,7 +24754,7 @@
       <c r="E604" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F604">
+      <c r="F604" s="72">
         <v>45158</v>
       </c>
       <c r="G604" t="s">
@@ -24719,6 +24780,7 @@
       <c r="E605" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F605" s="72"/>
       <c r="G605" t="s">
         <v>320</v>
       </c>
@@ -24742,6 +24804,7 @@
       <c r="E606" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F606" s="72"/>
       <c r="G606" t="s">
         <v>320</v>
       </c>
@@ -24765,6 +24828,7 @@
       <c r="E607" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="F607" s="72"/>
       <c r="G607" t="s">
         <v>320</v>
       </c>
@@ -24817,7 +24881,7 @@
       <c r="E609" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F609">
+      <c r="F609" s="72">
         <v>65238</v>
       </c>
       <c r="G609" t="s">
@@ -24843,7 +24907,7 @@
       <c r="E610" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F610">
+      <c r="F610" s="72">
         <v>65731</v>
       </c>
       <c r="G610" t="s">
@@ -24869,7 +24933,7 @@
       <c r="E611" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F611">
+      <c r="F611" s="72">
         <v>59276</v>
       </c>
       <c r="G611" t="s">
@@ -24895,7 +24959,7 @@
       <c r="E612" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F612">
+      <c r="F612" s="72">
         <v>59211</v>
       </c>
       <c r="G612" t="s">
@@ -24921,7 +24985,7 @@
       <c r="E613" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F613">
+      <c r="F613" s="72">
         <v>59171</v>
       </c>
       <c r="G613" t="s">
@@ -24947,7 +25011,7 @@
       <c r="E614" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F614">
+      <c r="F614" s="72">
         <v>59799</v>
       </c>
       <c r="G614" t="s">
@@ -24973,7 +25037,7 @@
       <c r="E615" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F615">
+      <c r="F615" s="72">
         <v>58914</v>
       </c>
       <c r="G615" t="s">
@@ -24999,7 +25063,7 @@
       <c r="E616" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F616">
+      <c r="F616" s="72">
         <v>58258</v>
       </c>
       <c r="G616" t="s">
@@ -25025,7 +25089,7 @@
       <c r="E617" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F617">
+      <c r="F617" s="72">
         <v>58975</v>
       </c>
       <c r="G617" t="s">
@@ -25051,7 +25115,7 @@
       <c r="E618" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F618">
+      <c r="F618" s="72">
         <v>55335</v>
       </c>
       <c r="G618" t="s">
@@ -25077,7 +25141,7 @@
       <c r="E619" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F619">
+      <c r="F619" s="72">
         <v>59941</v>
       </c>
       <c r="G619" t="s">
@@ -25103,7 +25167,7 @@
       <c r="E620" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F620">
+      <c r="F620" s="72">
         <v>59929</v>
       </c>
       <c r="G620" t="s">
@@ -25129,7 +25193,7 @@
       <c r="E621" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F621">
+      <c r="F621" s="72">
         <v>59219</v>
       </c>
       <c r="G621" t="s">
@@ -25155,7 +25219,7 @@
       <c r="E622" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F622">
+      <c r="F622" s="72">
         <v>58970</v>
       </c>
       <c r="G622" t="s">
@@ -25181,7 +25245,7 @@
       <c r="E623" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F623">
+      <c r="F623" s="72">
         <v>57079</v>
       </c>
       <c r="G623" t="s">
@@ -25207,7 +25271,7 @@
       <c r="E624" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F624">
+      <c r="F624" s="72">
         <v>56941</v>
       </c>
       <c r="G624" t="s">
@@ -25233,7 +25297,7 @@
       <c r="E625" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F625">
+      <c r="F625" s="72">
         <v>49682</v>
       </c>
       <c r="G625" t="s">
@@ -25259,7 +25323,7 @@
       <c r="E626" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F626">
+      <c r="F626" s="72">
         <v>50311</v>
       </c>
       <c r="G626" t="s">
@@ -25285,7 +25349,7 @@
       <c r="E627" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F627">
+      <c r="F627" s="72">
         <v>50348</v>
       </c>
       <c r="G627" t="s">
@@ -25311,7 +25375,7 @@
       <c r="E628" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F628">
+      <c r="F628" s="72">
         <v>50781</v>
       </c>
       <c r="G628" t="s">
@@ -25337,7 +25401,7 @@
       <c r="E629" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F629">
+      <c r="F629" s="72">
         <v>51016</v>
       </c>
       <c r="G629" t="s">
@@ -25363,7 +25427,7 @@
       <c r="E630" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F630">
+      <c r="F630" s="72">
         <v>78054</v>
       </c>
       <c r="G630" t="s">
@@ -25389,7 +25453,7 @@
       <c r="E631" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F631">
+      <c r="F631" s="72">
         <v>78265</v>
       </c>
       <c r="G631" t="s">
@@ -25415,7 +25479,7 @@
       <c r="E632" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F632">
+      <c r="F632" s="72">
         <v>78310</v>
       </c>
       <c r="G632" t="s">
@@ -25441,7 +25505,7 @@
       <c r="E633" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F633">
+      <c r="F633" s="72">
         <v>77149</v>
       </c>
       <c r="G633" t="s">
@@ -25467,7 +25531,7 @@
       <c r="E634" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F634">
+      <c r="F634" s="72">
         <v>76447</v>
       </c>
       <c r="G634" t="s">
@@ -25493,7 +25557,7 @@
       <c r="E635" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F635">
+      <c r="F635" s="72">
         <v>75939</v>
       </c>
       <c r="G635" t="s">
@@ -25519,7 +25583,7 @@
       <c r="E636" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F636">
+      <c r="F636" s="72">
         <v>75477</v>
       </c>
       <c r="G636" t="s">
@@ -25545,7 +25609,7 @@
       <c r="E637" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F637">
+      <c r="F637" s="72">
         <v>75872</v>
       </c>
       <c r="G637" t="s">
@@ -25571,7 +25635,7 @@
       <c r="E638" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F638">
+      <c r="F638" s="72">
         <v>76185</v>
       </c>
       <c r="G638" t="s">
@@ -25597,7 +25661,7 @@
       <c r="E639" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F639">
+      <c r="F639" s="72">
         <v>76260</v>
       </c>
       <c r="G639" t="s">
@@ -25623,7 +25687,7 @@
       <c r="E640" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F640">
+      <c r="F640" s="72">
         <v>75188</v>
       </c>
       <c r="G640" t="s">
@@ -25649,7 +25713,7 @@
       <c r="E641" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F641">
+      <c r="F641" s="72">
         <v>74383</v>
       </c>
       <c r="G641" t="s">
@@ -25675,7 +25739,7 @@
       <c r="E642" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F642">
+      <c r="F642" s="72">
         <v>74821</v>
       </c>
       <c r="G642" t="s">
@@ -25701,7 +25765,7 @@
       <c r="E643" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F643">
+      <c r="F643" s="72">
         <v>51498</v>
       </c>
       <c r="G643" t="s">
@@ -25727,7 +25791,7 @@
       <c r="E644" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F644">
+      <c r="F644" s="72">
         <v>74257</v>
       </c>
       <c r="G644" t="s">
@@ -25753,7 +25817,7 @@
       <c r="E645" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F645">
+      <c r="F645" s="72">
         <v>69484</v>
       </c>
       <c r="G645" t="s">
@@ -25779,7 +25843,7 @@
       <c r="E646" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F646">
+      <c r="F646" s="72">
         <v>69957</v>
       </c>
       <c r="G646" t="s">
@@ -25805,7 +25869,7 @@
       <c r="E647" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F647">
+      <c r="F647" s="72">
         <v>67909</v>
       </c>
       <c r="G647" t="s">
@@ -25831,7 +25895,7 @@
       <c r="E648" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F648">
+      <c r="F648" s="72">
         <v>68345</v>
       </c>
       <c r="G648" t="s">
@@ -25857,7 +25921,7 @@
       <c r="E649" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F649">
+      <c r="F649" s="72">
         <v>60460</v>
       </c>
       <c r="G649" t="s">
@@ -25883,7 +25947,7 @@
       <c r="E650" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F650">
+      <c r="F650" s="72">
         <v>62850</v>
       </c>
       <c r="G650" t="s">
@@ -25909,7 +25973,7 @@
       <c r="E651" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F651">
+      <c r="F651" s="72">
         <v>9189</v>
       </c>
       <c r="G651" t="s">
@@ -25935,7 +25999,7 @@
       <c r="E652" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F652">
+      <c r="F652" s="72">
         <v>9189</v>
       </c>
       <c r="G652" t="s">
@@ -25961,7 +26025,7 @@
       <c r="E653" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F653">
+      <c r="F653" s="72">
         <v>9398</v>
       </c>
       <c r="G653" t="s">
@@ -25987,7 +26051,7 @@
       <c r="E654" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F654">
+      <c r="F654" s="72">
         <v>9396</v>
       </c>
       <c r="G654" t="s">
@@ -26013,7 +26077,7 @@
       <c r="E655" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F655">
+      <c r="F655" s="72">
         <v>9393</v>
       </c>
       <c r="G655" t="s">
@@ -26039,7 +26103,7 @@
       <c r="E656" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F656">
+      <c r="F656" s="72">
         <v>7296</v>
       </c>
       <c r="G656" t="s">
@@ -26065,7 +26129,7 @@
       <c r="E657" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F657">
+      <c r="F657" s="72">
         <v>6786</v>
       </c>
       <c r="G657" t="s">
@@ -26091,7 +26155,7 @@
       <c r="E658" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F658">
+      <c r="F658" s="72">
         <v>8040</v>
       </c>
       <c r="G658" t="s">
@@ -26117,7 +26181,7 @@
       <c r="E659" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F659">
+      <c r="F659" s="72">
         <v>9616</v>
       </c>
       <c r="G659" t="s">
@@ -26143,7 +26207,7 @@
       <c r="E660" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F660">
+      <c r="F660" s="72">
         <v>10842</v>
       </c>
       <c r="G660" t="s">
@@ -26154,10 +26218,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I660" xr:uid="{0F6A7D78-92EA-47A0-BC0F-20805E66886E}"/>
+  <autoFilter ref="A1:I660" xr:uid="{0F6A7D78-92EA-47A0-BC0F-20805E66886E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:I242">
+      <sortCondition sortBy="cellColor" ref="C1:C660" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E1:E13 E243:E660" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>